--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang3/02.XuLyBH/XLBH2103 _GPSGlobal.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang3/02.XuLyBH/XLBH2103 _GPSGlobal.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065" activeTab="4"/>
+    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="TG102LE" sheetId="19" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="679" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="964" uniqueCount="135">
   <si>
     <t>STT</t>
   </si>
@@ -868,15 +868,6 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -905,6 +896,15 @@
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1213,8 +1213,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView showZeros="0" topLeftCell="L2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:S11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1246,43 +1246,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="78" t="s">
+      <c r="A1" s="75" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="78"/>
-      <c r="C1" s="78"/>
-      <c r="D1" s="78"/>
-      <c r="E1" s="78"/>
-      <c r="F1" s="78"/>
-      <c r="G1" s="78"/>
-      <c r="H1" s="78"/>
-      <c r="I1" s="78"/>
-      <c r="J1" s="78"/>
-      <c r="K1" s="78"/>
-      <c r="L1" s="78"/>
-      <c r="M1" s="78"/>
-      <c r="N1" s="78"/>
-      <c r="O1" s="78"/>
-      <c r="P1" s="78"/>
-      <c r="Q1" s="78"/>
-      <c r="R1" s="78"/>
-      <c r="S1" s="78"/>
-      <c r="T1" s="78"/>
-      <c r="U1" s="78"/>
-      <c r="V1" s="78"/>
+      <c r="B1" s="75"/>
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="75"/>
+      <c r="F1" s="75"/>
+      <c r="G1" s="75"/>
+      <c r="H1" s="75"/>
+      <c r="I1" s="75"/>
+      <c r="J1" s="75"/>
+      <c r="K1" s="75"/>
+      <c r="L1" s="75"/>
+      <c r="M1" s="75"/>
+      <c r="N1" s="75"/>
+      <c r="O1" s="75"/>
+      <c r="P1" s="75"/>
+      <c r="Q1" s="75"/>
+      <c r="R1" s="75"/>
+      <c r="S1" s="75"/>
+      <c r="T1" s="75"/>
+      <c r="U1" s="75"/>
+      <c r="V1" s="75"/>
       <c r="W1" s="55"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="81" t="s">
+      <c r="A2" s="78" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="82"/>
-      <c r="C2" s="82"/>
-      <c r="D2" s="82"/>
-      <c r="E2" s="83" t="s">
+      <c r="B2" s="79"/>
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="80" t="s">
         <v>61</v>
       </c>
-      <c r="F2" s="83"/>
+      <c r="F2" s="80"/>
       <c r="G2" s="6"/>
       <c r="H2" s="24"/>
       <c r="I2" s="24"/>
@@ -1327,58 +1327,58 @@
       <c r="W3" s="30"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="84" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="76" t="s">
+      <c r="A4" s="81" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="73" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="76"/>
-      <c r="D4" s="76"/>
-      <c r="E4" s="76"/>
-      <c r="F4" s="76"/>
-      <c r="G4" s="76"/>
-      <c r="H4" s="76"/>
-      <c r="I4" s="76"/>
-      <c r="J4" s="76" t="s">
+      <c r="C4" s="73"/>
+      <c r="D4" s="73"/>
+      <c r="E4" s="73"/>
+      <c r="F4" s="73"/>
+      <c r="G4" s="73"/>
+      <c r="H4" s="73"/>
+      <c r="I4" s="73"/>
+      <c r="J4" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="76" t="s">
+      <c r="K4" s="73" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="76"/>
-      <c r="M4" s="79" t="s">
+      <c r="L4" s="73"/>
+      <c r="M4" s="76" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="79" t="s">
+      <c r="N4" s="76" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="76" t="s">
+      <c r="O4" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="77" t="s">
+      <c r="P4" s="74" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="76" t="s">
+      <c r="Q4" s="73" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="76" t="s">
+      <c r="R4" s="73" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="85" t="s">
+      <c r="S4" s="82" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="30"/>
-      <c r="U4" s="76" t="s">
+      <c r="U4" s="73" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="76" t="s">
+      <c r="V4" s="73" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="56"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="84"/>
+      <c r="A5" s="81"/>
       <c r="B5" s="5" t="s">
         <v>1</v>
       </c>
@@ -1403,23 +1403,23 @@
       <c r="I5" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="76"/>
+      <c r="J5" s="73"/>
       <c r="K5" s="5" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="80"/>
-      <c r="N5" s="80"/>
-      <c r="O5" s="76"/>
-      <c r="P5" s="77"/>
-      <c r="Q5" s="76"/>
-      <c r="R5" s="76"/>
-      <c r="S5" s="85"/>
+      <c r="M5" s="77"/>
+      <c r="N5" s="77"/>
+      <c r="O5" s="73"/>
+      <c r="P5" s="74"/>
+      <c r="Q5" s="73"/>
+      <c r="R5" s="73"/>
+      <c r="S5" s="82"/>
       <c r="T5" s="30"/>
-      <c r="U5" s="76"/>
-      <c r="V5" s="76"/>
+      <c r="U5" s="73"/>
+      <c r="V5" s="73"/>
       <c r="W5" s="56"/>
     </row>
     <row r="6" spans="1:23" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1467,7 +1467,7 @@
       </c>
       <c r="S6" s="64"/>
       <c r="T6" s="13"/>
-      <c r="U6" s="73" t="s">
+      <c r="U6" s="83" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -1526,7 +1526,7 @@
       </c>
       <c r="S7" s="4"/>
       <c r="T7" s="13"/>
-      <c r="U7" s="74"/>
+      <c r="U7" s="84"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -1583,7 +1583,7 @@
       </c>
       <c r="S8" s="4"/>
       <c r="T8" s="13"/>
-      <c r="U8" s="74"/>
+      <c r="U8" s="84"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -1640,7 +1640,7 @@
       </c>
       <c r="S9" s="4"/>
       <c r="T9" s="23"/>
-      <c r="U9" s="74"/>
+      <c r="U9" s="84"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -1697,7 +1697,7 @@
       </c>
       <c r="S10" s="4"/>
       <c r="T10" s="32"/>
-      <c r="U10" s="74"/>
+      <c r="U10" s="84"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -1752,7 +1752,7 @@
       </c>
       <c r="S11" s="4"/>
       <c r="T11" s="13"/>
-      <c r="U11" s="74"/>
+      <c r="U11" s="84"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -1781,7 +1781,7 @@
       <c r="R12" s="43"/>
       <c r="S12" s="4"/>
       <c r="T12" s="13"/>
-      <c r="U12" s="73" t="s">
+      <c r="U12" s="83" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -1812,7 +1812,7 @@
       <c r="R13" s="11"/>
       <c r="S13" s="4"/>
       <c r="T13" s="13"/>
-      <c r="U13" s="74"/>
+      <c r="U13" s="84"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -1841,7 +1841,7 @@
       <c r="R14" s="43"/>
       <c r="S14" s="4"/>
       <c r="T14" s="13"/>
-      <c r="U14" s="74"/>
+      <c r="U14" s="84"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -1870,7 +1870,7 @@
       <c r="R15" s="43"/>
       <c r="S15" s="4"/>
       <c r="T15" s="16"/>
-      <c r="U15" s="74"/>
+      <c r="U15" s="84"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -1899,7 +1899,7 @@
       <c r="R16" s="43"/>
       <c r="S16" s="4"/>
       <c r="T16" s="16"/>
-      <c r="U16" s="75"/>
+      <c r="U16" s="85"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -3130,6 +3130,11 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="K4:L4"/>
     <mergeCell ref="O4:O5"/>
     <mergeCell ref="P4:P5"/>
@@ -3143,11 +3148,6 @@
     <mergeCell ref="B4:I4"/>
     <mergeCell ref="J4:J5"/>
     <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3158,8 +3158,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView showZeros="0" topLeftCell="K1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:S8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3191,43 +3191,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="78" t="s">
+      <c r="A1" s="75" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="78"/>
-      <c r="C1" s="78"/>
-      <c r="D1" s="78"/>
-      <c r="E1" s="78"/>
-      <c r="F1" s="78"/>
-      <c r="G1" s="78"/>
-      <c r="H1" s="78"/>
-      <c r="I1" s="78"/>
-      <c r="J1" s="78"/>
-      <c r="K1" s="78"/>
-      <c r="L1" s="78"/>
-      <c r="M1" s="78"/>
-      <c r="N1" s="78"/>
-      <c r="O1" s="78"/>
-      <c r="P1" s="78"/>
-      <c r="Q1" s="78"/>
-      <c r="R1" s="78"/>
-      <c r="S1" s="78"/>
-      <c r="T1" s="78"/>
-      <c r="U1" s="78"/>
-      <c r="V1" s="78"/>
+      <c r="B1" s="75"/>
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="75"/>
+      <c r="F1" s="75"/>
+      <c r="G1" s="75"/>
+      <c r="H1" s="75"/>
+      <c r="I1" s="75"/>
+      <c r="J1" s="75"/>
+      <c r="K1" s="75"/>
+      <c r="L1" s="75"/>
+      <c r="M1" s="75"/>
+      <c r="N1" s="75"/>
+      <c r="O1" s="75"/>
+      <c r="P1" s="75"/>
+      <c r="Q1" s="75"/>
+      <c r="R1" s="75"/>
+      <c r="S1" s="75"/>
+      <c r="T1" s="75"/>
+      <c r="U1" s="75"/>
+      <c r="V1" s="75"/>
       <c r="W1" s="55"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="81" t="s">
+      <c r="A2" s="78" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="82"/>
-      <c r="C2" s="82"/>
-      <c r="D2" s="82"/>
-      <c r="E2" s="83" t="s">
+      <c r="B2" s="79"/>
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="80" t="s">
         <v>61</v>
       </c>
-      <c r="F2" s="83"/>
+      <c r="F2" s="80"/>
       <c r="G2" s="6"/>
       <c r="H2" s="24"/>
       <c r="I2" s="24"/>
@@ -3272,58 +3272,58 @@
       <c r="W3" s="30"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="84" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="76" t="s">
+      <c r="A4" s="81" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="73" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="76"/>
-      <c r="D4" s="76"/>
-      <c r="E4" s="76"/>
-      <c r="F4" s="76"/>
-      <c r="G4" s="76"/>
-      <c r="H4" s="76"/>
-      <c r="I4" s="76"/>
-      <c r="J4" s="76" t="s">
+      <c r="C4" s="73"/>
+      <c r="D4" s="73"/>
+      <c r="E4" s="73"/>
+      <c r="F4" s="73"/>
+      <c r="G4" s="73"/>
+      <c r="H4" s="73"/>
+      <c r="I4" s="73"/>
+      <c r="J4" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="76" t="s">
+      <c r="K4" s="73" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="76"/>
-      <c r="M4" s="79" t="s">
+      <c r="L4" s="73"/>
+      <c r="M4" s="76" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="79" t="s">
+      <c r="N4" s="76" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="76" t="s">
+      <c r="O4" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="77" t="s">
+      <c r="P4" s="74" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="76" t="s">
+      <c r="Q4" s="73" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="76" t="s">
+      <c r="R4" s="73" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="85" t="s">
+      <c r="S4" s="82" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="30"/>
-      <c r="U4" s="76" t="s">
+      <c r="U4" s="73" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="76" t="s">
+      <c r="V4" s="73" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="56"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="84"/>
+      <c r="A5" s="81"/>
       <c r="B5" s="62" t="s">
         <v>1</v>
       </c>
@@ -3348,23 +3348,23 @@
       <c r="I5" s="62" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="76"/>
+      <c r="J5" s="73"/>
       <c r="K5" s="62" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="62" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="80"/>
-      <c r="N5" s="80"/>
-      <c r="O5" s="76"/>
-      <c r="P5" s="77"/>
-      <c r="Q5" s="76"/>
-      <c r="R5" s="76"/>
-      <c r="S5" s="85"/>
+      <c r="M5" s="77"/>
+      <c r="N5" s="77"/>
+      <c r="O5" s="73"/>
+      <c r="P5" s="74"/>
+      <c r="Q5" s="73"/>
+      <c r="R5" s="73"/>
+      <c r="S5" s="82"/>
       <c r="T5" s="30"/>
-      <c r="U5" s="76"/>
-      <c r="V5" s="76"/>
+      <c r="U5" s="73"/>
+      <c r="V5" s="73"/>
       <c r="W5" s="56"/>
     </row>
     <row r="6" spans="1:23" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3420,7 +3420,7 @@
       </c>
       <c r="S6" s="4"/>
       <c r="T6" s="61"/>
-      <c r="U6" s="73" t="s">
+      <c r="U6" s="83" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -3479,7 +3479,7 @@
       </c>
       <c r="S7" s="4"/>
       <c r="T7" s="61"/>
-      <c r="U7" s="74"/>
+      <c r="U7" s="84"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -3538,7 +3538,7 @@
       </c>
       <c r="S8" s="4"/>
       <c r="T8" s="61"/>
-      <c r="U8" s="74"/>
+      <c r="U8" s="84"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -3567,7 +3567,7 @@
       <c r="R9" s="43"/>
       <c r="S9" s="4"/>
       <c r="T9" s="61"/>
-      <c r="U9" s="74"/>
+      <c r="U9" s="84"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -3596,7 +3596,7 @@
       <c r="R10" s="43"/>
       <c r="S10" s="4"/>
       <c r="T10" s="61"/>
-      <c r="U10" s="74"/>
+      <c r="U10" s="84"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -3625,7 +3625,7 @@
       <c r="R11" s="43"/>
       <c r="S11" s="4"/>
       <c r="T11" s="61"/>
-      <c r="U11" s="74"/>
+      <c r="U11" s="84"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -3654,7 +3654,7 @@
       <c r="R12" s="43"/>
       <c r="S12" s="4"/>
       <c r="T12" s="61"/>
-      <c r="U12" s="73" t="s">
+      <c r="U12" s="83" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -3685,7 +3685,7 @@
       <c r="R13" s="11"/>
       <c r="S13" s="4"/>
       <c r="T13" s="61"/>
-      <c r="U13" s="74"/>
+      <c r="U13" s="84"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -3714,7 +3714,7 @@
       <c r="R14" s="43"/>
       <c r="S14" s="4"/>
       <c r="T14" s="61"/>
-      <c r="U14" s="74"/>
+      <c r="U14" s="84"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -3743,7 +3743,7 @@
       <c r="R15" s="43"/>
       <c r="S15" s="4"/>
       <c r="T15" s="16"/>
-      <c r="U15" s="74"/>
+      <c r="U15" s="84"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -3772,7 +3772,7 @@
       <c r="R16" s="43"/>
       <c r="S16" s="4"/>
       <c r="T16" s="16"/>
-      <c r="U16" s="75"/>
+      <c r="U16" s="85"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -5003,6 +5003,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -5014,13 +5021,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5032,7 +5032,7 @@
   <dimension ref="A1:X57"/>
   <sheetViews>
     <sheetView showZeros="0" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5064,43 +5064,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="78" t="s">
+      <c r="A1" s="75" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="78"/>
-      <c r="C1" s="78"/>
-      <c r="D1" s="78"/>
-      <c r="E1" s="78"/>
-      <c r="F1" s="78"/>
-      <c r="G1" s="78"/>
-      <c r="H1" s="78"/>
-      <c r="I1" s="78"/>
-      <c r="J1" s="78"/>
-      <c r="K1" s="78"/>
-      <c r="L1" s="78"/>
-      <c r="M1" s="78"/>
-      <c r="N1" s="78"/>
-      <c r="O1" s="78"/>
-      <c r="P1" s="78"/>
-      <c r="Q1" s="78"/>
-      <c r="R1" s="78"/>
-      <c r="S1" s="78"/>
-      <c r="T1" s="78"/>
-      <c r="U1" s="78"/>
-      <c r="V1" s="78"/>
+      <c r="B1" s="75"/>
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="75"/>
+      <c r="F1" s="75"/>
+      <c r="G1" s="75"/>
+      <c r="H1" s="75"/>
+      <c r="I1" s="75"/>
+      <c r="J1" s="75"/>
+      <c r="K1" s="75"/>
+      <c r="L1" s="75"/>
+      <c r="M1" s="75"/>
+      <c r="N1" s="75"/>
+      <c r="O1" s="75"/>
+      <c r="P1" s="75"/>
+      <c r="Q1" s="75"/>
+      <c r="R1" s="75"/>
+      <c r="S1" s="75"/>
+      <c r="T1" s="75"/>
+      <c r="U1" s="75"/>
+      <c r="V1" s="75"/>
       <c r="W1" s="55"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="81" t="s">
+      <c r="A2" s="78" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="82"/>
-      <c r="C2" s="82"/>
-      <c r="D2" s="82"/>
-      <c r="E2" s="83" t="s">
+      <c r="B2" s="79"/>
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="80" t="s">
         <v>61</v>
       </c>
-      <c r="F2" s="83"/>
+      <c r="F2" s="80"/>
       <c r="G2" s="6"/>
       <c r="H2" s="24"/>
       <c r="I2" s="24"/>
@@ -5145,58 +5145,58 @@
       <c r="W3" s="30"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="84" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="76" t="s">
+      <c r="A4" s="81" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="73" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="76"/>
-      <c r="D4" s="76"/>
-      <c r="E4" s="76"/>
-      <c r="F4" s="76"/>
-      <c r="G4" s="76"/>
-      <c r="H4" s="76"/>
-      <c r="I4" s="76"/>
-      <c r="J4" s="76" t="s">
+      <c r="C4" s="73"/>
+      <c r="D4" s="73"/>
+      <c r="E4" s="73"/>
+      <c r="F4" s="73"/>
+      <c r="G4" s="73"/>
+      <c r="H4" s="73"/>
+      <c r="I4" s="73"/>
+      <c r="J4" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="76" t="s">
+      <c r="K4" s="73" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="76"/>
-      <c r="M4" s="79" t="s">
+      <c r="L4" s="73"/>
+      <c r="M4" s="76" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="79" t="s">
+      <c r="N4" s="76" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="76" t="s">
+      <c r="O4" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="77" t="s">
+      <c r="P4" s="74" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="76" t="s">
+      <c r="Q4" s="73" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="76" t="s">
+      <c r="R4" s="73" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="85" t="s">
+      <c r="S4" s="82" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="30"/>
-      <c r="U4" s="76" t="s">
+      <c r="U4" s="73" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="76" t="s">
+      <c r="V4" s="73" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="56"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="84"/>
+      <c r="A5" s="81"/>
       <c r="B5" s="62" t="s">
         <v>1</v>
       </c>
@@ -5221,23 +5221,23 @@
       <c r="I5" s="62" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="76"/>
+      <c r="J5" s="73"/>
       <c r="K5" s="62" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="62" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="80"/>
-      <c r="N5" s="80"/>
-      <c r="O5" s="76"/>
-      <c r="P5" s="77"/>
-      <c r="Q5" s="76"/>
-      <c r="R5" s="76"/>
-      <c r="S5" s="85"/>
+      <c r="M5" s="77"/>
+      <c r="N5" s="77"/>
+      <c r="O5" s="73"/>
+      <c r="P5" s="74"/>
+      <c r="Q5" s="73"/>
+      <c r="R5" s="73"/>
+      <c r="S5" s="82"/>
       <c r="T5" s="30"/>
-      <c r="U5" s="76"/>
-      <c r="V5" s="76"/>
+      <c r="U5" s="73"/>
+      <c r="V5" s="73"/>
       <c r="W5" s="56"/>
     </row>
     <row r="6" spans="1:23" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -5291,7 +5291,7 @@
       </c>
       <c r="S6" s="4"/>
       <c r="T6" s="61"/>
-      <c r="U6" s="73" t="s">
+      <c r="U6" s="83" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -5322,7 +5322,7 @@
       <c r="R7" s="43"/>
       <c r="S7" s="4"/>
       <c r="T7" s="61"/>
-      <c r="U7" s="74"/>
+      <c r="U7" s="84"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -5351,7 +5351,7 @@
       <c r="R8" s="43"/>
       <c r="S8" s="4"/>
       <c r="T8" s="61"/>
-      <c r="U8" s="74"/>
+      <c r="U8" s="84"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -5380,7 +5380,7 @@
       <c r="R9" s="43"/>
       <c r="S9" s="4"/>
       <c r="T9" s="61"/>
-      <c r="U9" s="74"/>
+      <c r="U9" s="84"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -5409,7 +5409,7 @@
       <c r="R10" s="43"/>
       <c r="S10" s="4"/>
       <c r="T10" s="61"/>
-      <c r="U10" s="74"/>
+      <c r="U10" s="84"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -5438,7 +5438,7 @@
       <c r="R11" s="43"/>
       <c r="S11" s="4"/>
       <c r="T11" s="61"/>
-      <c r="U11" s="74"/>
+      <c r="U11" s="84"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -5467,7 +5467,7 @@
       <c r="R12" s="43"/>
       <c r="S12" s="4"/>
       <c r="T12" s="61"/>
-      <c r="U12" s="73" t="s">
+      <c r="U12" s="83" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -5498,7 +5498,7 @@
       <c r="R13" s="11"/>
       <c r="S13" s="4"/>
       <c r="T13" s="61"/>
-      <c r="U13" s="74"/>
+      <c r="U13" s="84"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -5527,7 +5527,7 @@
       <c r="R14" s="43"/>
       <c r="S14" s="4"/>
       <c r="T14" s="61"/>
-      <c r="U14" s="74"/>
+      <c r="U14" s="84"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -5556,7 +5556,7 @@
       <c r="R15" s="43"/>
       <c r="S15" s="4"/>
       <c r="T15" s="16"/>
-      <c r="U15" s="74"/>
+      <c r="U15" s="84"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -5585,7 +5585,7 @@
       <c r="R16" s="43"/>
       <c r="S16" s="4"/>
       <c r="T16" s="16"/>
-      <c r="U16" s="75"/>
+      <c r="U16" s="85"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -6816,6 +6816,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -6827,13 +6834,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -6844,8 +6844,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6:M12"/>
+    <sheetView showZeros="0" topLeftCell="K1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:S12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -6877,43 +6877,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="78" t="s">
+      <c r="A1" s="75" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="78"/>
-      <c r="C1" s="78"/>
-      <c r="D1" s="78"/>
-      <c r="E1" s="78"/>
-      <c r="F1" s="78"/>
-      <c r="G1" s="78"/>
-      <c r="H1" s="78"/>
-      <c r="I1" s="78"/>
-      <c r="J1" s="78"/>
-      <c r="K1" s="78"/>
-      <c r="L1" s="78"/>
-      <c r="M1" s="78"/>
-      <c r="N1" s="78"/>
-      <c r="O1" s="78"/>
-      <c r="P1" s="78"/>
-      <c r="Q1" s="78"/>
-      <c r="R1" s="78"/>
-      <c r="S1" s="78"/>
-      <c r="T1" s="78"/>
-      <c r="U1" s="78"/>
-      <c r="V1" s="78"/>
+      <c r="B1" s="75"/>
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="75"/>
+      <c r="F1" s="75"/>
+      <c r="G1" s="75"/>
+      <c r="H1" s="75"/>
+      <c r="I1" s="75"/>
+      <c r="J1" s="75"/>
+      <c r="K1" s="75"/>
+      <c r="L1" s="75"/>
+      <c r="M1" s="75"/>
+      <c r="N1" s="75"/>
+      <c r="O1" s="75"/>
+      <c r="P1" s="75"/>
+      <c r="Q1" s="75"/>
+      <c r="R1" s="75"/>
+      <c r="S1" s="75"/>
+      <c r="T1" s="75"/>
+      <c r="U1" s="75"/>
+      <c r="V1" s="75"/>
       <c r="W1" s="55"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="81" t="s">
+      <c r="A2" s="78" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="82"/>
-      <c r="C2" s="82"/>
-      <c r="D2" s="82"/>
-      <c r="E2" s="83" t="s">
+      <c r="B2" s="79"/>
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="80" t="s">
         <v>61</v>
       </c>
-      <c r="F2" s="83"/>
+      <c r="F2" s="80"/>
       <c r="G2" s="6"/>
       <c r="H2" s="24"/>
       <c r="I2" s="24"/>
@@ -6958,58 +6958,58 @@
       <c r="W3" s="30"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="84" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="76" t="s">
+      <c r="A4" s="81" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="73" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="76"/>
-      <c r="D4" s="76"/>
-      <c r="E4" s="76"/>
-      <c r="F4" s="76"/>
-      <c r="G4" s="76"/>
-      <c r="H4" s="76"/>
-      <c r="I4" s="76"/>
-      <c r="J4" s="76" t="s">
+      <c r="C4" s="73"/>
+      <c r="D4" s="73"/>
+      <c r="E4" s="73"/>
+      <c r="F4" s="73"/>
+      <c r="G4" s="73"/>
+      <c r="H4" s="73"/>
+      <c r="I4" s="73"/>
+      <c r="J4" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="76" t="s">
+      <c r="K4" s="73" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="76"/>
-      <c r="M4" s="79" t="s">
+      <c r="L4" s="73"/>
+      <c r="M4" s="76" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="79" t="s">
+      <c r="N4" s="76" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="76" t="s">
+      <c r="O4" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="77" t="s">
+      <c r="P4" s="74" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="76" t="s">
+      <c r="Q4" s="73" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="76" t="s">
+      <c r="R4" s="73" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="85" t="s">
+      <c r="S4" s="82" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="30"/>
-      <c r="U4" s="76" t="s">
+      <c r="U4" s="73" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="76" t="s">
+      <c r="V4" s="73" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="56"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="84"/>
+      <c r="A5" s="81"/>
       <c r="B5" s="53" t="s">
         <v>1</v>
       </c>
@@ -7034,23 +7034,23 @@
       <c r="I5" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="76"/>
+      <c r="J5" s="73"/>
       <c r="K5" s="53" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="80"/>
-      <c r="N5" s="80"/>
-      <c r="O5" s="76"/>
-      <c r="P5" s="77"/>
-      <c r="Q5" s="76"/>
-      <c r="R5" s="76"/>
-      <c r="S5" s="85"/>
+      <c r="M5" s="77"/>
+      <c r="N5" s="77"/>
+      <c r="O5" s="73"/>
+      <c r="P5" s="74"/>
+      <c r="Q5" s="73"/>
+      <c r="R5" s="73"/>
+      <c r="S5" s="82"/>
       <c r="T5" s="30"/>
-      <c r="U5" s="76"/>
-      <c r="V5" s="76"/>
+      <c r="U5" s="73"/>
+      <c r="V5" s="73"/>
       <c r="W5" s="56"/>
     </row>
     <row r="6" spans="1:23" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -7060,7 +7060,9 @@
       <c r="B6" s="42" t="s">
         <v>65</v>
       </c>
-      <c r="C6" s="42"/>
+      <c r="C6" s="42" t="s">
+        <v>133</v>
+      </c>
       <c r="D6" s="43" t="s">
         <v>69</v>
       </c>
@@ -7100,7 +7102,7 @@
       </c>
       <c r="S6" s="4"/>
       <c r="T6" s="52"/>
-      <c r="U6" s="73" t="s">
+      <c r="U6" s="83" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -7115,7 +7117,9 @@
       <c r="B7" s="42" t="s">
         <v>65</v>
       </c>
-      <c r="C7" s="42"/>
+      <c r="C7" s="42" t="s">
+        <v>133</v>
+      </c>
       <c r="D7" s="43" t="s">
         <v>69</v>
       </c>
@@ -7151,7 +7155,7 @@
       </c>
       <c r="S7" s="4"/>
       <c r="T7" s="52"/>
-      <c r="U7" s="74"/>
+      <c r="U7" s="84"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -7164,7 +7168,9 @@
       <c r="B8" s="42" t="s">
         <v>65</v>
       </c>
-      <c r="C8" s="42"/>
+      <c r="C8" s="42" t="s">
+        <v>133</v>
+      </c>
       <c r="D8" s="43" t="s">
         <v>69</v>
       </c>
@@ -7204,7 +7210,7 @@
       </c>
       <c r="S8" s="4"/>
       <c r="T8" s="52"/>
-      <c r="U8" s="74"/>
+      <c r="U8" s="84"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -7217,7 +7223,9 @@
       <c r="B9" s="65" t="s">
         <v>65</v>
       </c>
-      <c r="C9" s="65"/>
+      <c r="C9" s="42" t="s">
+        <v>133</v>
+      </c>
       <c r="D9" s="66" t="s">
         <v>69</v>
       </c>
@@ -7253,7 +7261,7 @@
       </c>
       <c r="S9" s="64"/>
       <c r="T9" s="52"/>
-      <c r="U9" s="74"/>
+      <c r="U9" s="84"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -7266,7 +7274,9 @@
       <c r="B10" s="42" t="s">
         <v>65</v>
       </c>
-      <c r="C10" s="42"/>
+      <c r="C10" s="42" t="s">
+        <v>133</v>
+      </c>
       <c r="D10" s="43" t="s">
         <v>69</v>
       </c>
@@ -7306,7 +7316,7 @@
       </c>
       <c r="S10" s="4"/>
       <c r="T10" s="52"/>
-      <c r="U10" s="74"/>
+      <c r="U10" s="84"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -7319,7 +7329,9 @@
       <c r="B11" s="42" t="s">
         <v>65</v>
       </c>
-      <c r="C11" s="42"/>
+      <c r="C11" s="42" t="s">
+        <v>133</v>
+      </c>
       <c r="D11" s="43" t="s">
         <v>69</v>
       </c>
@@ -7359,7 +7371,7 @@
       </c>
       <c r="S11" s="4"/>
       <c r="T11" s="52"/>
-      <c r="U11" s="74"/>
+      <c r="U11" s="84"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -7372,7 +7384,9 @@
       <c r="B12" s="42" t="s">
         <v>65</v>
       </c>
-      <c r="C12" s="42"/>
+      <c r="C12" s="42" t="s">
+        <v>133</v>
+      </c>
       <c r="D12" s="43" t="s">
         <v>69</v>
       </c>
@@ -7412,7 +7426,7 @@
       </c>
       <c r="S12" s="4"/>
       <c r="T12" s="52"/>
-      <c r="U12" s="73" t="s">
+      <c r="U12" s="83" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -7443,7 +7457,7 @@
       <c r="R13" s="11"/>
       <c r="S13" s="4"/>
       <c r="T13" s="52"/>
-      <c r="U13" s="74"/>
+      <c r="U13" s="84"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -7472,7 +7486,7 @@
       <c r="R14" s="43"/>
       <c r="S14" s="4"/>
       <c r="T14" s="52"/>
-      <c r="U14" s="74"/>
+      <c r="U14" s="84"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -7501,7 +7515,7 @@
       <c r="R15" s="43"/>
       <c r="S15" s="4"/>
       <c r="T15" s="16"/>
-      <c r="U15" s="74"/>
+      <c r="U15" s="84"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -7530,7 +7544,7 @@
       <c r="R16" s="43"/>
       <c r="S16" s="4"/>
       <c r="T16" s="16"/>
-      <c r="U16" s="75"/>
+      <c r="U16" s="85"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -8761,6 +8775,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -8772,13 +8793,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -8789,8 +8803,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+    <sheetView showZeros="0" topLeftCell="K1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:S11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -8822,43 +8836,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="78" t="s">
+      <c r="A1" s="75" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="78"/>
-      <c r="C1" s="78"/>
-      <c r="D1" s="78"/>
-      <c r="E1" s="78"/>
-      <c r="F1" s="78"/>
-      <c r="G1" s="78"/>
-      <c r="H1" s="78"/>
-      <c r="I1" s="78"/>
-      <c r="J1" s="78"/>
-      <c r="K1" s="78"/>
-      <c r="L1" s="78"/>
-      <c r="M1" s="78"/>
-      <c r="N1" s="78"/>
-      <c r="O1" s="78"/>
-      <c r="P1" s="78"/>
-      <c r="Q1" s="78"/>
-      <c r="R1" s="78"/>
-      <c r="S1" s="78"/>
-      <c r="T1" s="78"/>
-      <c r="U1" s="78"/>
-      <c r="V1" s="78"/>
+      <c r="B1" s="75"/>
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="75"/>
+      <c r="F1" s="75"/>
+      <c r="G1" s="75"/>
+      <c r="H1" s="75"/>
+      <c r="I1" s="75"/>
+      <c r="J1" s="75"/>
+      <c r="K1" s="75"/>
+      <c r="L1" s="75"/>
+      <c r="M1" s="75"/>
+      <c r="N1" s="75"/>
+      <c r="O1" s="75"/>
+      <c r="P1" s="75"/>
+      <c r="Q1" s="75"/>
+      <c r="R1" s="75"/>
+      <c r="S1" s="75"/>
+      <c r="T1" s="75"/>
+      <c r="U1" s="75"/>
+      <c r="V1" s="75"/>
       <c r="W1" s="55"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="81" t="s">
+      <c r="A2" s="78" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="82"/>
-      <c r="C2" s="82"/>
-      <c r="D2" s="82"/>
-      <c r="E2" s="83" t="s">
+      <c r="B2" s="79"/>
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="80" t="s">
         <v>61</v>
       </c>
-      <c r="F2" s="83"/>
+      <c r="F2" s="80"/>
       <c r="G2" s="6"/>
       <c r="H2" s="24"/>
       <c r="I2" s="24"/>
@@ -8903,58 +8917,58 @@
       <c r="W3" s="30"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="84" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="76" t="s">
+      <c r="A4" s="81" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="73" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="76"/>
-      <c r="D4" s="76"/>
-      <c r="E4" s="76"/>
-      <c r="F4" s="76"/>
-      <c r="G4" s="76"/>
-      <c r="H4" s="76"/>
-      <c r="I4" s="76"/>
-      <c r="J4" s="76" t="s">
+      <c r="C4" s="73"/>
+      <c r="D4" s="73"/>
+      <c r="E4" s="73"/>
+      <c r="F4" s="73"/>
+      <c r="G4" s="73"/>
+      <c r="H4" s="73"/>
+      <c r="I4" s="73"/>
+      <c r="J4" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="76" t="s">
+      <c r="K4" s="73" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="76"/>
-      <c r="M4" s="79" t="s">
+      <c r="L4" s="73"/>
+      <c r="M4" s="76" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="79" t="s">
+      <c r="N4" s="76" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="76" t="s">
+      <c r="O4" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="77" t="s">
+      <c r="P4" s="74" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="76" t="s">
+      <c r="Q4" s="73" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="76" t="s">
+      <c r="R4" s="73" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="85" t="s">
+      <c r="S4" s="82" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="30"/>
-      <c r="U4" s="76" t="s">
+      <c r="U4" s="73" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="76" t="s">
+      <c r="V4" s="73" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="56"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="84"/>
+      <c r="A5" s="81"/>
       <c r="B5" s="50" t="s">
         <v>1</v>
       </c>
@@ -8979,23 +8993,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="76"/>
+      <c r="J5" s="73"/>
       <c r="K5" s="50" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="80"/>
-      <c r="N5" s="80"/>
-      <c r="O5" s="76"/>
-      <c r="P5" s="77"/>
-      <c r="Q5" s="76"/>
-      <c r="R5" s="76"/>
-      <c r="S5" s="85"/>
+      <c r="M5" s="77"/>
+      <c r="N5" s="77"/>
+      <c r="O5" s="73"/>
+      <c r="P5" s="74"/>
+      <c r="Q5" s="73"/>
+      <c r="R5" s="73"/>
+      <c r="S5" s="82"/>
       <c r="T5" s="30"/>
-      <c r="U5" s="76"/>
-      <c r="V5" s="76"/>
+      <c r="U5" s="73"/>
+      <c r="V5" s="73"/>
       <c r="W5" s="56"/>
     </row>
     <row r="6" spans="1:23" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -9053,7 +9067,7 @@
       </c>
       <c r="S6" s="64"/>
       <c r="T6" s="49"/>
-      <c r="U6" s="73" t="s">
+      <c r="U6" s="83" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -9112,7 +9126,7 @@
       </c>
       <c r="S7" s="4"/>
       <c r="T7" s="49"/>
-      <c r="U7" s="74"/>
+      <c r="U7" s="84"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -9171,7 +9185,7 @@
       </c>
       <c r="S8" s="4"/>
       <c r="T8" s="49"/>
-      <c r="U8" s="74"/>
+      <c r="U8" s="84"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -9230,7 +9244,7 @@
       </c>
       <c r="S9" s="4"/>
       <c r="T9" s="49"/>
-      <c r="U9" s="74"/>
+      <c r="U9" s="84"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -9287,7 +9301,7 @@
       </c>
       <c r="S10" s="4"/>
       <c r="T10" s="49"/>
-      <c r="U10" s="74"/>
+      <c r="U10" s="84"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -9316,7 +9330,7 @@
       <c r="R11" s="43"/>
       <c r="S11" s="4"/>
       <c r="T11" s="49"/>
-      <c r="U11" s="74"/>
+      <c r="U11" s="84"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -9345,7 +9359,7 @@
       <c r="R12" s="43"/>
       <c r="S12" s="4"/>
       <c r="T12" s="49"/>
-      <c r="U12" s="73" t="s">
+      <c r="U12" s="83" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -9376,7 +9390,7 @@
       <c r="R13" s="11"/>
       <c r="S13" s="4"/>
       <c r="T13" s="49"/>
-      <c r="U13" s="74"/>
+      <c r="U13" s="84"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -9405,7 +9419,7 @@
       <c r="R14" s="43"/>
       <c r="S14" s="4"/>
       <c r="T14" s="49"/>
-      <c r="U14" s="74"/>
+      <c r="U14" s="84"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -9434,7 +9448,7 @@
       <c r="R15" s="43"/>
       <c r="S15" s="4"/>
       <c r="T15" s="16"/>
-      <c r="U15" s="74"/>
+      <c r="U15" s="84"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -9463,7 +9477,7 @@
       <c r="R16" s="43"/>
       <c r="S16" s="4"/>
       <c r="T16" s="16"/>
-      <c r="U16" s="75"/>
+      <c r="U16" s="85"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -10694,13 +10708,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -10712,6 +10719,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -10722,8 +10736,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" topLeftCell="A5" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="D61" sqref="D61:D64"/>
+    <sheetView showZeros="0" tabSelected="1" topLeftCell="I1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="N43" sqref="N43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -10755,43 +10769,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="78" t="s">
+      <c r="A1" s="75" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="78"/>
-      <c r="C1" s="78"/>
-      <c r="D1" s="78"/>
-      <c r="E1" s="78"/>
-      <c r="F1" s="78"/>
-      <c r="G1" s="78"/>
-      <c r="H1" s="78"/>
-      <c r="I1" s="78"/>
-      <c r="J1" s="78"/>
-      <c r="K1" s="78"/>
-      <c r="L1" s="78"/>
-      <c r="M1" s="78"/>
-      <c r="N1" s="78"/>
-      <c r="O1" s="78"/>
-      <c r="P1" s="78"/>
-      <c r="Q1" s="78"/>
-      <c r="R1" s="78"/>
-      <c r="S1" s="78"/>
-      <c r="T1" s="78"/>
-      <c r="U1" s="78"/>
-      <c r="V1" s="78"/>
+      <c r="B1" s="75"/>
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="75"/>
+      <c r="F1" s="75"/>
+      <c r="G1" s="75"/>
+      <c r="H1" s="75"/>
+      <c r="I1" s="75"/>
+      <c r="J1" s="75"/>
+      <c r="K1" s="75"/>
+      <c r="L1" s="75"/>
+      <c r="M1" s="75"/>
+      <c r="N1" s="75"/>
+      <c r="O1" s="75"/>
+      <c r="P1" s="75"/>
+      <c r="Q1" s="75"/>
+      <c r="R1" s="75"/>
+      <c r="S1" s="75"/>
+      <c r="T1" s="75"/>
+      <c r="U1" s="75"/>
+      <c r="V1" s="75"/>
       <c r="W1" s="55"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="81" t="s">
+      <c r="A2" s="78" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="82"/>
-      <c r="C2" s="82"/>
-      <c r="D2" s="82"/>
-      <c r="E2" s="83" t="s">
+      <c r="B2" s="79"/>
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="80" t="s">
         <v>61</v>
       </c>
-      <c r="F2" s="83"/>
+      <c r="F2" s="80"/>
       <c r="G2" s="6"/>
       <c r="H2" s="24"/>
       <c r="I2" s="24"/>
@@ -10836,58 +10850,58 @@
       <c r="W3" s="30"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="84" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="76" t="s">
+      <c r="A4" s="81" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="73" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="76"/>
-      <c r="D4" s="76"/>
-      <c r="E4" s="76"/>
-      <c r="F4" s="76"/>
-      <c r="G4" s="76"/>
-      <c r="H4" s="76"/>
-      <c r="I4" s="76"/>
-      <c r="J4" s="76" t="s">
+      <c r="C4" s="73"/>
+      <c r="D4" s="73"/>
+      <c r="E4" s="73"/>
+      <c r="F4" s="73"/>
+      <c r="G4" s="73"/>
+      <c r="H4" s="73"/>
+      <c r="I4" s="73"/>
+      <c r="J4" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="76" t="s">
+      <c r="K4" s="73" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="76"/>
-      <c r="M4" s="79" t="s">
+      <c r="L4" s="73"/>
+      <c r="M4" s="76" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="79" t="s">
+      <c r="N4" s="76" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="76" t="s">
+      <c r="O4" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="77" t="s">
+      <c r="P4" s="74" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="76" t="s">
+      <c r="Q4" s="73" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="76" t="s">
+      <c r="R4" s="73" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="85" t="s">
+      <c r="S4" s="82" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="30"/>
-      <c r="U4" s="76" t="s">
+      <c r="U4" s="73" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="76" t="s">
+      <c r="V4" s="73" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="56"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="84"/>
+      <c r="A5" s="81"/>
       <c r="B5" s="50" t="s">
         <v>1</v>
       </c>
@@ -10912,49 +10926,71 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="76"/>
+      <c r="J5" s="73"/>
       <c r="K5" s="50" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="80"/>
-      <c r="N5" s="80"/>
-      <c r="O5" s="76"/>
-      <c r="P5" s="77"/>
-      <c r="Q5" s="76"/>
-      <c r="R5" s="76"/>
-      <c r="S5" s="85"/>
+      <c r="M5" s="77"/>
+      <c r="N5" s="77"/>
+      <c r="O5" s="73"/>
+      <c r="P5" s="74"/>
+      <c r="Q5" s="73"/>
+      <c r="R5" s="73"/>
+      <c r="S5" s="82"/>
       <c r="T5" s="30"/>
-      <c r="U5" s="76"/>
-      <c r="V5" s="76"/>
+      <c r="U5" s="73"/>
+      <c r="V5" s="73"/>
       <c r="W5" s="56"/>
     </row>
     <row r="6" spans="1:23" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>1</v>
       </c>
-      <c r="B6" s="42"/>
-      <c r="C6" s="42"/>
-      <c r="D6" s="43"/>
-      <c r="E6" s="44"/>
-      <c r="F6" s="58"/>
-      <c r="G6" s="43"/>
-      <c r="H6" s="43"/>
-      <c r="I6" s="59"/>
-      <c r="J6" s="45"/>
-      <c r="K6" s="48"/>
-      <c r="L6" s="45"/>
-      <c r="M6" s="45"/>
-      <c r="N6" s="47"/>
-      <c r="O6" s="45"/>
-      <c r="P6" s="45"/>
-      <c r="Q6" s="3"/>
-      <c r="R6" s="43"/>
-      <c r="S6" s="4"/>
+      <c r="B6" s="65" t="s">
+        <v>65</v>
+      </c>
+      <c r="C6" s="65"/>
+      <c r="D6" s="66" t="s">
+        <v>44</v>
+      </c>
+      <c r="E6" s="71">
+        <v>868183034803952</v>
+      </c>
+      <c r="F6" s="66"/>
+      <c r="G6" s="66" t="s">
+        <v>63</v>
+      </c>
+      <c r="H6" s="66"/>
+      <c r="I6" s="68" t="s">
+        <v>84</v>
+      </c>
+      <c r="J6" s="66" t="s">
+        <v>34</v>
+      </c>
+      <c r="K6" s="66" t="s">
+        <v>76</v>
+      </c>
+      <c r="L6" s="66"/>
+      <c r="M6" s="66" t="s">
+        <v>134</v>
+      </c>
+      <c r="N6" s="69"/>
+      <c r="O6" s="66"/>
+      <c r="P6" s="66" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q6" s="70" t="s">
+        <v>18</v>
+      </c>
+      <c r="R6" s="66" t="s">
+        <v>35</v>
+      </c>
+      <c r="S6" s="64"/>
       <c r="T6" s="49"/>
-      <c r="U6" s="73" t="s">
+      <c r="U6" s="83" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -10966,26 +11002,54 @@
       <c r="A7" s="4">
         <v>2</v>
       </c>
-      <c r="B7" s="42"/>
-      <c r="C7" s="42"/>
-      <c r="D7" s="43"/>
-      <c r="E7" s="44"/>
-      <c r="F7" s="58"/>
-      <c r="G7" s="43"/>
+      <c r="B7" s="42" t="s">
+        <v>65</v>
+      </c>
+      <c r="C7" s="42" t="s">
+        <v>133</v>
+      </c>
+      <c r="D7" s="43" t="s">
+        <v>44</v>
+      </c>
+      <c r="E7" s="44">
+        <v>868183037878720</v>
+      </c>
+      <c r="F7" s="43"/>
+      <c r="G7" s="43" t="s">
+        <v>63</v>
+      </c>
       <c r="H7" s="43"/>
-      <c r="I7" s="60"/>
-      <c r="J7" s="45"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="45"/>
-      <c r="M7" s="45"/>
+      <c r="I7" s="60" t="s">
+        <v>75</v>
+      </c>
+      <c r="J7" s="45" t="s">
+        <v>77</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="L7" s="45" t="s">
+        <v>79</v>
+      </c>
+      <c r="M7" s="45" t="s">
+        <v>83</v>
+      </c>
       <c r="N7" s="3"/>
-      <c r="O7" s="45"/>
-      <c r="P7" s="45"/>
-      <c r="Q7" s="3"/>
-      <c r="R7" s="43"/>
+      <c r="O7" s="45" t="s">
+        <v>132</v>
+      </c>
+      <c r="P7" s="45" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q7" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="R7" s="43" t="s">
+        <v>82</v>
+      </c>
       <c r="S7" s="4"/>
       <c r="T7" s="49"/>
-      <c r="U7" s="74"/>
+      <c r="U7" s="84"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -10995,26 +11059,54 @@
       <c r="A8" s="4">
         <v>3</v>
       </c>
-      <c r="B8" s="42"/>
-      <c r="C8" s="42"/>
-      <c r="D8" s="43"/>
-      <c r="E8" s="44"/>
-      <c r="F8" s="58"/>
-      <c r="G8" s="43"/>
+      <c r="B8" s="42" t="s">
+        <v>65</v>
+      </c>
+      <c r="C8" s="42" t="s">
+        <v>133</v>
+      </c>
+      <c r="D8" s="43" t="s">
+        <v>44</v>
+      </c>
+      <c r="E8" s="44">
+        <v>868183034701628</v>
+      </c>
+      <c r="F8" s="43"/>
+      <c r="G8" s="43" t="s">
+        <v>64</v>
+      </c>
       <c r="H8" s="43"/>
-      <c r="I8" s="60"/>
-      <c r="J8" s="45"/>
-      <c r="K8" s="46"/>
-      <c r="L8" s="45"/>
-      <c r="M8" s="45"/>
-      <c r="N8" s="1"/>
-      <c r="O8" s="45"/>
-      <c r="P8" s="1"/>
-      <c r="Q8" s="3"/>
-      <c r="R8" s="43"/>
+      <c r="I8" s="60" t="s">
+        <v>75</v>
+      </c>
+      <c r="J8" s="45" t="s">
+        <v>78</v>
+      </c>
+      <c r="K8" s="46" t="s">
+        <v>73</v>
+      </c>
+      <c r="L8" s="45" t="s">
+        <v>79</v>
+      </c>
+      <c r="M8" s="45" t="s">
+        <v>80</v>
+      </c>
+      <c r="N8" s="63"/>
+      <c r="O8" s="45" t="s">
+        <v>132</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q8" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="R8" s="43" t="s">
+        <v>82</v>
+      </c>
       <c r="S8" s="4"/>
       <c r="T8" s="49"/>
-      <c r="U8" s="74"/>
+      <c r="U8" s="84"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -11024,26 +11116,54 @@
       <c r="A9" s="4">
         <v>4</v>
       </c>
-      <c r="B9" s="42"/>
-      <c r="C9" s="42"/>
-      <c r="D9" s="43"/>
-      <c r="E9" s="44"/>
+      <c r="B9" s="42" t="s">
+        <v>65</v>
+      </c>
+      <c r="C9" s="42" t="s">
+        <v>133</v>
+      </c>
+      <c r="D9" s="43" t="s">
+        <v>44</v>
+      </c>
+      <c r="E9" s="44">
+        <v>868183034757125</v>
+      </c>
       <c r="F9" s="43"/>
-      <c r="G9" s="43"/>
+      <c r="G9" s="43" t="s">
+        <v>64</v>
+      </c>
       <c r="H9" s="2"/>
-      <c r="I9" s="60"/>
-      <c r="J9" s="45"/>
-      <c r="K9" s="45"/>
-      <c r="L9" s="45"/>
-      <c r="M9" s="45"/>
+      <c r="I9" s="60" t="s">
+        <v>75</v>
+      </c>
+      <c r="J9" s="45" t="s">
+        <v>86</v>
+      </c>
+      <c r="K9" s="45" t="s">
+        <v>89</v>
+      </c>
+      <c r="L9" s="45" t="s">
+        <v>79</v>
+      </c>
+      <c r="M9" s="45" t="s">
+        <v>87</v>
+      </c>
       <c r="N9" s="1"/>
-      <c r="O9" s="45"/>
-      <c r="P9" s="1"/>
-      <c r="Q9" s="3"/>
-      <c r="R9" s="43"/>
+      <c r="O9" s="45" t="s">
+        <v>132</v>
+      </c>
+      <c r="P9" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q9" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="R9" s="43" t="s">
+        <v>88</v>
+      </c>
       <c r="S9" s="4"/>
       <c r="T9" s="49"/>
-      <c r="U9" s="74"/>
+      <c r="U9" s="84"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -11053,26 +11173,54 @@
       <c r="A10" s="4">
         <v>5</v>
       </c>
-      <c r="B10" s="42"/>
-      <c r="C10" s="42"/>
-      <c r="D10" s="43"/>
-      <c r="E10" s="44"/>
+      <c r="B10" s="42" t="s">
+        <v>65</v>
+      </c>
+      <c r="C10" s="42" t="s">
+        <v>133</v>
+      </c>
+      <c r="D10" s="43" t="s">
+        <v>44</v>
+      </c>
+      <c r="E10" s="44">
+        <v>868183034643986</v>
+      </c>
       <c r="F10" s="43"/>
-      <c r="G10" s="43"/>
+      <c r="G10" s="43" t="s">
+        <v>64</v>
+      </c>
       <c r="H10" s="2"/>
-      <c r="I10" s="60"/>
-      <c r="J10" s="45"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="45"/>
-      <c r="M10" s="45"/>
+      <c r="I10" s="60" t="s">
+        <v>75</v>
+      </c>
+      <c r="J10" s="45" t="s">
+        <v>90</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="L10" s="45" t="s">
+        <v>79</v>
+      </c>
+      <c r="M10" s="45" t="s">
+        <v>38</v>
+      </c>
       <c r="N10" s="1"/>
-      <c r="O10" s="45"/>
-      <c r="P10" s="1"/>
-      <c r="Q10" s="3"/>
-      <c r="R10" s="43"/>
+      <c r="O10" s="45" t="s">
+        <v>132</v>
+      </c>
+      <c r="P10" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q10" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R10" s="43" t="s">
+        <v>24</v>
+      </c>
       <c r="S10" s="4"/>
       <c r="T10" s="49"/>
-      <c r="U10" s="74"/>
+      <c r="U10" s="84"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -11082,26 +11230,52 @@
       <c r="A11" s="4">
         <v>6</v>
       </c>
-      <c r="B11" s="42"/>
-      <c r="C11" s="42"/>
-      <c r="D11" s="43"/>
-      <c r="E11" s="44"/>
+      <c r="B11" s="42" t="s">
+        <v>65</v>
+      </c>
+      <c r="C11" s="42" t="s">
+        <v>133</v>
+      </c>
+      <c r="D11" s="43" t="s">
+        <v>44</v>
+      </c>
+      <c r="E11" s="44">
+        <v>860157040195668</v>
+      </c>
       <c r="F11" s="43"/>
-      <c r="G11" s="43"/>
+      <c r="G11" s="43" t="s">
+        <v>63</v>
+      </c>
       <c r="H11" s="2"/>
-      <c r="I11" s="45"/>
-      <c r="J11" s="45"/>
-      <c r="K11" s="1"/>
+      <c r="I11" s="45" t="s">
+        <v>74</v>
+      </c>
+      <c r="J11" s="45" t="s">
+        <v>28</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>79</v>
+      </c>
       <c r="L11" s="45"/>
-      <c r="M11" s="45"/>
+      <c r="M11" s="45" t="s">
+        <v>85</v>
+      </c>
       <c r="N11" s="1"/>
-      <c r="O11" s="45"/>
-      <c r="P11" s="1"/>
-      <c r="Q11" s="3"/>
-      <c r="R11" s="43"/>
+      <c r="O11" s="45" t="s">
+        <v>132</v>
+      </c>
+      <c r="P11" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q11" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R11" s="43" t="s">
+        <v>23</v>
+      </c>
       <c r="S11" s="4"/>
       <c r="T11" s="49"/>
-      <c r="U11" s="74"/>
+      <c r="U11" s="84"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -11111,26 +11285,56 @@
       <c r="A12" s="4">
         <v>7</v>
       </c>
-      <c r="B12" s="42"/>
-      <c r="C12" s="42"/>
-      <c r="D12" s="43"/>
-      <c r="E12" s="44"/>
+      <c r="B12" s="42" t="s">
+        <v>65</v>
+      </c>
+      <c r="C12" s="42" t="s">
+        <v>133</v>
+      </c>
+      <c r="D12" s="43" t="s">
+        <v>66</v>
+      </c>
+      <c r="E12" s="44">
+        <v>868183034601588</v>
+      </c>
       <c r="F12" s="43"/>
-      <c r="G12" s="43"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="45"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="45"/>
-      <c r="M12" s="45"/>
-      <c r="N12" s="1"/>
-      <c r="O12" s="45"/>
-      <c r="P12" s="1"/>
-      <c r="Q12" s="4"/>
-      <c r="R12" s="43"/>
+      <c r="G12" s="43" t="s">
+        <v>64</v>
+      </c>
+      <c r="H12" s="43" t="s">
+        <v>67</v>
+      </c>
+      <c r="I12" s="59" t="s">
+        <v>109</v>
+      </c>
+      <c r="J12" s="45" t="s">
+        <v>90</v>
+      </c>
+      <c r="K12" s="48" t="s">
+        <v>108</v>
+      </c>
+      <c r="L12" s="45" t="s">
+        <v>79</v>
+      </c>
+      <c r="M12" s="45" t="s">
+        <v>38</v>
+      </c>
+      <c r="N12" s="47"/>
+      <c r="O12" s="45" t="s">
+        <v>132</v>
+      </c>
+      <c r="P12" s="45" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q12" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R12" s="43" t="s">
+        <v>24</v>
+      </c>
       <c r="S12" s="4"/>
       <c r="T12" s="49"/>
-      <c r="U12" s="73" t="s">
+      <c r="U12" s="83" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -11142,26 +11346,54 @@
       <c r="A13" s="4">
         <v>8</v>
       </c>
-      <c r="B13" s="42"/>
-      <c r="C13" s="42"/>
-      <c r="D13" s="43"/>
-      <c r="E13" s="44"/>
+      <c r="B13" s="42" t="s">
+        <v>65</v>
+      </c>
+      <c r="C13" s="42" t="s">
+        <v>133</v>
+      </c>
+      <c r="D13" s="43" t="s">
+        <v>66</v>
+      </c>
+      <c r="E13" s="44">
+        <v>868183034690318</v>
+      </c>
       <c r="F13" s="43"/>
-      <c r="G13" s="43"/>
-      <c r="H13" s="15"/>
-      <c r="I13" s="45"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
+      <c r="G13" s="43" t="s">
+        <v>64</v>
+      </c>
+      <c r="H13" s="43" t="s">
+        <v>67</v>
+      </c>
+      <c r="I13" s="60" t="s">
+        <v>75</v>
+      </c>
+      <c r="J13" s="45" t="s">
+        <v>106</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>79</v>
+      </c>
       <c r="L13" s="45"/>
-      <c r="M13" s="1"/>
-      <c r="N13" s="1"/>
-      <c r="O13" s="45"/>
-      <c r="P13" s="1"/>
-      <c r="Q13" s="3"/>
-      <c r="R13" s="11"/>
+      <c r="M13" s="45" t="s">
+        <v>107</v>
+      </c>
+      <c r="N13" s="3"/>
+      <c r="O13" s="45" t="s">
+        <v>132</v>
+      </c>
+      <c r="P13" s="45" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q13" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="R13" s="43" t="s">
+        <v>31</v>
+      </c>
       <c r="S13" s="4"/>
       <c r="T13" s="49"/>
-      <c r="U13" s="74"/>
+      <c r="U13" s="84"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -11171,26 +11403,56 @@
       <c r="A14" s="4">
         <v>9</v>
       </c>
-      <c r="B14" s="42"/>
-      <c r="C14" s="42"/>
-      <c r="D14" s="43"/>
-      <c r="E14" s="44"/>
+      <c r="B14" s="42" t="s">
+        <v>65</v>
+      </c>
+      <c r="C14" s="42" t="s">
+        <v>133</v>
+      </c>
+      <c r="D14" s="43" t="s">
+        <v>66</v>
+      </c>
+      <c r="E14" s="44">
+        <v>868183034553458</v>
+      </c>
       <c r="F14" s="43"/>
-      <c r="G14" s="43"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="45"/>
-      <c r="J14" s="45"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="45"/>
-      <c r="M14" s="45"/>
+      <c r="G14" s="43" t="s">
+        <v>64</v>
+      </c>
+      <c r="H14" s="43" t="s">
+        <v>67</v>
+      </c>
+      <c r="I14" s="60" t="s">
+        <v>75</v>
+      </c>
+      <c r="J14" s="45" t="s">
+        <v>90</v>
+      </c>
+      <c r="K14" s="46" t="s">
+        <v>105</v>
+      </c>
+      <c r="L14" s="45" t="s">
+        <v>79</v>
+      </c>
+      <c r="M14" s="45" t="s">
+        <v>38</v>
+      </c>
       <c r="N14" s="1"/>
-      <c r="O14" s="45"/>
-      <c r="P14" s="1"/>
-      <c r="Q14" s="4"/>
-      <c r="R14" s="43"/>
+      <c r="O14" s="45" t="s">
+        <v>132</v>
+      </c>
+      <c r="P14" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q14" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R14" s="43" t="s">
+        <v>24</v>
+      </c>
       <c r="S14" s="4"/>
       <c r="T14" s="49"/>
-      <c r="U14" s="74"/>
+      <c r="U14" s="84"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -11200,26 +11462,54 @@
       <c r="A15" s="4">
         <v>10</v>
       </c>
-      <c r="B15" s="42"/>
-      <c r="C15" s="42"/>
-      <c r="D15" s="43"/>
-      <c r="E15" s="44"/>
+      <c r="B15" s="42" t="s">
+        <v>65</v>
+      </c>
+      <c r="C15" s="42" t="s">
+        <v>133</v>
+      </c>
+      <c r="D15" s="44" t="s">
+        <v>68</v>
+      </c>
+      <c r="E15" s="44">
+        <v>863586032938957</v>
+      </c>
       <c r="F15" s="43"/>
-      <c r="G15" s="43"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="45"/>
-      <c r="K15" s="1"/>
-      <c r="L15" s="45"/>
-      <c r="M15" s="45"/>
-      <c r="N15" s="1"/>
-      <c r="O15" s="45"/>
-      <c r="P15" s="1"/>
-      <c r="Q15" s="4"/>
-      <c r="R15" s="43"/>
+      <c r="G15" s="43" t="s">
+        <v>64</v>
+      </c>
+      <c r="H15" s="43"/>
+      <c r="I15" s="59" t="s">
+        <v>75</v>
+      </c>
+      <c r="J15" s="45" t="s">
+        <v>90</v>
+      </c>
+      <c r="K15" s="48" t="s">
+        <v>103</v>
+      </c>
+      <c r="L15" s="45" t="s">
+        <v>104</v>
+      </c>
+      <c r="M15" s="45" t="s">
+        <v>38</v>
+      </c>
+      <c r="N15" s="47"/>
+      <c r="O15" s="45" t="s">
+        <v>132</v>
+      </c>
+      <c r="P15" s="45" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q15" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R15" s="43" t="s">
+        <v>24</v>
+      </c>
       <c r="S15" s="4"/>
       <c r="T15" s="16"/>
-      <c r="U15" s="74"/>
+      <c r="U15" s="84"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -11229,26 +11519,52 @@
       <c r="A16" s="4">
         <v>11</v>
       </c>
-      <c r="B16" s="42"/>
-      <c r="C16" s="42"/>
-      <c r="D16" s="43"/>
-      <c r="E16" s="44"/>
+      <c r="B16" s="42" t="s">
+        <v>65</v>
+      </c>
+      <c r="C16" s="42" t="s">
+        <v>133</v>
+      </c>
+      <c r="D16" s="43" t="s">
+        <v>69</v>
+      </c>
+      <c r="E16" s="44">
+        <v>862631034745942</v>
+      </c>
       <c r="F16" s="43"/>
-      <c r="G16" s="43"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
-      <c r="L16" s="45"/>
-      <c r="M16" s="45"/>
-      <c r="N16" s="1"/>
-      <c r="O16" s="45"/>
-      <c r="P16" s="1"/>
-      <c r="Q16" s="4"/>
-      <c r="R16" s="43"/>
+      <c r="G16" s="43" t="s">
+        <v>64</v>
+      </c>
+      <c r="H16" s="43"/>
+      <c r="I16" s="60" t="s">
+        <v>75</v>
+      </c>
+      <c r="J16" s="45"/>
+      <c r="K16" s="48" t="s">
+        <v>91</v>
+      </c>
+      <c r="L16" s="45" t="s">
+        <v>92</v>
+      </c>
+      <c r="M16" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="N16" s="47"/>
+      <c r="O16" s="45" t="s">
+        <v>132</v>
+      </c>
+      <c r="P16" s="45" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q16" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R16" s="43" t="s">
+        <v>24</v>
+      </c>
       <c r="S16" s="4"/>
       <c r="T16" s="16"/>
-      <c r="U16" s="75"/>
+      <c r="U16" s="85"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -11258,23 +11574,45 @@
       <c r="A17" s="4">
         <v>12</v>
       </c>
-      <c r="B17" s="42"/>
-      <c r="C17" s="42"/>
-      <c r="D17" s="43"/>
-      <c r="E17" s="44"/>
+      <c r="B17" s="42" t="s">
+        <v>65</v>
+      </c>
+      <c r="C17" s="42" t="s">
+        <v>133</v>
+      </c>
+      <c r="D17" s="43" t="s">
+        <v>69</v>
+      </c>
+      <c r="E17" s="44">
+        <v>864811037148355</v>
+      </c>
       <c r="F17" s="43"/>
-      <c r="G17" s="43"/>
-      <c r="H17" s="1"/>
+      <c r="G17" s="43" t="s">
+        <v>64</v>
+      </c>
+      <c r="H17" s="43" t="s">
+        <v>93</v>
+      </c>
       <c r="I17" s="45"/>
       <c r="J17" s="45"/>
       <c r="K17" s="1"/>
-      <c r="L17" s="1"/>
-      <c r="M17" s="45"/>
-      <c r="N17" s="1"/>
-      <c r="O17" s="45"/>
-      <c r="P17" s="1"/>
-      <c r="Q17" s="4"/>
-      <c r="R17" s="43"/>
+      <c r="L17" s="45"/>
+      <c r="M17" s="45" t="s">
+        <v>131</v>
+      </c>
+      <c r="N17" s="3"/>
+      <c r="O17" s="45" t="s">
+        <v>129</v>
+      </c>
+      <c r="P17" s="45" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q17" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R17" s="43" t="s">
+        <v>25</v>
+      </c>
       <c r="S17" s="4"/>
       <c r="T17" s="16"/>
       <c r="U17" s="49"/>
@@ -11285,23 +11623,49 @@
       <c r="A18" s="4">
         <v>13</v>
       </c>
-      <c r="B18" s="10"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="43"/>
-      <c r="E18" s="44"/>
+      <c r="B18" s="42" t="s">
+        <v>65</v>
+      </c>
+      <c r="C18" s="42" t="s">
+        <v>133</v>
+      </c>
+      <c r="D18" s="43" t="s">
+        <v>69</v>
+      </c>
+      <c r="E18" s="44">
+        <v>866104024757406</v>
+      </c>
       <c r="F18" s="43"/>
-      <c r="G18" s="43"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
-      <c r="L18" s="1"/>
-      <c r="M18" s="11"/>
-      <c r="N18" s="1"/>
-      <c r="O18" s="45"/>
-      <c r="P18" s="1"/>
-      <c r="Q18" s="4"/>
-      <c r="R18" s="11"/>
+      <c r="G18" s="43" t="s">
+        <v>64</v>
+      </c>
+      <c r="H18" s="43"/>
+      <c r="I18" s="45" t="s">
+        <v>95</v>
+      </c>
+      <c r="J18" s="45"/>
+      <c r="K18" s="46" t="s">
+        <v>94</v>
+      </c>
+      <c r="L18" s="45" t="s">
+        <v>92</v>
+      </c>
+      <c r="M18" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="N18" s="47"/>
+      <c r="O18" s="45" t="s">
+        <v>132</v>
+      </c>
+      <c r="P18" s="45" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q18" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R18" s="43" t="s">
+        <v>24</v>
+      </c>
       <c r="S18" s="4"/>
       <c r="T18" s="16"/>
       <c r="U18" s="16"/>
@@ -11312,24 +11676,46 @@
       <c r="A19" s="4">
         <v>14</v>
       </c>
-      <c r="B19" s="10"/>
-      <c r="C19" s="10"/>
-      <c r="D19" s="43"/>
-      <c r="E19" s="44"/>
-      <c r="F19" s="43"/>
-      <c r="G19" s="43"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
-      <c r="J19" s="1"/>
-      <c r="K19" s="1"/>
-      <c r="L19" s="1"/>
-      <c r="M19" s="1"/>
-      <c r="N19" s="1"/>
-      <c r="O19" s="45"/>
-      <c r="P19" s="1"/>
-      <c r="Q19" s="4"/>
-      <c r="R19" s="11"/>
-      <c r="S19" s="4"/>
+      <c r="B19" s="65" t="s">
+        <v>65</v>
+      </c>
+      <c r="C19" s="42" t="s">
+        <v>133</v>
+      </c>
+      <c r="D19" s="66" t="s">
+        <v>69</v>
+      </c>
+      <c r="E19" s="71">
+        <v>861694030874141</v>
+      </c>
+      <c r="F19" s="66"/>
+      <c r="G19" s="66" t="s">
+        <v>64</v>
+      </c>
+      <c r="H19" s="72"/>
+      <c r="I19" s="66"/>
+      <c r="J19" s="66" t="s">
+        <v>96</v>
+      </c>
+      <c r="K19" s="66"/>
+      <c r="L19" s="66"/>
+      <c r="M19" s="66" t="s">
+        <v>130</v>
+      </c>
+      <c r="N19" s="64"/>
+      <c r="O19" s="69" t="s">
+        <v>129</v>
+      </c>
+      <c r="P19" s="64" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q19" s="70" t="s">
+        <v>18</v>
+      </c>
+      <c r="R19" s="66" t="s">
+        <v>31</v>
+      </c>
+      <c r="S19" s="64"/>
       <c r="T19" s="16"/>
       <c r="U19" s="50" t="s">
         <v>39</v>
@@ -11343,23 +11729,49 @@
       <c r="A20" s="4">
         <v>15</v>
       </c>
-      <c r="B20" s="10"/>
-      <c r="C20" s="10"/>
-      <c r="D20" s="43"/>
-      <c r="E20" s="44"/>
+      <c r="B20" s="42" t="s">
+        <v>65</v>
+      </c>
+      <c r="C20" s="42" t="s">
+        <v>133</v>
+      </c>
+      <c r="D20" s="43" t="s">
+        <v>69</v>
+      </c>
+      <c r="E20" s="44">
+        <v>863586032882536</v>
+      </c>
       <c r="F20" s="43"/>
-      <c r="G20" s="43"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
-      <c r="J20" s="1"/>
-      <c r="K20" s="1"/>
-      <c r="L20" s="1"/>
-      <c r="M20" s="1"/>
+      <c r="G20" s="43" t="s">
+        <v>64</v>
+      </c>
+      <c r="H20" s="2"/>
+      <c r="I20" s="45" t="s">
+        <v>75</v>
+      </c>
+      <c r="J20" s="45"/>
+      <c r="K20" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="L20" s="45" t="s">
+        <v>92</v>
+      </c>
+      <c r="M20" s="45" t="s">
+        <v>38</v>
+      </c>
       <c r="N20" s="1"/>
-      <c r="O20" s="45"/>
-      <c r="P20" s="1"/>
-      <c r="Q20" s="4"/>
-      <c r="R20" s="11"/>
+      <c r="O20" s="45" t="s">
+        <v>132</v>
+      </c>
+      <c r="P20" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q20" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R20" s="43" t="s">
+        <v>24</v>
+      </c>
       <c r="S20" s="4"/>
       <c r="T20" s="16"/>
       <c r="U20" s="11" t="s">
@@ -11367,7 +11779,7 @@
       </c>
       <c r="V20" s="11">
         <f>COUNTIF($Q$6:$Q$51,"PM")</f>
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="W20" s="16"/>
     </row>
@@ -11375,23 +11787,49 @@
       <c r="A21" s="4">
         <v>16</v>
       </c>
-      <c r="B21" s="10"/>
-      <c r="C21" s="10"/>
-      <c r="D21" s="43"/>
-      <c r="E21" s="44"/>
+      <c r="B21" s="42" t="s">
+        <v>65</v>
+      </c>
+      <c r="C21" s="42" t="s">
+        <v>133</v>
+      </c>
+      <c r="D21" s="43" t="s">
+        <v>69</v>
+      </c>
+      <c r="E21" s="44">
+        <v>862631034711720</v>
+      </c>
       <c r="F21" s="43"/>
-      <c r="G21" s="43"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
-      <c r="J21" s="1"/>
-      <c r="K21" s="1"/>
-      <c r="L21" s="1"/>
-      <c r="M21" s="1"/>
+      <c r="G21" s="43" t="s">
+        <v>64</v>
+      </c>
+      <c r="H21" s="2"/>
+      <c r="I21" s="45" t="s">
+        <v>75</v>
+      </c>
+      <c r="J21" s="45" t="s">
+        <v>99</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="L21" s="45"/>
+      <c r="M21" s="45" t="s">
+        <v>100</v>
+      </c>
       <c r="N21" s="1"/>
-      <c r="O21" s="45"/>
-      <c r="P21" s="1"/>
-      <c r="Q21" s="4"/>
-      <c r="R21" s="11"/>
+      <c r="O21" s="45" t="s">
+        <v>132</v>
+      </c>
+      <c r="P21" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q21" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R21" s="43" t="s">
+        <v>24</v>
+      </c>
       <c r="S21" s="4"/>
       <c r="T21" s="16"/>
       <c r="U21" s="11" t="s">
@@ -11399,7 +11837,7 @@
       </c>
       <c r="V21" s="11">
         <f>COUNTIF($Q$6:$Q$51,"PC")</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="W21" s="16"/>
     </row>
@@ -11407,23 +11845,49 @@
       <c r="A22" s="4">
         <v>17</v>
       </c>
-      <c r="B22" s="10"/>
-      <c r="C22" s="10"/>
-      <c r="D22" s="43"/>
-      <c r="E22" s="44"/>
+      <c r="B22" s="42" t="s">
+        <v>65</v>
+      </c>
+      <c r="C22" s="42" t="s">
+        <v>133</v>
+      </c>
+      <c r="D22" s="43" t="s">
+        <v>69</v>
+      </c>
+      <c r="E22" s="44">
+        <v>866104022168556</v>
+      </c>
       <c r="F22" s="43"/>
-      <c r="G22" s="43"/>
-      <c r="H22" s="11"/>
-      <c r="I22" s="1"/>
-      <c r="J22" s="11"/>
-      <c r="K22" s="11"/>
-      <c r="L22" s="1"/>
-      <c r="M22" s="11"/>
-      <c r="N22" s="11"/>
-      <c r="O22" s="45"/>
-      <c r="P22" s="11"/>
-      <c r="Q22" s="4"/>
-      <c r="R22" s="11"/>
+      <c r="G22" s="43" t="s">
+        <v>64</v>
+      </c>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="J22" s="45" t="s">
+        <v>101</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="L22" s="45"/>
+      <c r="M22" s="45" t="s">
+        <v>102</v>
+      </c>
+      <c r="N22" s="1"/>
+      <c r="O22" s="45" t="s">
+        <v>132</v>
+      </c>
+      <c r="P22" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q22" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="R22" s="43" t="s">
+        <v>37</v>
+      </c>
       <c r="S22" s="4"/>
       <c r="T22" s="16"/>
       <c r="U22" s="11" t="s">
@@ -11431,7 +11895,7 @@
       </c>
       <c r="V22" s="11">
         <f>COUNTIF($Q$6:$Q$51,"PC+PM")</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="W22" s="16"/>
     </row>
@@ -11439,24 +11903,56 @@
       <c r="A23" s="4">
         <v>18</v>
       </c>
-      <c r="B23" s="10"/>
-      <c r="C23" s="10"/>
-      <c r="D23" s="43"/>
-      <c r="E23" s="44"/>
-      <c r="F23" s="43"/>
-      <c r="G23" s="43"/>
-      <c r="H23" s="11"/>
-      <c r="I23" s="1"/>
-      <c r="J23" s="1"/>
-      <c r="K23" s="11"/>
-      <c r="L23" s="11"/>
-      <c r="M23" s="11"/>
-      <c r="N23" s="11"/>
-      <c r="O23" s="45"/>
-      <c r="P23" s="11"/>
-      <c r="Q23" s="4"/>
-      <c r="R23" s="11"/>
-      <c r="S23" s="4"/>
+      <c r="B23" s="65" t="s">
+        <v>65</v>
+      </c>
+      <c r="C23" s="65" t="s">
+        <v>133</v>
+      </c>
+      <c r="D23" s="66" t="s">
+        <v>70</v>
+      </c>
+      <c r="E23" s="67" t="s">
+        <v>71</v>
+      </c>
+      <c r="F23" s="66" t="s">
+        <v>111</v>
+      </c>
+      <c r="G23" s="66" t="s">
+        <v>64</v>
+      </c>
+      <c r="H23" s="66" t="s">
+        <v>112</v>
+      </c>
+      <c r="I23" s="68" t="s">
+        <v>75</v>
+      </c>
+      <c r="J23" s="66" t="s">
+        <v>114</v>
+      </c>
+      <c r="K23" s="66" t="s">
+        <v>110</v>
+      </c>
+      <c r="L23" s="66" t="s">
+        <v>113</v>
+      </c>
+      <c r="M23" s="66" t="s">
+        <v>128</v>
+      </c>
+      <c r="N23" s="69"/>
+      <c r="O23" s="66" t="s">
+        <v>129</v>
+      </c>
+      <c r="P23" s="66" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q23" s="70" t="s">
+        <v>18</v>
+      </c>
+      <c r="R23" s="66" t="s">
+        <v>21</v>
+      </c>
+      <c r="S23" s="64"/>
       <c r="T23" s="16"/>
       <c r="U23" s="16"/>
       <c r="V23" s="18"/>
@@ -11466,23 +11962,51 @@
       <c r="A24" s="4">
         <v>19</v>
       </c>
-      <c r="B24" s="10"/>
-      <c r="C24" s="10"/>
-      <c r="D24" s="43"/>
-      <c r="E24" s="44"/>
+      <c r="B24" s="42" t="s">
+        <v>65</v>
+      </c>
+      <c r="C24" s="42" t="s">
+        <v>133</v>
+      </c>
+      <c r="D24" s="43" t="s">
+        <v>70</v>
+      </c>
+      <c r="E24" s="44">
+        <v>866762024302596</v>
+      </c>
       <c r="F24" s="43"/>
-      <c r="G24" s="43"/>
-      <c r="H24" s="11"/>
-      <c r="I24" s="1"/>
-      <c r="J24" s="1"/>
-      <c r="K24" s="11"/>
-      <c r="L24" s="11"/>
-      <c r="M24" s="11"/>
-      <c r="N24" s="11"/>
-      <c r="O24" s="45"/>
-      <c r="P24" s="11"/>
-      <c r="Q24" s="4"/>
-      <c r="R24" s="11"/>
+      <c r="G24" s="43" t="s">
+        <v>64</v>
+      </c>
+      <c r="H24" s="43" t="s">
+        <v>115</v>
+      </c>
+      <c r="I24" s="45" t="s">
+        <v>116</v>
+      </c>
+      <c r="J24" s="45" t="s">
+        <v>90</v>
+      </c>
+      <c r="K24" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="L24" s="45"/>
+      <c r="M24" s="45" t="s">
+        <v>117</v>
+      </c>
+      <c r="N24" s="3"/>
+      <c r="O24" s="45" t="s">
+        <v>132</v>
+      </c>
+      <c r="P24" s="45" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q24" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R24" s="43" t="s">
+        <v>25</v>
+      </c>
       <c r="S24" s="4"/>
       <c r="T24" s="16"/>
       <c r="U24" s="16"/>
@@ -11493,23 +12017,53 @@
       <c r="A25" s="4">
         <v>20</v>
       </c>
-      <c r="B25" s="10"/>
-      <c r="C25" s="10"/>
-      <c r="D25" s="43"/>
-      <c r="E25" s="44"/>
-      <c r="F25" s="43"/>
-      <c r="G25" s="43"/>
-      <c r="H25" s="11"/>
-      <c r="I25" s="1"/>
-      <c r="J25" s="1"/>
-      <c r="K25" s="11"/>
-      <c r="L25" s="11"/>
-      <c r="M25" s="11"/>
-      <c r="N25" s="11"/>
-      <c r="O25" s="45"/>
-      <c r="P25" s="11"/>
-      <c r="Q25" s="4"/>
-      <c r="R25" s="11"/>
+      <c r="B25" s="42" t="s">
+        <v>65</v>
+      </c>
+      <c r="C25" s="42" t="s">
+        <v>133</v>
+      </c>
+      <c r="D25" s="43" t="s">
+        <v>70</v>
+      </c>
+      <c r="E25" s="44">
+        <v>862118029937361</v>
+      </c>
+      <c r="F25" s="43" t="s">
+        <v>120</v>
+      </c>
+      <c r="G25" s="43" t="s">
+        <v>64</v>
+      </c>
+      <c r="H25" s="43" t="s">
+        <v>121</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="J25" s="45"/>
+      <c r="K25" s="46" t="s">
+        <v>118</v>
+      </c>
+      <c r="L25" s="45" t="s">
+        <v>113</v>
+      </c>
+      <c r="M25" s="45" t="s">
+        <v>38</v>
+      </c>
+      <c r="N25" s="1"/>
+      <c r="O25" s="45" t="s">
+        <v>132</v>
+      </c>
+      <c r="P25" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q25" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R25" s="43" t="s">
+        <v>24</v>
+      </c>
       <c r="S25" s="4"/>
       <c r="T25" s="16"/>
       <c r="U25" s="50" t="s">
@@ -11524,23 +12078,53 @@
       <c r="A26" s="4">
         <v>21</v>
       </c>
-      <c r="B26" s="10"/>
-      <c r="C26" s="10"/>
-      <c r="D26" s="43"/>
-      <c r="E26" s="44"/>
+      <c r="B26" s="42" t="s">
+        <v>65</v>
+      </c>
+      <c r="C26" s="42" t="s">
+        <v>133</v>
+      </c>
+      <c r="D26" s="43" t="s">
+        <v>70</v>
+      </c>
+      <c r="E26" s="44">
+        <v>867330024402631</v>
+      </c>
       <c r="F26" s="43"/>
-      <c r="G26" s="43"/>
-      <c r="H26" s="11"/>
-      <c r="I26" s="1"/>
-      <c r="J26" s="1"/>
-      <c r="K26" s="11"/>
-      <c r="L26" s="11"/>
-      <c r="M26" s="11"/>
-      <c r="N26" s="11"/>
-      <c r="O26" s="45"/>
-      <c r="P26" s="11"/>
-      <c r="Q26" s="4"/>
-      <c r="R26" s="11"/>
+      <c r="G26" s="43" t="s">
+        <v>64</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="I26" s="45" t="s">
+        <v>75</v>
+      </c>
+      <c r="J26" s="45" t="s">
+        <v>122</v>
+      </c>
+      <c r="K26" s="45" t="s">
+        <v>110</v>
+      </c>
+      <c r="L26" s="45" t="s">
+        <v>113</v>
+      </c>
+      <c r="M26" s="45" t="s">
+        <v>123</v>
+      </c>
+      <c r="N26" s="1"/>
+      <c r="O26" s="45" t="s">
+        <v>132</v>
+      </c>
+      <c r="P26" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q26" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="R26" s="43" t="s">
+        <v>88</v>
+      </c>
       <c r="S26" s="4"/>
       <c r="T26" s="16"/>
       <c r="U26" s="4" t="s">
@@ -11556,23 +12140,51 @@
       <c r="A27" s="4">
         <v>22</v>
       </c>
-      <c r="B27" s="10"/>
-      <c r="C27" s="10"/>
-      <c r="D27" s="43"/>
-      <c r="E27" s="44"/>
+      <c r="B27" s="42" t="s">
+        <v>65</v>
+      </c>
+      <c r="C27" s="42" t="s">
+        <v>133</v>
+      </c>
+      <c r="D27" s="43" t="s">
+        <v>70</v>
+      </c>
+      <c r="E27" s="44">
+        <v>862118021727711</v>
+      </c>
       <c r="F27" s="43"/>
-      <c r="G27" s="43"/>
-      <c r="H27" s="11"/>
-      <c r="I27" s="1"/>
-      <c r="J27" s="1"/>
-      <c r="K27" s="11"/>
-      <c r="L27" s="11"/>
-      <c r="M27" s="11"/>
-      <c r="N27" s="11"/>
-      <c r="O27" s="45"/>
-      <c r="P27" s="11"/>
-      <c r="Q27" s="4"/>
-      <c r="R27" s="11"/>
+      <c r="G27" s="43" t="s">
+        <v>64</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="I27" s="45" t="s">
+        <v>126</v>
+      </c>
+      <c r="J27" s="45"/>
+      <c r="K27" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="L27" s="45" t="s">
+        <v>113</v>
+      </c>
+      <c r="M27" s="45" t="s">
+        <v>38</v>
+      </c>
+      <c r="N27" s="1"/>
+      <c r="O27" s="45" t="s">
+        <v>132</v>
+      </c>
+      <c r="P27" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q27" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R27" s="43" t="s">
+        <v>24</v>
+      </c>
       <c r="S27" s="4"/>
       <c r="T27" s="16"/>
       <c r="U27" s="4" t="s">
@@ -11580,7 +12192,7 @@
       </c>
       <c r="V27" s="11">
         <f>COUNTIF($R$6:$R$51,"*GSM*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W27" s="16"/>
     </row>
@@ -11588,23 +12200,23 @@
       <c r="A28" s="4">
         <v>23</v>
       </c>
-      <c r="B28" s="10"/>
-      <c r="C28" s="10"/>
+      <c r="B28" s="42"/>
+      <c r="C28" s="42"/>
       <c r="D28" s="43"/>
       <c r="E28" s="44"/>
       <c r="F28" s="43"/>
       <c r="G28" s="43"/>
-      <c r="H28" s="1"/>
-      <c r="I28" s="1"/>
-      <c r="J28" s="1"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="45"/>
+      <c r="J28" s="45"/>
       <c r="K28" s="1"/>
-      <c r="L28" s="11"/>
-      <c r="M28" s="11"/>
+      <c r="L28" s="45"/>
+      <c r="M28" s="45"/>
       <c r="N28" s="1"/>
       <c r="O28" s="45"/>
-      <c r="P28" s="11"/>
-      <c r="Q28" s="4"/>
-      <c r="R28" s="11"/>
+      <c r="P28" s="1"/>
+      <c r="Q28" s="3"/>
+      <c r="R28" s="43"/>
       <c r="S28" s="4"/>
       <c r="T28" s="16"/>
       <c r="U28" s="4" t="s">
@@ -11612,7 +12224,7 @@
       </c>
       <c r="V28" s="11">
         <f>COUNTIF($R$6:$R$51,"*GPS*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W28" s="16"/>
     </row>
@@ -11644,7 +12256,7 @@
       </c>
       <c r="V29" s="11">
         <f>COUNTIF($R$6:$R$51,"*NG*")</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="W29" s="16"/>
     </row>
@@ -11708,7 +12320,7 @@
       </c>
       <c r="V31" s="11">
         <f>COUNTIF($R$6:$R$51,"*LK*")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W31" s="16"/>
     </row>
@@ -11740,7 +12352,7 @@
       </c>
       <c r="V32" s="11">
         <f>COUNTIF($R$6:$R$51,"*MCH*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W32" s="16"/>
     </row>
@@ -11772,7 +12384,7 @@
       </c>
       <c r="V33" s="11">
         <f>COUNTIF($R$6:$R$51,"*SF*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W33" s="16"/>
     </row>
@@ -11836,7 +12448,7 @@
       </c>
       <c r="V35" s="11">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="W35" s="16"/>
     </row>
@@ -11868,7 +12480,7 @@
       </c>
       <c r="V36" s="11">
         <f>COUNTIF($R$6:$R$51,"*KL*")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W36" s="16"/>
     </row>
@@ -11900,7 +12512,7 @@
       </c>
       <c r="V37" s="11">
         <f>SUM(V26:V36)</f>
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="W37" s="16"/>
     </row>
@@ -12018,7 +12630,7 @@
       </c>
       <c r="V41" s="11">
         <f>COUNTIF($O$6:$O$51,"*KS*")</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="W41" s="16"/>
     </row>
@@ -12479,13 +13091,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -12497,6 +13102,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang3/02.XuLyBH/XLBH2103 _GPSGlobal.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang3/02.XuLyBH/XLBH2103 _GPSGlobal.xlsx
@@ -868,6 +868,15 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -896,15 +905,6 @@
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1246,43 +1246,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="75" t="s">
+      <c r="A1" s="78" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="75"/>
-      <c r="C1" s="75"/>
-      <c r="D1" s="75"/>
-      <c r="E1" s="75"/>
-      <c r="F1" s="75"/>
-      <c r="G1" s="75"/>
-      <c r="H1" s="75"/>
-      <c r="I1" s="75"/>
-      <c r="J1" s="75"/>
-      <c r="K1" s="75"/>
-      <c r="L1" s="75"/>
-      <c r="M1" s="75"/>
-      <c r="N1" s="75"/>
-      <c r="O1" s="75"/>
-      <c r="P1" s="75"/>
-      <c r="Q1" s="75"/>
-      <c r="R1" s="75"/>
-      <c r="S1" s="75"/>
-      <c r="T1" s="75"/>
-      <c r="U1" s="75"/>
-      <c r="V1" s="75"/>
+      <c r="B1" s="78"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="78"/>
+      <c r="F1" s="78"/>
+      <c r="G1" s="78"/>
+      <c r="H1" s="78"/>
+      <c r="I1" s="78"/>
+      <c r="J1" s="78"/>
+      <c r="K1" s="78"/>
+      <c r="L1" s="78"/>
+      <c r="M1" s="78"/>
+      <c r="N1" s="78"/>
+      <c r="O1" s="78"/>
+      <c r="P1" s="78"/>
+      <c r="Q1" s="78"/>
+      <c r="R1" s="78"/>
+      <c r="S1" s="78"/>
+      <c r="T1" s="78"/>
+      <c r="U1" s="78"/>
+      <c r="V1" s="78"/>
       <c r="W1" s="55"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="78" t="s">
+      <c r="A2" s="81" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="79"/>
-      <c r="C2" s="79"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="80" t="s">
+      <c r="B2" s="82"/>
+      <c r="C2" s="82"/>
+      <c r="D2" s="82"/>
+      <c r="E2" s="83" t="s">
         <v>61</v>
       </c>
-      <c r="F2" s="80"/>
+      <c r="F2" s="83"/>
       <c r="G2" s="6"/>
       <c r="H2" s="24"/>
       <c r="I2" s="24"/>
@@ -1327,58 +1327,58 @@
       <c r="W3" s="30"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="81" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="73" t="s">
+      <c r="A4" s="84" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="76" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="73"/>
-      <c r="D4" s="73"/>
-      <c r="E4" s="73"/>
-      <c r="F4" s="73"/>
-      <c r="G4" s="73"/>
-      <c r="H4" s="73"/>
-      <c r="I4" s="73"/>
-      <c r="J4" s="73" t="s">
+      <c r="C4" s="76"/>
+      <c r="D4" s="76"/>
+      <c r="E4" s="76"/>
+      <c r="F4" s="76"/>
+      <c r="G4" s="76"/>
+      <c r="H4" s="76"/>
+      <c r="I4" s="76"/>
+      <c r="J4" s="76" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="73" t="s">
+      <c r="K4" s="76" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="73"/>
-      <c r="M4" s="76" t="s">
+      <c r="L4" s="76"/>
+      <c r="M4" s="79" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="76" t="s">
+      <c r="N4" s="79" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="73" t="s">
+      <c r="O4" s="76" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="74" t="s">
+      <c r="P4" s="77" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="73" t="s">
+      <c r="Q4" s="76" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="73" t="s">
+      <c r="R4" s="76" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="82" t="s">
+      <c r="S4" s="85" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="30"/>
-      <c r="U4" s="73" t="s">
+      <c r="U4" s="76" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="73" t="s">
+      <c r="V4" s="76" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="56"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="81"/>
+      <c r="A5" s="84"/>
       <c r="B5" s="5" t="s">
         <v>1</v>
       </c>
@@ -1403,23 +1403,23 @@
       <c r="I5" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="73"/>
+      <c r="J5" s="76"/>
       <c r="K5" s="5" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="77"/>
-      <c r="N5" s="77"/>
-      <c r="O5" s="73"/>
-      <c r="P5" s="74"/>
-      <c r="Q5" s="73"/>
-      <c r="R5" s="73"/>
-      <c r="S5" s="82"/>
+      <c r="M5" s="80"/>
+      <c r="N5" s="80"/>
+      <c r="O5" s="76"/>
+      <c r="P5" s="77"/>
+      <c r="Q5" s="76"/>
+      <c r="R5" s="76"/>
+      <c r="S5" s="85"/>
       <c r="T5" s="30"/>
-      <c r="U5" s="73"/>
-      <c r="V5" s="73"/>
+      <c r="U5" s="76"/>
+      <c r="V5" s="76"/>
       <c r="W5" s="56"/>
     </row>
     <row r="6" spans="1:23" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1467,7 +1467,7 @@
       </c>
       <c r="S6" s="64"/>
       <c r="T6" s="13"/>
-      <c r="U6" s="83" t="s">
+      <c r="U6" s="73" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -1526,7 +1526,7 @@
       </c>
       <c r="S7" s="4"/>
       <c r="T7" s="13"/>
-      <c r="U7" s="84"/>
+      <c r="U7" s="74"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -1583,7 +1583,7 @@
       </c>
       <c r="S8" s="4"/>
       <c r="T8" s="13"/>
-      <c r="U8" s="84"/>
+      <c r="U8" s="74"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -1640,7 +1640,7 @@
       </c>
       <c r="S9" s="4"/>
       <c r="T9" s="23"/>
-      <c r="U9" s="84"/>
+      <c r="U9" s="74"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -1697,7 +1697,7 @@
       </c>
       <c r="S10" s="4"/>
       <c r="T10" s="32"/>
-      <c r="U10" s="84"/>
+      <c r="U10" s="74"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -1752,7 +1752,7 @@
       </c>
       <c r="S11" s="4"/>
       <c r="T11" s="13"/>
-      <c r="U11" s="84"/>
+      <c r="U11" s="74"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -1781,7 +1781,7 @@
       <c r="R12" s="43"/>
       <c r="S12" s="4"/>
       <c r="T12" s="13"/>
-      <c r="U12" s="83" t="s">
+      <c r="U12" s="73" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -1812,7 +1812,7 @@
       <c r="R13" s="11"/>
       <c r="S13" s="4"/>
       <c r="T13" s="13"/>
-      <c r="U13" s="84"/>
+      <c r="U13" s="74"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -1841,7 +1841,7 @@
       <c r="R14" s="43"/>
       <c r="S14" s="4"/>
       <c r="T14" s="13"/>
-      <c r="U14" s="84"/>
+      <c r="U14" s="74"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -1870,7 +1870,7 @@
       <c r="R15" s="43"/>
       <c r="S15" s="4"/>
       <c r="T15" s="16"/>
-      <c r="U15" s="84"/>
+      <c r="U15" s="74"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -1899,7 +1899,7 @@
       <c r="R16" s="43"/>
       <c r="S16" s="4"/>
       <c r="T16" s="16"/>
-      <c r="U16" s="85"/>
+      <c r="U16" s="75"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -3130,11 +3130,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="K4:L4"/>
     <mergeCell ref="O4:O5"/>
     <mergeCell ref="P4:P5"/>
@@ -3148,6 +3143,11 @@
     <mergeCell ref="B4:I4"/>
     <mergeCell ref="J4:J5"/>
     <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3191,43 +3191,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="75" t="s">
+      <c r="A1" s="78" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="75"/>
-      <c r="C1" s="75"/>
-      <c r="D1" s="75"/>
-      <c r="E1" s="75"/>
-      <c r="F1" s="75"/>
-      <c r="G1" s="75"/>
-      <c r="H1" s="75"/>
-      <c r="I1" s="75"/>
-      <c r="J1" s="75"/>
-      <c r="K1" s="75"/>
-      <c r="L1" s="75"/>
-      <c r="M1" s="75"/>
-      <c r="N1" s="75"/>
-      <c r="O1" s="75"/>
-      <c r="P1" s="75"/>
-      <c r="Q1" s="75"/>
-      <c r="R1" s="75"/>
-      <c r="S1" s="75"/>
-      <c r="T1" s="75"/>
-      <c r="U1" s="75"/>
-      <c r="V1" s="75"/>
+      <c r="B1" s="78"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="78"/>
+      <c r="F1" s="78"/>
+      <c r="G1" s="78"/>
+      <c r="H1" s="78"/>
+      <c r="I1" s="78"/>
+      <c r="J1" s="78"/>
+      <c r="K1" s="78"/>
+      <c r="L1" s="78"/>
+      <c r="M1" s="78"/>
+      <c r="N1" s="78"/>
+      <c r="O1" s="78"/>
+      <c r="P1" s="78"/>
+      <c r="Q1" s="78"/>
+      <c r="R1" s="78"/>
+      <c r="S1" s="78"/>
+      <c r="T1" s="78"/>
+      <c r="U1" s="78"/>
+      <c r="V1" s="78"/>
       <c r="W1" s="55"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="78" t="s">
+      <c r="A2" s="81" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="79"/>
-      <c r="C2" s="79"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="80" t="s">
+      <c r="B2" s="82"/>
+      <c r="C2" s="82"/>
+      <c r="D2" s="82"/>
+      <c r="E2" s="83" t="s">
         <v>61</v>
       </c>
-      <c r="F2" s="80"/>
+      <c r="F2" s="83"/>
       <c r="G2" s="6"/>
       <c r="H2" s="24"/>
       <c r="I2" s="24"/>
@@ -3272,58 +3272,58 @@
       <c r="W3" s="30"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="81" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="73" t="s">
+      <c r="A4" s="84" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="76" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="73"/>
-      <c r="D4" s="73"/>
-      <c r="E4" s="73"/>
-      <c r="F4" s="73"/>
-      <c r="G4" s="73"/>
-      <c r="H4" s="73"/>
-      <c r="I4" s="73"/>
-      <c r="J4" s="73" t="s">
+      <c r="C4" s="76"/>
+      <c r="D4" s="76"/>
+      <c r="E4" s="76"/>
+      <c r="F4" s="76"/>
+      <c r="G4" s="76"/>
+      <c r="H4" s="76"/>
+      <c r="I4" s="76"/>
+      <c r="J4" s="76" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="73" t="s">
+      <c r="K4" s="76" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="73"/>
-      <c r="M4" s="76" t="s">
+      <c r="L4" s="76"/>
+      <c r="M4" s="79" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="76" t="s">
+      <c r="N4" s="79" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="73" t="s">
+      <c r="O4" s="76" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="74" t="s">
+      <c r="P4" s="77" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="73" t="s">
+      <c r="Q4" s="76" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="73" t="s">
+      <c r="R4" s="76" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="82" t="s">
+      <c r="S4" s="85" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="30"/>
-      <c r="U4" s="73" t="s">
+      <c r="U4" s="76" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="73" t="s">
+      <c r="V4" s="76" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="56"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="81"/>
+      <c r="A5" s="84"/>
       <c r="B5" s="62" t="s">
         <v>1</v>
       </c>
@@ -3348,23 +3348,23 @@
       <c r="I5" s="62" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="73"/>
+      <c r="J5" s="76"/>
       <c r="K5" s="62" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="62" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="77"/>
-      <c r="N5" s="77"/>
-      <c r="O5" s="73"/>
-      <c r="P5" s="74"/>
-      <c r="Q5" s="73"/>
-      <c r="R5" s="73"/>
-      <c r="S5" s="82"/>
+      <c r="M5" s="80"/>
+      <c r="N5" s="80"/>
+      <c r="O5" s="76"/>
+      <c r="P5" s="77"/>
+      <c r="Q5" s="76"/>
+      <c r="R5" s="76"/>
+      <c r="S5" s="85"/>
       <c r="T5" s="30"/>
-      <c r="U5" s="73"/>
-      <c r="V5" s="73"/>
+      <c r="U5" s="76"/>
+      <c r="V5" s="76"/>
       <c r="W5" s="56"/>
     </row>
     <row r="6" spans="1:23" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3420,7 +3420,7 @@
       </c>
       <c r="S6" s="4"/>
       <c r="T6" s="61"/>
-      <c r="U6" s="83" t="s">
+      <c r="U6" s="73" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -3479,7 +3479,7 @@
       </c>
       <c r="S7" s="4"/>
       <c r="T7" s="61"/>
-      <c r="U7" s="84"/>
+      <c r="U7" s="74"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -3538,7 +3538,7 @@
       </c>
       <c r="S8" s="4"/>
       <c r="T8" s="61"/>
-      <c r="U8" s="84"/>
+      <c r="U8" s="74"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -3567,7 +3567,7 @@
       <c r="R9" s="43"/>
       <c r="S9" s="4"/>
       <c r="T9" s="61"/>
-      <c r="U9" s="84"/>
+      <c r="U9" s="74"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -3596,7 +3596,7 @@
       <c r="R10" s="43"/>
       <c r="S10" s="4"/>
       <c r="T10" s="61"/>
-      <c r="U10" s="84"/>
+      <c r="U10" s="74"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -3625,7 +3625,7 @@
       <c r="R11" s="43"/>
       <c r="S11" s="4"/>
       <c r="T11" s="61"/>
-      <c r="U11" s="84"/>
+      <c r="U11" s="74"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -3654,7 +3654,7 @@
       <c r="R12" s="43"/>
       <c r="S12" s="4"/>
       <c r="T12" s="61"/>
-      <c r="U12" s="83" t="s">
+      <c r="U12" s="73" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -3685,7 +3685,7 @@
       <c r="R13" s="11"/>
       <c r="S13" s="4"/>
       <c r="T13" s="61"/>
-      <c r="U13" s="84"/>
+      <c r="U13" s="74"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -3714,7 +3714,7 @@
       <c r="R14" s="43"/>
       <c r="S14" s="4"/>
       <c r="T14" s="61"/>
-      <c r="U14" s="84"/>
+      <c r="U14" s="74"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -3743,7 +3743,7 @@
       <c r="R15" s="43"/>
       <c r="S15" s="4"/>
       <c r="T15" s="16"/>
-      <c r="U15" s="84"/>
+      <c r="U15" s="74"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -3772,7 +3772,7 @@
       <c r="R16" s="43"/>
       <c r="S16" s="4"/>
       <c r="T16" s="16"/>
-      <c r="U16" s="85"/>
+      <c r="U16" s="75"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -5003,13 +5003,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -5021,6 +5014,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5064,43 +5064,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="75" t="s">
+      <c r="A1" s="78" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="75"/>
-      <c r="C1" s="75"/>
-      <c r="D1" s="75"/>
-      <c r="E1" s="75"/>
-      <c r="F1" s="75"/>
-      <c r="G1" s="75"/>
-      <c r="H1" s="75"/>
-      <c r="I1" s="75"/>
-      <c r="J1" s="75"/>
-      <c r="K1" s="75"/>
-      <c r="L1" s="75"/>
-      <c r="M1" s="75"/>
-      <c r="N1" s="75"/>
-      <c r="O1" s="75"/>
-      <c r="P1" s="75"/>
-      <c r="Q1" s="75"/>
-      <c r="R1" s="75"/>
-      <c r="S1" s="75"/>
-      <c r="T1" s="75"/>
-      <c r="U1" s="75"/>
-      <c r="V1" s="75"/>
+      <c r="B1" s="78"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="78"/>
+      <c r="F1" s="78"/>
+      <c r="G1" s="78"/>
+      <c r="H1" s="78"/>
+      <c r="I1" s="78"/>
+      <c r="J1" s="78"/>
+      <c r="K1" s="78"/>
+      <c r="L1" s="78"/>
+      <c r="M1" s="78"/>
+      <c r="N1" s="78"/>
+      <c r="O1" s="78"/>
+      <c r="P1" s="78"/>
+      <c r="Q1" s="78"/>
+      <c r="R1" s="78"/>
+      <c r="S1" s="78"/>
+      <c r="T1" s="78"/>
+      <c r="U1" s="78"/>
+      <c r="V1" s="78"/>
       <c r="W1" s="55"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="78" t="s">
+      <c r="A2" s="81" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="79"/>
-      <c r="C2" s="79"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="80" t="s">
+      <c r="B2" s="82"/>
+      <c r="C2" s="82"/>
+      <c r="D2" s="82"/>
+      <c r="E2" s="83" t="s">
         <v>61</v>
       </c>
-      <c r="F2" s="80"/>
+      <c r="F2" s="83"/>
       <c r="G2" s="6"/>
       <c r="H2" s="24"/>
       <c r="I2" s="24"/>
@@ -5145,58 +5145,58 @@
       <c r="W3" s="30"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="81" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="73" t="s">
+      <c r="A4" s="84" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="76" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="73"/>
-      <c r="D4" s="73"/>
-      <c r="E4" s="73"/>
-      <c r="F4" s="73"/>
-      <c r="G4" s="73"/>
-      <c r="H4" s="73"/>
-      <c r="I4" s="73"/>
-      <c r="J4" s="73" t="s">
+      <c r="C4" s="76"/>
+      <c r="D4" s="76"/>
+      <c r="E4" s="76"/>
+      <c r="F4" s="76"/>
+      <c r="G4" s="76"/>
+      <c r="H4" s="76"/>
+      <c r="I4" s="76"/>
+      <c r="J4" s="76" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="73" t="s">
+      <c r="K4" s="76" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="73"/>
-      <c r="M4" s="76" t="s">
+      <c r="L4" s="76"/>
+      <c r="M4" s="79" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="76" t="s">
+      <c r="N4" s="79" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="73" t="s">
+      <c r="O4" s="76" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="74" t="s">
+      <c r="P4" s="77" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="73" t="s">
+      <c r="Q4" s="76" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="73" t="s">
+      <c r="R4" s="76" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="82" t="s">
+      <c r="S4" s="85" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="30"/>
-      <c r="U4" s="73" t="s">
+      <c r="U4" s="76" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="73" t="s">
+      <c r="V4" s="76" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="56"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="81"/>
+      <c r="A5" s="84"/>
       <c r="B5" s="62" t="s">
         <v>1</v>
       </c>
@@ -5221,23 +5221,23 @@
       <c r="I5" s="62" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="73"/>
+      <c r="J5" s="76"/>
       <c r="K5" s="62" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="62" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="77"/>
-      <c r="N5" s="77"/>
-      <c r="O5" s="73"/>
-      <c r="P5" s="74"/>
-      <c r="Q5" s="73"/>
-      <c r="R5" s="73"/>
-      <c r="S5" s="82"/>
+      <c r="M5" s="80"/>
+      <c r="N5" s="80"/>
+      <c r="O5" s="76"/>
+      <c r="P5" s="77"/>
+      <c r="Q5" s="76"/>
+      <c r="R5" s="76"/>
+      <c r="S5" s="85"/>
       <c r="T5" s="30"/>
-      <c r="U5" s="73"/>
-      <c r="V5" s="73"/>
+      <c r="U5" s="76"/>
+      <c r="V5" s="76"/>
       <c r="W5" s="56"/>
     </row>
     <row r="6" spans="1:23" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -5291,7 +5291,7 @@
       </c>
       <c r="S6" s="4"/>
       <c r="T6" s="61"/>
-      <c r="U6" s="83" t="s">
+      <c r="U6" s="73" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -5322,7 +5322,7 @@
       <c r="R7" s="43"/>
       <c r="S7" s="4"/>
       <c r="T7" s="61"/>
-      <c r="U7" s="84"/>
+      <c r="U7" s="74"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -5351,7 +5351,7 @@
       <c r="R8" s="43"/>
       <c r="S8" s="4"/>
       <c r="T8" s="61"/>
-      <c r="U8" s="84"/>
+      <c r="U8" s="74"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -5380,7 +5380,7 @@
       <c r="R9" s="43"/>
       <c r="S9" s="4"/>
       <c r="T9" s="61"/>
-      <c r="U9" s="84"/>
+      <c r="U9" s="74"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -5409,7 +5409,7 @@
       <c r="R10" s="43"/>
       <c r="S10" s="4"/>
       <c r="T10" s="61"/>
-      <c r="U10" s="84"/>
+      <c r="U10" s="74"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -5438,7 +5438,7 @@
       <c r="R11" s="43"/>
       <c r="S11" s="4"/>
       <c r="T11" s="61"/>
-      <c r="U11" s="84"/>
+      <c r="U11" s="74"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -5467,7 +5467,7 @@
       <c r="R12" s="43"/>
       <c r="S12" s="4"/>
       <c r="T12" s="61"/>
-      <c r="U12" s="83" t="s">
+      <c r="U12" s="73" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -5498,7 +5498,7 @@
       <c r="R13" s="11"/>
       <c r="S13" s="4"/>
       <c r="T13" s="61"/>
-      <c r="U13" s="84"/>
+      <c r="U13" s="74"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -5527,7 +5527,7 @@
       <c r="R14" s="43"/>
       <c r="S14" s="4"/>
       <c r="T14" s="61"/>
-      <c r="U14" s="84"/>
+      <c r="U14" s="74"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -5556,7 +5556,7 @@
       <c r="R15" s="43"/>
       <c r="S15" s="4"/>
       <c r="T15" s="16"/>
-      <c r="U15" s="84"/>
+      <c r="U15" s="74"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -5585,7 +5585,7 @@
       <c r="R16" s="43"/>
       <c r="S16" s="4"/>
       <c r="T16" s="16"/>
-      <c r="U16" s="85"/>
+      <c r="U16" s="75"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -6816,13 +6816,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -6834,6 +6827,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -6877,43 +6877,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="75" t="s">
+      <c r="A1" s="78" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="75"/>
-      <c r="C1" s="75"/>
-      <c r="D1" s="75"/>
-      <c r="E1" s="75"/>
-      <c r="F1" s="75"/>
-      <c r="G1" s="75"/>
-      <c r="H1" s="75"/>
-      <c r="I1" s="75"/>
-      <c r="J1" s="75"/>
-      <c r="K1" s="75"/>
-      <c r="L1" s="75"/>
-      <c r="M1" s="75"/>
-      <c r="N1" s="75"/>
-      <c r="O1" s="75"/>
-      <c r="P1" s="75"/>
-      <c r="Q1" s="75"/>
-      <c r="R1" s="75"/>
-      <c r="S1" s="75"/>
-      <c r="T1" s="75"/>
-      <c r="U1" s="75"/>
-      <c r="V1" s="75"/>
+      <c r="B1" s="78"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="78"/>
+      <c r="F1" s="78"/>
+      <c r="G1" s="78"/>
+      <c r="H1" s="78"/>
+      <c r="I1" s="78"/>
+      <c r="J1" s="78"/>
+      <c r="K1" s="78"/>
+      <c r="L1" s="78"/>
+      <c r="M1" s="78"/>
+      <c r="N1" s="78"/>
+      <c r="O1" s="78"/>
+      <c r="P1" s="78"/>
+      <c r="Q1" s="78"/>
+      <c r="R1" s="78"/>
+      <c r="S1" s="78"/>
+      <c r="T1" s="78"/>
+      <c r="U1" s="78"/>
+      <c r="V1" s="78"/>
       <c r="W1" s="55"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="78" t="s">
+      <c r="A2" s="81" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="79"/>
-      <c r="C2" s="79"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="80" t="s">
+      <c r="B2" s="82"/>
+      <c r="C2" s="82"/>
+      <c r="D2" s="82"/>
+      <c r="E2" s="83" t="s">
         <v>61</v>
       </c>
-      <c r="F2" s="80"/>
+      <c r="F2" s="83"/>
       <c r="G2" s="6"/>
       <c r="H2" s="24"/>
       <c r="I2" s="24"/>
@@ -6958,58 +6958,58 @@
       <c r="W3" s="30"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="81" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="73" t="s">
+      <c r="A4" s="84" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="76" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="73"/>
-      <c r="D4" s="73"/>
-      <c r="E4" s="73"/>
-      <c r="F4" s="73"/>
-      <c r="G4" s="73"/>
-      <c r="H4" s="73"/>
-      <c r="I4" s="73"/>
-      <c r="J4" s="73" t="s">
+      <c r="C4" s="76"/>
+      <c r="D4" s="76"/>
+      <c r="E4" s="76"/>
+      <c r="F4" s="76"/>
+      <c r="G4" s="76"/>
+      <c r="H4" s="76"/>
+      <c r="I4" s="76"/>
+      <c r="J4" s="76" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="73" t="s">
+      <c r="K4" s="76" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="73"/>
-      <c r="M4" s="76" t="s">
+      <c r="L4" s="76"/>
+      <c r="M4" s="79" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="76" t="s">
+      <c r="N4" s="79" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="73" t="s">
+      <c r="O4" s="76" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="74" t="s">
+      <c r="P4" s="77" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="73" t="s">
+      <c r="Q4" s="76" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="73" t="s">
+      <c r="R4" s="76" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="82" t="s">
+      <c r="S4" s="85" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="30"/>
-      <c r="U4" s="73" t="s">
+      <c r="U4" s="76" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="73" t="s">
+      <c r="V4" s="76" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="56"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="81"/>
+      <c r="A5" s="84"/>
       <c r="B5" s="53" t="s">
         <v>1</v>
       </c>
@@ -7034,23 +7034,23 @@
       <c r="I5" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="73"/>
+      <c r="J5" s="76"/>
       <c r="K5" s="53" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="77"/>
-      <c r="N5" s="77"/>
-      <c r="O5" s="73"/>
-      <c r="P5" s="74"/>
-      <c r="Q5" s="73"/>
-      <c r="R5" s="73"/>
-      <c r="S5" s="82"/>
+      <c r="M5" s="80"/>
+      <c r="N5" s="80"/>
+      <c r="O5" s="76"/>
+      <c r="P5" s="77"/>
+      <c r="Q5" s="76"/>
+      <c r="R5" s="76"/>
+      <c r="S5" s="85"/>
       <c r="T5" s="30"/>
-      <c r="U5" s="73"/>
-      <c r="V5" s="73"/>
+      <c r="U5" s="76"/>
+      <c r="V5" s="76"/>
       <c r="W5" s="56"/>
     </row>
     <row r="6" spans="1:23" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -7102,7 +7102,7 @@
       </c>
       <c r="S6" s="4"/>
       <c r="T6" s="52"/>
-      <c r="U6" s="83" t="s">
+      <c r="U6" s="73" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -7155,7 +7155,7 @@
       </c>
       <c r="S7" s="4"/>
       <c r="T7" s="52"/>
-      <c r="U7" s="84"/>
+      <c r="U7" s="74"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -7210,7 +7210,7 @@
       </c>
       <c r="S8" s="4"/>
       <c r="T8" s="52"/>
-      <c r="U8" s="84"/>
+      <c r="U8" s="74"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -7261,7 +7261,7 @@
       </c>
       <c r="S9" s="64"/>
       <c r="T9" s="52"/>
-      <c r="U9" s="84"/>
+      <c r="U9" s="74"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -7316,7 +7316,7 @@
       </c>
       <c r="S10" s="4"/>
       <c r="T10" s="52"/>
-      <c r="U10" s="84"/>
+      <c r="U10" s="74"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -7371,7 +7371,7 @@
       </c>
       <c r="S11" s="4"/>
       <c r="T11" s="52"/>
-      <c r="U11" s="84"/>
+      <c r="U11" s="74"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -7426,7 +7426,7 @@
       </c>
       <c r="S12" s="4"/>
       <c r="T12" s="52"/>
-      <c r="U12" s="83" t="s">
+      <c r="U12" s="73" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -7457,7 +7457,7 @@
       <c r="R13" s="11"/>
       <c r="S13" s="4"/>
       <c r="T13" s="52"/>
-      <c r="U13" s="84"/>
+      <c r="U13" s="74"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -7486,7 +7486,7 @@
       <c r="R14" s="43"/>
       <c r="S14" s="4"/>
       <c r="T14" s="52"/>
-      <c r="U14" s="84"/>
+      <c r="U14" s="74"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -7515,7 +7515,7 @@
       <c r="R15" s="43"/>
       <c r="S15" s="4"/>
       <c r="T15" s="16"/>
-      <c r="U15" s="84"/>
+      <c r="U15" s="74"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -7544,7 +7544,7 @@
       <c r="R16" s="43"/>
       <c r="S16" s="4"/>
       <c r="T16" s="16"/>
-      <c r="U16" s="85"/>
+      <c r="U16" s="75"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -8775,13 +8775,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -8793,6 +8786,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -8836,43 +8836,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="75" t="s">
+      <c r="A1" s="78" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="75"/>
-      <c r="C1" s="75"/>
-      <c r="D1" s="75"/>
-      <c r="E1" s="75"/>
-      <c r="F1" s="75"/>
-      <c r="G1" s="75"/>
-      <c r="H1" s="75"/>
-      <c r="I1" s="75"/>
-      <c r="J1" s="75"/>
-      <c r="K1" s="75"/>
-      <c r="L1" s="75"/>
-      <c r="M1" s="75"/>
-      <c r="N1" s="75"/>
-      <c r="O1" s="75"/>
-      <c r="P1" s="75"/>
-      <c r="Q1" s="75"/>
-      <c r="R1" s="75"/>
-      <c r="S1" s="75"/>
-      <c r="T1" s="75"/>
-      <c r="U1" s="75"/>
-      <c r="V1" s="75"/>
+      <c r="B1" s="78"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="78"/>
+      <c r="F1" s="78"/>
+      <c r="G1" s="78"/>
+      <c r="H1" s="78"/>
+      <c r="I1" s="78"/>
+      <c r="J1" s="78"/>
+      <c r="K1" s="78"/>
+      <c r="L1" s="78"/>
+      <c r="M1" s="78"/>
+      <c r="N1" s="78"/>
+      <c r="O1" s="78"/>
+      <c r="P1" s="78"/>
+      <c r="Q1" s="78"/>
+      <c r="R1" s="78"/>
+      <c r="S1" s="78"/>
+      <c r="T1" s="78"/>
+      <c r="U1" s="78"/>
+      <c r="V1" s="78"/>
       <c r="W1" s="55"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="78" t="s">
+      <c r="A2" s="81" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="79"/>
-      <c r="C2" s="79"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="80" t="s">
+      <c r="B2" s="82"/>
+      <c r="C2" s="82"/>
+      <c r="D2" s="82"/>
+      <c r="E2" s="83" t="s">
         <v>61</v>
       </c>
-      <c r="F2" s="80"/>
+      <c r="F2" s="83"/>
       <c r="G2" s="6"/>
       <c r="H2" s="24"/>
       <c r="I2" s="24"/>
@@ -8917,58 +8917,58 @@
       <c r="W3" s="30"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="81" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="73" t="s">
+      <c r="A4" s="84" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="76" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="73"/>
-      <c r="D4" s="73"/>
-      <c r="E4" s="73"/>
-      <c r="F4" s="73"/>
-      <c r="G4" s="73"/>
-      <c r="H4" s="73"/>
-      <c r="I4" s="73"/>
-      <c r="J4" s="73" t="s">
+      <c r="C4" s="76"/>
+      <c r="D4" s="76"/>
+      <c r="E4" s="76"/>
+      <c r="F4" s="76"/>
+      <c r="G4" s="76"/>
+      <c r="H4" s="76"/>
+      <c r="I4" s="76"/>
+      <c r="J4" s="76" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="73" t="s">
+      <c r="K4" s="76" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="73"/>
-      <c r="M4" s="76" t="s">
+      <c r="L4" s="76"/>
+      <c r="M4" s="79" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="76" t="s">
+      <c r="N4" s="79" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="73" t="s">
+      <c r="O4" s="76" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="74" t="s">
+      <c r="P4" s="77" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="73" t="s">
+      <c r="Q4" s="76" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="73" t="s">
+      <c r="R4" s="76" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="82" t="s">
+      <c r="S4" s="85" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="30"/>
-      <c r="U4" s="73" t="s">
+      <c r="U4" s="76" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="73" t="s">
+      <c r="V4" s="76" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="56"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="81"/>
+      <c r="A5" s="84"/>
       <c r="B5" s="50" t="s">
         <v>1</v>
       </c>
@@ -8993,23 +8993,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="73"/>
+      <c r="J5" s="76"/>
       <c r="K5" s="50" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="77"/>
-      <c r="N5" s="77"/>
-      <c r="O5" s="73"/>
-      <c r="P5" s="74"/>
-      <c r="Q5" s="73"/>
-      <c r="R5" s="73"/>
-      <c r="S5" s="82"/>
+      <c r="M5" s="80"/>
+      <c r="N5" s="80"/>
+      <c r="O5" s="76"/>
+      <c r="P5" s="77"/>
+      <c r="Q5" s="76"/>
+      <c r="R5" s="76"/>
+      <c r="S5" s="85"/>
       <c r="T5" s="30"/>
-      <c r="U5" s="73"/>
-      <c r="V5" s="73"/>
+      <c r="U5" s="76"/>
+      <c r="V5" s="76"/>
       <c r="W5" s="56"/>
     </row>
     <row r="6" spans="1:23" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -9067,7 +9067,7 @@
       </c>
       <c r="S6" s="64"/>
       <c r="T6" s="49"/>
-      <c r="U6" s="83" t="s">
+      <c r="U6" s="73" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -9126,7 +9126,7 @@
       </c>
       <c r="S7" s="4"/>
       <c r="T7" s="49"/>
-      <c r="U7" s="84"/>
+      <c r="U7" s="74"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -9185,7 +9185,7 @@
       </c>
       <c r="S8" s="4"/>
       <c r="T8" s="49"/>
-      <c r="U8" s="84"/>
+      <c r="U8" s="74"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -9244,7 +9244,7 @@
       </c>
       <c r="S9" s="4"/>
       <c r="T9" s="49"/>
-      <c r="U9" s="84"/>
+      <c r="U9" s="74"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -9301,7 +9301,7 @@
       </c>
       <c r="S10" s="4"/>
       <c r="T10" s="49"/>
-      <c r="U10" s="84"/>
+      <c r="U10" s="74"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -9330,7 +9330,7 @@
       <c r="R11" s="43"/>
       <c r="S11" s="4"/>
       <c r="T11" s="49"/>
-      <c r="U11" s="84"/>
+      <c r="U11" s="74"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -9359,7 +9359,7 @@
       <c r="R12" s="43"/>
       <c r="S12" s="4"/>
       <c r="T12" s="49"/>
-      <c r="U12" s="83" t="s">
+      <c r="U12" s="73" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -9390,7 +9390,7 @@
       <c r="R13" s="11"/>
       <c r="S13" s="4"/>
       <c r="T13" s="49"/>
-      <c r="U13" s="84"/>
+      <c r="U13" s="74"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -9419,7 +9419,7 @@
       <c r="R14" s="43"/>
       <c r="S14" s="4"/>
       <c r="T14" s="49"/>
-      <c r="U14" s="84"/>
+      <c r="U14" s="74"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -9448,7 +9448,7 @@
       <c r="R15" s="43"/>
       <c r="S15" s="4"/>
       <c r="T15" s="16"/>
-      <c r="U15" s="84"/>
+      <c r="U15" s="74"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -9477,7 +9477,7 @@
       <c r="R16" s="43"/>
       <c r="S16" s="4"/>
       <c r="T16" s="16"/>
-      <c r="U16" s="85"/>
+      <c r="U16" s="75"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -10708,6 +10708,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -10719,13 +10726,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -10736,8 +10736,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" topLeftCell="I1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="N43" sqref="N43"/>
+    <sheetView showZeros="0" tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -10769,43 +10769,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="75" t="s">
+      <c r="A1" s="78" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="75"/>
-      <c r="C1" s="75"/>
-      <c r="D1" s="75"/>
-      <c r="E1" s="75"/>
-      <c r="F1" s="75"/>
-      <c r="G1" s="75"/>
-      <c r="H1" s="75"/>
-      <c r="I1" s="75"/>
-      <c r="J1" s="75"/>
-      <c r="K1" s="75"/>
-      <c r="L1" s="75"/>
-      <c r="M1" s="75"/>
-      <c r="N1" s="75"/>
-      <c r="O1" s="75"/>
-      <c r="P1" s="75"/>
-      <c r="Q1" s="75"/>
-      <c r="R1" s="75"/>
-      <c r="S1" s="75"/>
-      <c r="T1" s="75"/>
-      <c r="U1" s="75"/>
-      <c r="V1" s="75"/>
+      <c r="B1" s="78"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="78"/>
+      <c r="F1" s="78"/>
+      <c r="G1" s="78"/>
+      <c r="H1" s="78"/>
+      <c r="I1" s="78"/>
+      <c r="J1" s="78"/>
+      <c r="K1" s="78"/>
+      <c r="L1" s="78"/>
+      <c r="M1" s="78"/>
+      <c r="N1" s="78"/>
+      <c r="O1" s="78"/>
+      <c r="P1" s="78"/>
+      <c r="Q1" s="78"/>
+      <c r="R1" s="78"/>
+      <c r="S1" s="78"/>
+      <c r="T1" s="78"/>
+      <c r="U1" s="78"/>
+      <c r="V1" s="78"/>
       <c r="W1" s="55"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="78" t="s">
+      <c r="A2" s="81" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="79"/>
-      <c r="C2" s="79"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="80" t="s">
+      <c r="B2" s="82"/>
+      <c r="C2" s="82"/>
+      <c r="D2" s="82"/>
+      <c r="E2" s="83" t="s">
         <v>61</v>
       </c>
-      <c r="F2" s="80"/>
+      <c r="F2" s="83"/>
       <c r="G2" s="6"/>
       <c r="H2" s="24"/>
       <c r="I2" s="24"/>
@@ -10850,58 +10850,58 @@
       <c r="W3" s="30"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="81" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="73" t="s">
+      <c r="A4" s="84" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="76" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="73"/>
-      <c r="D4" s="73"/>
-      <c r="E4" s="73"/>
-      <c r="F4" s="73"/>
-      <c r="G4" s="73"/>
-      <c r="H4" s="73"/>
-      <c r="I4" s="73"/>
-      <c r="J4" s="73" t="s">
+      <c r="C4" s="76"/>
+      <c r="D4" s="76"/>
+      <c r="E4" s="76"/>
+      <c r="F4" s="76"/>
+      <c r="G4" s="76"/>
+      <c r="H4" s="76"/>
+      <c r="I4" s="76"/>
+      <c r="J4" s="76" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="73" t="s">
+      <c r="K4" s="76" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="73"/>
-      <c r="M4" s="76" t="s">
+      <c r="L4" s="76"/>
+      <c r="M4" s="79" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="76" t="s">
+      <c r="N4" s="79" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="73" t="s">
+      <c r="O4" s="76" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="74" t="s">
+      <c r="P4" s="77" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="73" t="s">
+      <c r="Q4" s="76" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="73" t="s">
+      <c r="R4" s="76" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="82" t="s">
+      <c r="S4" s="85" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="30"/>
-      <c r="U4" s="73" t="s">
+      <c r="U4" s="76" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="73" t="s">
+      <c r="V4" s="76" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="56"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="81"/>
+      <c r="A5" s="84"/>
       <c r="B5" s="50" t="s">
         <v>1</v>
       </c>
@@ -10926,23 +10926,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="73"/>
+      <c r="J5" s="76"/>
       <c r="K5" s="50" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="77"/>
-      <c r="N5" s="77"/>
-      <c r="O5" s="73"/>
-      <c r="P5" s="74"/>
-      <c r="Q5" s="73"/>
-      <c r="R5" s="73"/>
-      <c r="S5" s="82"/>
+      <c r="M5" s="80"/>
+      <c r="N5" s="80"/>
+      <c r="O5" s="76"/>
+      <c r="P5" s="77"/>
+      <c r="Q5" s="76"/>
+      <c r="R5" s="76"/>
+      <c r="S5" s="85"/>
       <c r="T5" s="30"/>
-      <c r="U5" s="73"/>
-      <c r="V5" s="73"/>
+      <c r="U5" s="76"/>
+      <c r="V5" s="76"/>
       <c r="W5" s="56"/>
     </row>
     <row r="6" spans="1:23" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -10990,7 +10990,7 @@
       </c>
       <c r="S6" s="64"/>
       <c r="T6" s="49"/>
-      <c r="U6" s="83" t="s">
+      <c r="U6" s="73" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -11049,7 +11049,7 @@
       </c>
       <c r="S7" s="4"/>
       <c r="T7" s="49"/>
-      <c r="U7" s="84"/>
+      <c r="U7" s="74"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -11106,7 +11106,7 @@
       </c>
       <c r="S8" s="4"/>
       <c r="T8" s="49"/>
-      <c r="U8" s="84"/>
+      <c r="U8" s="74"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -11163,7 +11163,7 @@
       </c>
       <c r="S9" s="4"/>
       <c r="T9" s="49"/>
-      <c r="U9" s="84"/>
+      <c r="U9" s="74"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -11220,7 +11220,7 @@
       </c>
       <c r="S10" s="4"/>
       <c r="T10" s="49"/>
-      <c r="U10" s="84"/>
+      <c r="U10" s="74"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -11275,7 +11275,7 @@
       </c>
       <c r="S11" s="4"/>
       <c r="T11" s="49"/>
-      <c r="U11" s="84"/>
+      <c r="U11" s="74"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -11334,7 +11334,7 @@
       </c>
       <c r="S12" s="4"/>
       <c r="T12" s="49"/>
-      <c r="U12" s="83" t="s">
+      <c r="U12" s="73" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -11393,7 +11393,7 @@
       </c>
       <c r="S13" s="4"/>
       <c r="T13" s="49"/>
-      <c r="U13" s="84"/>
+      <c r="U13" s="74"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -11452,7 +11452,7 @@
       </c>
       <c r="S14" s="4"/>
       <c r="T14" s="49"/>
-      <c r="U14" s="84"/>
+      <c r="U14" s="74"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -11509,7 +11509,7 @@
       </c>
       <c r="S15" s="4"/>
       <c r="T15" s="16"/>
-      <c r="U15" s="84"/>
+      <c r="U15" s="74"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -11564,7 +11564,7 @@
       </c>
       <c r="S16" s="4"/>
       <c r="T16" s="16"/>
-      <c r="U16" s="85"/>
+      <c r="U16" s="75"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -13091,6 +13091,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -13102,13 +13109,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang3/02.XuLyBH/XLBH2103 _GPSGlobal.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang3/02.XuLyBH/XLBH2103 _GPSGlobal.xlsx
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="964" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="967" uniqueCount="138">
   <si>
     <t>STT</t>
   </si>
@@ -448,6 +448,15 @@
   </si>
   <si>
     <t>Thay module  GSM/GPS (thiếu linh kiện giữ lại)</t>
+  </si>
+  <si>
+    <t>Imei mới: 868183033791331</t>
+  </si>
+  <si>
+    <t>Thay module  GSM/GPS, nâng cấp FW</t>
+  </si>
+  <si>
+    <t>GSM,NCFW</t>
   </si>
 </sst>
 </file>
@@ -868,15 +877,6 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -905,6 +905,15 @@
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1246,43 +1255,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="78" t="s">
+      <c r="A1" s="75" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="78"/>
-      <c r="C1" s="78"/>
-      <c r="D1" s="78"/>
-      <c r="E1" s="78"/>
-      <c r="F1" s="78"/>
-      <c r="G1" s="78"/>
-      <c r="H1" s="78"/>
-      <c r="I1" s="78"/>
-      <c r="J1" s="78"/>
-      <c r="K1" s="78"/>
-      <c r="L1" s="78"/>
-      <c r="M1" s="78"/>
-      <c r="N1" s="78"/>
-      <c r="O1" s="78"/>
-      <c r="P1" s="78"/>
-      <c r="Q1" s="78"/>
-      <c r="R1" s="78"/>
-      <c r="S1" s="78"/>
-      <c r="T1" s="78"/>
-      <c r="U1" s="78"/>
-      <c r="V1" s="78"/>
+      <c r="B1" s="75"/>
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="75"/>
+      <c r="F1" s="75"/>
+      <c r="G1" s="75"/>
+      <c r="H1" s="75"/>
+      <c r="I1" s="75"/>
+      <c r="J1" s="75"/>
+      <c r="K1" s="75"/>
+      <c r="L1" s="75"/>
+      <c r="M1" s="75"/>
+      <c r="N1" s="75"/>
+      <c r="O1" s="75"/>
+      <c r="P1" s="75"/>
+      <c r="Q1" s="75"/>
+      <c r="R1" s="75"/>
+      <c r="S1" s="75"/>
+      <c r="T1" s="75"/>
+      <c r="U1" s="75"/>
+      <c r="V1" s="75"/>
       <c r="W1" s="55"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="81" t="s">
+      <c r="A2" s="78" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="82"/>
-      <c r="C2" s="82"/>
-      <c r="D2" s="82"/>
-      <c r="E2" s="83" t="s">
+      <c r="B2" s="79"/>
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="80" t="s">
         <v>61</v>
       </c>
-      <c r="F2" s="83"/>
+      <c r="F2" s="80"/>
       <c r="G2" s="6"/>
       <c r="H2" s="24"/>
       <c r="I2" s="24"/>
@@ -1327,58 +1336,58 @@
       <c r="W3" s="30"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="84" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="76" t="s">
+      <c r="A4" s="81" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="73" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="76"/>
-      <c r="D4" s="76"/>
-      <c r="E4" s="76"/>
-      <c r="F4" s="76"/>
-      <c r="G4" s="76"/>
-      <c r="H4" s="76"/>
-      <c r="I4" s="76"/>
-      <c r="J4" s="76" t="s">
+      <c r="C4" s="73"/>
+      <c r="D4" s="73"/>
+      <c r="E4" s="73"/>
+      <c r="F4" s="73"/>
+      <c r="G4" s="73"/>
+      <c r="H4" s="73"/>
+      <c r="I4" s="73"/>
+      <c r="J4" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="76" t="s">
+      <c r="K4" s="73" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="76"/>
-      <c r="M4" s="79" t="s">
+      <c r="L4" s="73"/>
+      <c r="M4" s="76" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="79" t="s">
+      <c r="N4" s="76" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="76" t="s">
+      <c r="O4" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="77" t="s">
+      <c r="P4" s="74" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="76" t="s">
+      <c r="Q4" s="73" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="76" t="s">
+      <c r="R4" s="73" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="85" t="s">
+      <c r="S4" s="82" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="30"/>
-      <c r="U4" s="76" t="s">
+      <c r="U4" s="73" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="76" t="s">
+      <c r="V4" s="73" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="56"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="84"/>
+      <c r="A5" s="81"/>
       <c r="B5" s="5" t="s">
         <v>1</v>
       </c>
@@ -1403,23 +1412,23 @@
       <c r="I5" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="76"/>
+      <c r="J5" s="73"/>
       <c r="K5" s="5" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="80"/>
-      <c r="N5" s="80"/>
-      <c r="O5" s="76"/>
-      <c r="P5" s="77"/>
-      <c r="Q5" s="76"/>
-      <c r="R5" s="76"/>
-      <c r="S5" s="85"/>
+      <c r="M5" s="77"/>
+      <c r="N5" s="77"/>
+      <c r="O5" s="73"/>
+      <c r="P5" s="74"/>
+      <c r="Q5" s="73"/>
+      <c r="R5" s="73"/>
+      <c r="S5" s="82"/>
       <c r="T5" s="30"/>
-      <c r="U5" s="76"/>
-      <c r="V5" s="76"/>
+      <c r="U5" s="73"/>
+      <c r="V5" s="73"/>
       <c r="W5" s="56"/>
     </row>
     <row r="6" spans="1:23" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1467,7 +1476,7 @@
       </c>
       <c r="S6" s="64"/>
       <c r="T6" s="13"/>
-      <c r="U6" s="73" t="s">
+      <c r="U6" s="83" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -1526,7 +1535,7 @@
       </c>
       <c r="S7" s="4"/>
       <c r="T7" s="13"/>
-      <c r="U7" s="74"/>
+      <c r="U7" s="84"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -1583,7 +1592,7 @@
       </c>
       <c r="S8" s="4"/>
       <c r="T8" s="13"/>
-      <c r="U8" s="74"/>
+      <c r="U8" s="84"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -1640,7 +1649,7 @@
       </c>
       <c r="S9" s="4"/>
       <c r="T9" s="23"/>
-      <c r="U9" s="74"/>
+      <c r="U9" s="84"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -1697,7 +1706,7 @@
       </c>
       <c r="S10" s="4"/>
       <c r="T10" s="32"/>
-      <c r="U10" s="74"/>
+      <c r="U10" s="84"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -1752,7 +1761,7 @@
       </c>
       <c r="S11" s="4"/>
       <c r="T11" s="13"/>
-      <c r="U11" s="74"/>
+      <c r="U11" s="84"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -1781,7 +1790,7 @@
       <c r="R12" s="43"/>
       <c r="S12" s="4"/>
       <c r="T12" s="13"/>
-      <c r="U12" s="73" t="s">
+      <c r="U12" s="83" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -1812,7 +1821,7 @@
       <c r="R13" s="11"/>
       <c r="S13" s="4"/>
       <c r="T13" s="13"/>
-      <c r="U13" s="74"/>
+      <c r="U13" s="84"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -1841,7 +1850,7 @@
       <c r="R14" s="43"/>
       <c r="S14" s="4"/>
       <c r="T14" s="13"/>
-      <c r="U14" s="74"/>
+      <c r="U14" s="84"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -1870,7 +1879,7 @@
       <c r="R15" s="43"/>
       <c r="S15" s="4"/>
       <c r="T15" s="16"/>
-      <c r="U15" s="74"/>
+      <c r="U15" s="84"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -1899,7 +1908,7 @@
       <c r="R16" s="43"/>
       <c r="S16" s="4"/>
       <c r="T16" s="16"/>
-      <c r="U16" s="75"/>
+      <c r="U16" s="85"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -3130,6 +3139,11 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="K4:L4"/>
     <mergeCell ref="O4:O5"/>
     <mergeCell ref="P4:P5"/>
@@ -3143,11 +3157,6 @@
     <mergeCell ref="B4:I4"/>
     <mergeCell ref="J4:J5"/>
     <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3191,43 +3200,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="78" t="s">
+      <c r="A1" s="75" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="78"/>
-      <c r="C1" s="78"/>
-      <c r="D1" s="78"/>
-      <c r="E1" s="78"/>
-      <c r="F1" s="78"/>
-      <c r="G1" s="78"/>
-      <c r="H1" s="78"/>
-      <c r="I1" s="78"/>
-      <c r="J1" s="78"/>
-      <c r="K1" s="78"/>
-      <c r="L1" s="78"/>
-      <c r="M1" s="78"/>
-      <c r="N1" s="78"/>
-      <c r="O1" s="78"/>
-      <c r="P1" s="78"/>
-      <c r="Q1" s="78"/>
-      <c r="R1" s="78"/>
-      <c r="S1" s="78"/>
-      <c r="T1" s="78"/>
-      <c r="U1" s="78"/>
-      <c r="V1" s="78"/>
+      <c r="B1" s="75"/>
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="75"/>
+      <c r="F1" s="75"/>
+      <c r="G1" s="75"/>
+      <c r="H1" s="75"/>
+      <c r="I1" s="75"/>
+      <c r="J1" s="75"/>
+      <c r="K1" s="75"/>
+      <c r="L1" s="75"/>
+      <c r="M1" s="75"/>
+      <c r="N1" s="75"/>
+      <c r="O1" s="75"/>
+      <c r="P1" s="75"/>
+      <c r="Q1" s="75"/>
+      <c r="R1" s="75"/>
+      <c r="S1" s="75"/>
+      <c r="T1" s="75"/>
+      <c r="U1" s="75"/>
+      <c r="V1" s="75"/>
       <c r="W1" s="55"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="81" t="s">
+      <c r="A2" s="78" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="82"/>
-      <c r="C2" s="82"/>
-      <c r="D2" s="82"/>
-      <c r="E2" s="83" t="s">
+      <c r="B2" s="79"/>
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="80" t="s">
         <v>61</v>
       </c>
-      <c r="F2" s="83"/>
+      <c r="F2" s="80"/>
       <c r="G2" s="6"/>
       <c r="H2" s="24"/>
       <c r="I2" s="24"/>
@@ -3272,58 +3281,58 @@
       <c r="W3" s="30"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="84" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="76" t="s">
+      <c r="A4" s="81" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="73" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="76"/>
-      <c r="D4" s="76"/>
-      <c r="E4" s="76"/>
-      <c r="F4" s="76"/>
-      <c r="G4" s="76"/>
-      <c r="H4" s="76"/>
-      <c r="I4" s="76"/>
-      <c r="J4" s="76" t="s">
+      <c r="C4" s="73"/>
+      <c r="D4" s="73"/>
+      <c r="E4" s="73"/>
+      <c r="F4" s="73"/>
+      <c r="G4" s="73"/>
+      <c r="H4" s="73"/>
+      <c r="I4" s="73"/>
+      <c r="J4" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="76" t="s">
+      <c r="K4" s="73" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="76"/>
-      <c r="M4" s="79" t="s">
+      <c r="L4" s="73"/>
+      <c r="M4" s="76" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="79" t="s">
+      <c r="N4" s="76" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="76" t="s">
+      <c r="O4" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="77" t="s">
+      <c r="P4" s="74" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="76" t="s">
+      <c r="Q4" s="73" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="76" t="s">
+      <c r="R4" s="73" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="85" t="s">
+      <c r="S4" s="82" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="30"/>
-      <c r="U4" s="76" t="s">
+      <c r="U4" s="73" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="76" t="s">
+      <c r="V4" s="73" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="56"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="84"/>
+      <c r="A5" s="81"/>
       <c r="B5" s="62" t="s">
         <v>1</v>
       </c>
@@ -3348,23 +3357,23 @@
       <c r="I5" s="62" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="76"/>
+      <c r="J5" s="73"/>
       <c r="K5" s="62" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="62" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="80"/>
-      <c r="N5" s="80"/>
-      <c r="O5" s="76"/>
-      <c r="P5" s="77"/>
-      <c r="Q5" s="76"/>
-      <c r="R5" s="76"/>
-      <c r="S5" s="85"/>
+      <c r="M5" s="77"/>
+      <c r="N5" s="77"/>
+      <c r="O5" s="73"/>
+      <c r="P5" s="74"/>
+      <c r="Q5" s="73"/>
+      <c r="R5" s="73"/>
+      <c r="S5" s="82"/>
       <c r="T5" s="30"/>
-      <c r="U5" s="76"/>
-      <c r="V5" s="76"/>
+      <c r="U5" s="73"/>
+      <c r="V5" s="73"/>
       <c r="W5" s="56"/>
     </row>
     <row r="6" spans="1:23" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3420,7 +3429,7 @@
       </c>
       <c r="S6" s="4"/>
       <c r="T6" s="61"/>
-      <c r="U6" s="73" t="s">
+      <c r="U6" s="83" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -3479,7 +3488,7 @@
       </c>
       <c r="S7" s="4"/>
       <c r="T7" s="61"/>
-      <c r="U7" s="74"/>
+      <c r="U7" s="84"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -3538,7 +3547,7 @@
       </c>
       <c r="S8" s="4"/>
       <c r="T8" s="61"/>
-      <c r="U8" s="74"/>
+      <c r="U8" s="84"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -3567,7 +3576,7 @@
       <c r="R9" s="43"/>
       <c r="S9" s="4"/>
       <c r="T9" s="61"/>
-      <c r="U9" s="74"/>
+      <c r="U9" s="84"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -3596,7 +3605,7 @@
       <c r="R10" s="43"/>
       <c r="S10" s="4"/>
       <c r="T10" s="61"/>
-      <c r="U10" s="74"/>
+      <c r="U10" s="84"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -3625,7 +3634,7 @@
       <c r="R11" s="43"/>
       <c r="S11" s="4"/>
       <c r="T11" s="61"/>
-      <c r="U11" s="74"/>
+      <c r="U11" s="84"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -3654,7 +3663,7 @@
       <c r="R12" s="43"/>
       <c r="S12" s="4"/>
       <c r="T12" s="61"/>
-      <c r="U12" s="73" t="s">
+      <c r="U12" s="83" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -3685,7 +3694,7 @@
       <c r="R13" s="11"/>
       <c r="S13" s="4"/>
       <c r="T13" s="61"/>
-      <c r="U13" s="74"/>
+      <c r="U13" s="84"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -3714,7 +3723,7 @@
       <c r="R14" s="43"/>
       <c r="S14" s="4"/>
       <c r="T14" s="61"/>
-      <c r="U14" s="74"/>
+      <c r="U14" s="84"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -3743,7 +3752,7 @@
       <c r="R15" s="43"/>
       <c r="S15" s="4"/>
       <c r="T15" s="16"/>
-      <c r="U15" s="74"/>
+      <c r="U15" s="84"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -3772,7 +3781,7 @@
       <c r="R16" s="43"/>
       <c r="S16" s="4"/>
       <c r="T16" s="16"/>
-      <c r="U16" s="75"/>
+      <c r="U16" s="85"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -5003,6 +5012,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -5014,13 +5030,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5064,43 +5073,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="78" t="s">
+      <c r="A1" s="75" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="78"/>
-      <c r="C1" s="78"/>
-      <c r="D1" s="78"/>
-      <c r="E1" s="78"/>
-      <c r="F1" s="78"/>
-      <c r="G1" s="78"/>
-      <c r="H1" s="78"/>
-      <c r="I1" s="78"/>
-      <c r="J1" s="78"/>
-      <c r="K1" s="78"/>
-      <c r="L1" s="78"/>
-      <c r="M1" s="78"/>
-      <c r="N1" s="78"/>
-      <c r="O1" s="78"/>
-      <c r="P1" s="78"/>
-      <c r="Q1" s="78"/>
-      <c r="R1" s="78"/>
-      <c r="S1" s="78"/>
-      <c r="T1" s="78"/>
-      <c r="U1" s="78"/>
-      <c r="V1" s="78"/>
+      <c r="B1" s="75"/>
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="75"/>
+      <c r="F1" s="75"/>
+      <c r="G1" s="75"/>
+      <c r="H1" s="75"/>
+      <c r="I1" s="75"/>
+      <c r="J1" s="75"/>
+      <c r="K1" s="75"/>
+      <c r="L1" s="75"/>
+      <c r="M1" s="75"/>
+      <c r="N1" s="75"/>
+      <c r="O1" s="75"/>
+      <c r="P1" s="75"/>
+      <c r="Q1" s="75"/>
+      <c r="R1" s="75"/>
+      <c r="S1" s="75"/>
+      <c r="T1" s="75"/>
+      <c r="U1" s="75"/>
+      <c r="V1" s="75"/>
       <c r="W1" s="55"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="81" t="s">
+      <c r="A2" s="78" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="82"/>
-      <c r="C2" s="82"/>
-      <c r="D2" s="82"/>
-      <c r="E2" s="83" t="s">
+      <c r="B2" s="79"/>
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="80" t="s">
         <v>61</v>
       </c>
-      <c r="F2" s="83"/>
+      <c r="F2" s="80"/>
       <c r="G2" s="6"/>
       <c r="H2" s="24"/>
       <c r="I2" s="24"/>
@@ -5145,58 +5154,58 @@
       <c r="W3" s="30"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="84" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="76" t="s">
+      <c r="A4" s="81" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="73" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="76"/>
-      <c r="D4" s="76"/>
-      <c r="E4" s="76"/>
-      <c r="F4" s="76"/>
-      <c r="G4" s="76"/>
-      <c r="H4" s="76"/>
-      <c r="I4" s="76"/>
-      <c r="J4" s="76" t="s">
+      <c r="C4" s="73"/>
+      <c r="D4" s="73"/>
+      <c r="E4" s="73"/>
+      <c r="F4" s="73"/>
+      <c r="G4" s="73"/>
+      <c r="H4" s="73"/>
+      <c r="I4" s="73"/>
+      <c r="J4" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="76" t="s">
+      <c r="K4" s="73" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="76"/>
-      <c r="M4" s="79" t="s">
+      <c r="L4" s="73"/>
+      <c r="M4" s="76" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="79" t="s">
+      <c r="N4" s="76" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="76" t="s">
+      <c r="O4" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="77" t="s">
+      <c r="P4" s="74" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="76" t="s">
+      <c r="Q4" s="73" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="76" t="s">
+      <c r="R4" s="73" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="85" t="s">
+      <c r="S4" s="82" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="30"/>
-      <c r="U4" s="76" t="s">
+      <c r="U4" s="73" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="76" t="s">
+      <c r="V4" s="73" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="56"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="84"/>
+      <c r="A5" s="81"/>
       <c r="B5" s="62" t="s">
         <v>1</v>
       </c>
@@ -5221,23 +5230,23 @@
       <c r="I5" s="62" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="76"/>
+      <c r="J5" s="73"/>
       <c r="K5" s="62" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="62" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="80"/>
-      <c r="N5" s="80"/>
-      <c r="O5" s="76"/>
-      <c r="P5" s="77"/>
-      <c r="Q5" s="76"/>
-      <c r="R5" s="76"/>
-      <c r="S5" s="85"/>
+      <c r="M5" s="77"/>
+      <c r="N5" s="77"/>
+      <c r="O5" s="73"/>
+      <c r="P5" s="74"/>
+      <c r="Q5" s="73"/>
+      <c r="R5" s="73"/>
+      <c r="S5" s="82"/>
       <c r="T5" s="30"/>
-      <c r="U5" s="76"/>
-      <c r="V5" s="76"/>
+      <c r="U5" s="73"/>
+      <c r="V5" s="73"/>
       <c r="W5" s="56"/>
     </row>
     <row r="6" spans="1:23" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -5291,7 +5300,7 @@
       </c>
       <c r="S6" s="4"/>
       <c r="T6" s="61"/>
-      <c r="U6" s="73" t="s">
+      <c r="U6" s="83" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -5322,7 +5331,7 @@
       <c r="R7" s="43"/>
       <c r="S7" s="4"/>
       <c r="T7" s="61"/>
-      <c r="U7" s="74"/>
+      <c r="U7" s="84"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -5351,7 +5360,7 @@
       <c r="R8" s="43"/>
       <c r="S8" s="4"/>
       <c r="T8" s="61"/>
-      <c r="U8" s="74"/>
+      <c r="U8" s="84"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -5380,7 +5389,7 @@
       <c r="R9" s="43"/>
       <c r="S9" s="4"/>
       <c r="T9" s="61"/>
-      <c r="U9" s="74"/>
+      <c r="U9" s="84"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -5409,7 +5418,7 @@
       <c r="R10" s="43"/>
       <c r="S10" s="4"/>
       <c r="T10" s="61"/>
-      <c r="U10" s="74"/>
+      <c r="U10" s="84"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -5438,7 +5447,7 @@
       <c r="R11" s="43"/>
       <c r="S11" s="4"/>
       <c r="T11" s="61"/>
-      <c r="U11" s="74"/>
+      <c r="U11" s="84"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -5467,7 +5476,7 @@
       <c r="R12" s="43"/>
       <c r="S12" s="4"/>
       <c r="T12" s="61"/>
-      <c r="U12" s="73" t="s">
+      <c r="U12" s="83" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -5498,7 +5507,7 @@
       <c r="R13" s="11"/>
       <c r="S13" s="4"/>
       <c r="T13" s="61"/>
-      <c r="U13" s="74"/>
+      <c r="U13" s="84"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -5527,7 +5536,7 @@
       <c r="R14" s="43"/>
       <c r="S14" s="4"/>
       <c r="T14" s="61"/>
-      <c r="U14" s="74"/>
+      <c r="U14" s="84"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -5556,7 +5565,7 @@
       <c r="R15" s="43"/>
       <c r="S15" s="4"/>
       <c r="T15" s="16"/>
-      <c r="U15" s="74"/>
+      <c r="U15" s="84"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -5585,7 +5594,7 @@
       <c r="R16" s="43"/>
       <c r="S16" s="4"/>
       <c r="T16" s="16"/>
-      <c r="U16" s="75"/>
+      <c r="U16" s="85"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -6816,6 +6825,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -6827,13 +6843,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -6877,43 +6886,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="78" t="s">
+      <c r="A1" s="75" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="78"/>
-      <c r="C1" s="78"/>
-      <c r="D1" s="78"/>
-      <c r="E1" s="78"/>
-      <c r="F1" s="78"/>
-      <c r="G1" s="78"/>
-      <c r="H1" s="78"/>
-      <c r="I1" s="78"/>
-      <c r="J1" s="78"/>
-      <c r="K1" s="78"/>
-      <c r="L1" s="78"/>
-      <c r="M1" s="78"/>
-      <c r="N1" s="78"/>
-      <c r="O1" s="78"/>
-      <c r="P1" s="78"/>
-      <c r="Q1" s="78"/>
-      <c r="R1" s="78"/>
-      <c r="S1" s="78"/>
-      <c r="T1" s="78"/>
-      <c r="U1" s="78"/>
-      <c r="V1" s="78"/>
+      <c r="B1" s="75"/>
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="75"/>
+      <c r="F1" s="75"/>
+      <c r="G1" s="75"/>
+      <c r="H1" s="75"/>
+      <c r="I1" s="75"/>
+      <c r="J1" s="75"/>
+      <c r="K1" s="75"/>
+      <c r="L1" s="75"/>
+      <c r="M1" s="75"/>
+      <c r="N1" s="75"/>
+      <c r="O1" s="75"/>
+      <c r="P1" s="75"/>
+      <c r="Q1" s="75"/>
+      <c r="R1" s="75"/>
+      <c r="S1" s="75"/>
+      <c r="T1" s="75"/>
+      <c r="U1" s="75"/>
+      <c r="V1" s="75"/>
       <c r="W1" s="55"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="81" t="s">
+      <c r="A2" s="78" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="82"/>
-      <c r="C2" s="82"/>
-      <c r="D2" s="82"/>
-      <c r="E2" s="83" t="s">
+      <c r="B2" s="79"/>
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="80" t="s">
         <v>61</v>
       </c>
-      <c r="F2" s="83"/>
+      <c r="F2" s="80"/>
       <c r="G2" s="6"/>
       <c r="H2" s="24"/>
       <c r="I2" s="24"/>
@@ -6958,58 +6967,58 @@
       <c r="W3" s="30"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="84" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="76" t="s">
+      <c r="A4" s="81" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="73" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="76"/>
-      <c r="D4" s="76"/>
-      <c r="E4" s="76"/>
-      <c r="F4" s="76"/>
-      <c r="G4" s="76"/>
-      <c r="H4" s="76"/>
-      <c r="I4" s="76"/>
-      <c r="J4" s="76" t="s">
+      <c r="C4" s="73"/>
+      <c r="D4" s="73"/>
+      <c r="E4" s="73"/>
+      <c r="F4" s="73"/>
+      <c r="G4" s="73"/>
+      <c r="H4" s="73"/>
+      <c r="I4" s="73"/>
+      <c r="J4" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="76" t="s">
+      <c r="K4" s="73" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="76"/>
-      <c r="M4" s="79" t="s">
+      <c r="L4" s="73"/>
+      <c r="M4" s="76" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="79" t="s">
+      <c r="N4" s="76" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="76" t="s">
+      <c r="O4" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="77" t="s">
+      <c r="P4" s="74" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="76" t="s">
+      <c r="Q4" s="73" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="76" t="s">
+      <c r="R4" s="73" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="85" t="s">
+      <c r="S4" s="82" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="30"/>
-      <c r="U4" s="76" t="s">
+      <c r="U4" s="73" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="76" t="s">
+      <c r="V4" s="73" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="56"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="84"/>
+      <c r="A5" s="81"/>
       <c r="B5" s="53" t="s">
         <v>1</v>
       </c>
@@ -7034,23 +7043,23 @@
       <c r="I5" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="76"/>
+      <c r="J5" s="73"/>
       <c r="K5" s="53" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="80"/>
-      <c r="N5" s="80"/>
-      <c r="O5" s="76"/>
-      <c r="P5" s="77"/>
-      <c r="Q5" s="76"/>
-      <c r="R5" s="76"/>
-      <c r="S5" s="85"/>
+      <c r="M5" s="77"/>
+      <c r="N5" s="77"/>
+      <c r="O5" s="73"/>
+      <c r="P5" s="74"/>
+      <c r="Q5" s="73"/>
+      <c r="R5" s="73"/>
+      <c r="S5" s="82"/>
       <c r="T5" s="30"/>
-      <c r="U5" s="76"/>
-      <c r="V5" s="76"/>
+      <c r="U5" s="73"/>
+      <c r="V5" s="73"/>
       <c r="W5" s="56"/>
     </row>
     <row r="6" spans="1:23" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -7102,7 +7111,7 @@
       </c>
       <c r="S6" s="4"/>
       <c r="T6" s="52"/>
-      <c r="U6" s="73" t="s">
+      <c r="U6" s="83" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -7155,7 +7164,7 @@
       </c>
       <c r="S7" s="4"/>
       <c r="T7" s="52"/>
-      <c r="U7" s="74"/>
+      <c r="U7" s="84"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -7210,7 +7219,7 @@
       </c>
       <c r="S8" s="4"/>
       <c r="T8" s="52"/>
-      <c r="U8" s="74"/>
+      <c r="U8" s="84"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -7261,7 +7270,7 @@
       </c>
       <c r="S9" s="64"/>
       <c r="T9" s="52"/>
-      <c r="U9" s="74"/>
+      <c r="U9" s="84"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -7316,7 +7325,7 @@
       </c>
       <c r="S10" s="4"/>
       <c r="T10" s="52"/>
-      <c r="U10" s="74"/>
+      <c r="U10" s="84"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -7371,7 +7380,7 @@
       </c>
       <c r="S11" s="4"/>
       <c r="T11" s="52"/>
-      <c r="U11" s="74"/>
+      <c r="U11" s="84"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -7426,7 +7435,7 @@
       </c>
       <c r="S12" s="4"/>
       <c r="T12" s="52"/>
-      <c r="U12" s="73" t="s">
+      <c r="U12" s="83" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -7457,7 +7466,7 @@
       <c r="R13" s="11"/>
       <c r="S13" s="4"/>
       <c r="T13" s="52"/>
-      <c r="U13" s="74"/>
+      <c r="U13" s="84"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -7486,7 +7495,7 @@
       <c r="R14" s="43"/>
       <c r="S14" s="4"/>
       <c r="T14" s="52"/>
-      <c r="U14" s="74"/>
+      <c r="U14" s="84"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -7515,7 +7524,7 @@
       <c r="R15" s="43"/>
       <c r="S15" s="4"/>
       <c r="T15" s="16"/>
-      <c r="U15" s="74"/>
+      <c r="U15" s="84"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -7544,7 +7553,7 @@
       <c r="R16" s="43"/>
       <c r="S16" s="4"/>
       <c r="T16" s="16"/>
-      <c r="U16" s="75"/>
+      <c r="U16" s="85"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -8775,6 +8784,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -8786,13 +8802,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -8836,43 +8845,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="78" t="s">
+      <c r="A1" s="75" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="78"/>
-      <c r="C1" s="78"/>
-      <c r="D1" s="78"/>
-      <c r="E1" s="78"/>
-      <c r="F1" s="78"/>
-      <c r="G1" s="78"/>
-      <c r="H1" s="78"/>
-      <c r="I1" s="78"/>
-      <c r="J1" s="78"/>
-      <c r="K1" s="78"/>
-      <c r="L1" s="78"/>
-      <c r="M1" s="78"/>
-      <c r="N1" s="78"/>
-      <c r="O1" s="78"/>
-      <c r="P1" s="78"/>
-      <c r="Q1" s="78"/>
-      <c r="R1" s="78"/>
-      <c r="S1" s="78"/>
-      <c r="T1" s="78"/>
-      <c r="U1" s="78"/>
-      <c r="V1" s="78"/>
+      <c r="B1" s="75"/>
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="75"/>
+      <c r="F1" s="75"/>
+      <c r="G1" s="75"/>
+      <c r="H1" s="75"/>
+      <c r="I1" s="75"/>
+      <c r="J1" s="75"/>
+      <c r="K1" s="75"/>
+      <c r="L1" s="75"/>
+      <c r="M1" s="75"/>
+      <c r="N1" s="75"/>
+      <c r="O1" s="75"/>
+      <c r="P1" s="75"/>
+      <c r="Q1" s="75"/>
+      <c r="R1" s="75"/>
+      <c r="S1" s="75"/>
+      <c r="T1" s="75"/>
+      <c r="U1" s="75"/>
+      <c r="V1" s="75"/>
       <c r="W1" s="55"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="81" t="s">
+      <c r="A2" s="78" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="82"/>
-      <c r="C2" s="82"/>
-      <c r="D2" s="82"/>
-      <c r="E2" s="83" t="s">
+      <c r="B2" s="79"/>
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="80" t="s">
         <v>61</v>
       </c>
-      <c r="F2" s="83"/>
+      <c r="F2" s="80"/>
       <c r="G2" s="6"/>
       <c r="H2" s="24"/>
       <c r="I2" s="24"/>
@@ -8917,58 +8926,58 @@
       <c r="W3" s="30"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="84" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="76" t="s">
+      <c r="A4" s="81" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="73" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="76"/>
-      <c r="D4" s="76"/>
-      <c r="E4" s="76"/>
-      <c r="F4" s="76"/>
-      <c r="G4" s="76"/>
-      <c r="H4" s="76"/>
-      <c r="I4" s="76"/>
-      <c r="J4" s="76" t="s">
+      <c r="C4" s="73"/>
+      <c r="D4" s="73"/>
+      <c r="E4" s="73"/>
+      <c r="F4" s="73"/>
+      <c r="G4" s="73"/>
+      <c r="H4" s="73"/>
+      <c r="I4" s="73"/>
+      <c r="J4" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="76" t="s">
+      <c r="K4" s="73" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="76"/>
-      <c r="M4" s="79" t="s">
+      <c r="L4" s="73"/>
+      <c r="M4" s="76" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="79" t="s">
+      <c r="N4" s="76" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="76" t="s">
+      <c r="O4" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="77" t="s">
+      <c r="P4" s="74" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="76" t="s">
+      <c r="Q4" s="73" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="76" t="s">
+      <c r="R4" s="73" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="85" t="s">
+      <c r="S4" s="82" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="30"/>
-      <c r="U4" s="76" t="s">
+      <c r="U4" s="73" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="76" t="s">
+      <c r="V4" s="73" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="56"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="84"/>
+      <c r="A5" s="81"/>
       <c r="B5" s="50" t="s">
         <v>1</v>
       </c>
@@ -8993,23 +9002,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="76"/>
+      <c r="J5" s="73"/>
       <c r="K5" s="50" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="80"/>
-      <c r="N5" s="80"/>
-      <c r="O5" s="76"/>
-      <c r="P5" s="77"/>
-      <c r="Q5" s="76"/>
-      <c r="R5" s="76"/>
-      <c r="S5" s="85"/>
+      <c r="M5" s="77"/>
+      <c r="N5" s="77"/>
+      <c r="O5" s="73"/>
+      <c r="P5" s="74"/>
+      <c r="Q5" s="73"/>
+      <c r="R5" s="73"/>
+      <c r="S5" s="82"/>
       <c r="T5" s="30"/>
-      <c r="U5" s="76"/>
-      <c r="V5" s="76"/>
+      <c r="U5" s="73"/>
+      <c r="V5" s="73"/>
       <c r="W5" s="56"/>
     </row>
     <row r="6" spans="1:23" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -9067,7 +9076,7 @@
       </c>
       <c r="S6" s="64"/>
       <c r="T6" s="49"/>
-      <c r="U6" s="73" t="s">
+      <c r="U6" s="83" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -9126,7 +9135,7 @@
       </c>
       <c r="S7" s="4"/>
       <c r="T7" s="49"/>
-      <c r="U7" s="74"/>
+      <c r="U7" s="84"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -9185,7 +9194,7 @@
       </c>
       <c r="S8" s="4"/>
       <c r="T8" s="49"/>
-      <c r="U8" s="74"/>
+      <c r="U8" s="84"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -9244,7 +9253,7 @@
       </c>
       <c r="S9" s="4"/>
       <c r="T9" s="49"/>
-      <c r="U9" s="74"/>
+      <c r="U9" s="84"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -9301,7 +9310,7 @@
       </c>
       <c r="S10" s="4"/>
       <c r="T10" s="49"/>
-      <c r="U10" s="74"/>
+      <c r="U10" s="84"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -9330,7 +9339,7 @@
       <c r="R11" s="43"/>
       <c r="S11" s="4"/>
       <c r="T11" s="49"/>
-      <c r="U11" s="74"/>
+      <c r="U11" s="84"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -9359,7 +9368,7 @@
       <c r="R12" s="43"/>
       <c r="S12" s="4"/>
       <c r="T12" s="49"/>
-      <c r="U12" s="73" t="s">
+      <c r="U12" s="83" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -9390,7 +9399,7 @@
       <c r="R13" s="11"/>
       <c r="S13" s="4"/>
       <c r="T13" s="49"/>
-      <c r="U13" s="74"/>
+      <c r="U13" s="84"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -9419,7 +9428,7 @@
       <c r="R14" s="43"/>
       <c r="S14" s="4"/>
       <c r="T14" s="49"/>
-      <c r="U14" s="74"/>
+      <c r="U14" s="84"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -9448,7 +9457,7 @@
       <c r="R15" s="43"/>
       <c r="S15" s="4"/>
       <c r="T15" s="16"/>
-      <c r="U15" s="74"/>
+      <c r="U15" s="84"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -9477,7 +9486,7 @@
       <c r="R16" s="43"/>
       <c r="S16" s="4"/>
       <c r="T16" s="16"/>
-      <c r="U16" s="75"/>
+      <c r="U16" s="85"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -10708,13 +10717,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -10726,6 +10728,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -10736,8 +10745,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView showZeros="0" tabSelected="1" topLeftCell="A5" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K33" sqref="K33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -10769,43 +10778,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="78" t="s">
+      <c r="A1" s="75" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="78"/>
-      <c r="C1" s="78"/>
-      <c r="D1" s="78"/>
-      <c r="E1" s="78"/>
-      <c r="F1" s="78"/>
-      <c r="G1" s="78"/>
-      <c r="H1" s="78"/>
-      <c r="I1" s="78"/>
-      <c r="J1" s="78"/>
-      <c r="K1" s="78"/>
-      <c r="L1" s="78"/>
-      <c r="M1" s="78"/>
-      <c r="N1" s="78"/>
-      <c r="O1" s="78"/>
-      <c r="P1" s="78"/>
-      <c r="Q1" s="78"/>
-      <c r="R1" s="78"/>
-      <c r="S1" s="78"/>
-      <c r="T1" s="78"/>
-      <c r="U1" s="78"/>
-      <c r="V1" s="78"/>
+      <c r="B1" s="75"/>
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="75"/>
+      <c r="F1" s="75"/>
+      <c r="G1" s="75"/>
+      <c r="H1" s="75"/>
+      <c r="I1" s="75"/>
+      <c r="J1" s="75"/>
+      <c r="K1" s="75"/>
+      <c r="L1" s="75"/>
+      <c r="M1" s="75"/>
+      <c r="N1" s="75"/>
+      <c r="O1" s="75"/>
+      <c r="P1" s="75"/>
+      <c r="Q1" s="75"/>
+      <c r="R1" s="75"/>
+      <c r="S1" s="75"/>
+      <c r="T1" s="75"/>
+      <c r="U1" s="75"/>
+      <c r="V1" s="75"/>
       <c r="W1" s="55"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="81" t="s">
+      <c r="A2" s="78" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="82"/>
-      <c r="C2" s="82"/>
-      <c r="D2" s="82"/>
-      <c r="E2" s="83" t="s">
+      <c r="B2" s="79"/>
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="80" t="s">
         <v>61</v>
       </c>
-      <c r="F2" s="83"/>
+      <c r="F2" s="80"/>
       <c r="G2" s="6"/>
       <c r="H2" s="24"/>
       <c r="I2" s="24"/>
@@ -10850,58 +10859,58 @@
       <c r="W3" s="30"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="84" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="76" t="s">
+      <c r="A4" s="81" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="73" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="76"/>
-      <c r="D4" s="76"/>
-      <c r="E4" s="76"/>
-      <c r="F4" s="76"/>
-      <c r="G4" s="76"/>
-      <c r="H4" s="76"/>
-      <c r="I4" s="76"/>
-      <c r="J4" s="76" t="s">
+      <c r="C4" s="73"/>
+      <c r="D4" s="73"/>
+      <c r="E4" s="73"/>
+      <c r="F4" s="73"/>
+      <c r="G4" s="73"/>
+      <c r="H4" s="73"/>
+      <c r="I4" s="73"/>
+      <c r="J4" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="76" t="s">
+      <c r="K4" s="73" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="76"/>
-      <c r="M4" s="79" t="s">
+      <c r="L4" s="73"/>
+      <c r="M4" s="76" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="79" t="s">
+      <c r="N4" s="76" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="76" t="s">
+      <c r="O4" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="77" t="s">
+      <c r="P4" s="74" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="76" t="s">
+      <c r="Q4" s="73" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="76" t="s">
+      <c r="R4" s="73" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="85" t="s">
+      <c r="S4" s="82" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="30"/>
-      <c r="U4" s="76" t="s">
+      <c r="U4" s="73" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="76" t="s">
+      <c r="V4" s="73" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="56"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="84"/>
+      <c r="A5" s="81"/>
       <c r="B5" s="50" t="s">
         <v>1</v>
       </c>
@@ -10926,23 +10935,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="76"/>
+      <c r="J5" s="73"/>
       <c r="K5" s="50" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="80"/>
-      <c r="N5" s="80"/>
-      <c r="O5" s="76"/>
-      <c r="P5" s="77"/>
-      <c r="Q5" s="76"/>
-      <c r="R5" s="76"/>
-      <c r="S5" s="85"/>
+      <c r="M5" s="77"/>
+      <c r="N5" s="77"/>
+      <c r="O5" s="73"/>
+      <c r="P5" s="74"/>
+      <c r="Q5" s="73"/>
+      <c r="R5" s="73"/>
+      <c r="S5" s="82"/>
       <c r="T5" s="30"/>
-      <c r="U5" s="76"/>
-      <c r="V5" s="76"/>
+      <c r="U5" s="73"/>
+      <c r="V5" s="73"/>
       <c r="W5" s="56"/>
     </row>
     <row r="6" spans="1:23" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -10963,7 +10972,9 @@
       <c r="G6" s="66" t="s">
         <v>63</v>
       </c>
-      <c r="H6" s="66"/>
+      <c r="H6" s="66" t="s">
+        <v>135</v>
+      </c>
       <c r="I6" s="68" t="s">
         <v>84</v>
       </c>
@@ -10973,24 +10984,28 @@
       <c r="K6" s="66" t="s">
         <v>76</v>
       </c>
-      <c r="L6" s="66"/>
+      <c r="L6" s="45" t="s">
+        <v>79</v>
+      </c>
       <c r="M6" s="66" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="N6" s="69"/>
-      <c r="O6" s="66"/>
+      <c r="O6" s="66" t="s">
+        <v>132</v>
+      </c>
       <c r="P6" s="66" t="s">
         <v>72</v>
       </c>
       <c r="Q6" s="70" t="s">
-        <v>18</v>
+        <v>81</v>
       </c>
       <c r="R6" s="66" t="s">
-        <v>35</v>
+        <v>137</v>
       </c>
       <c r="S6" s="64"/>
       <c r="T6" s="49"/>
-      <c r="U6" s="73" t="s">
+      <c r="U6" s="83" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -11049,7 +11064,7 @@
       </c>
       <c r="S7" s="4"/>
       <c r="T7" s="49"/>
-      <c r="U7" s="74"/>
+      <c r="U7" s="84"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -11106,7 +11121,7 @@
       </c>
       <c r="S8" s="4"/>
       <c r="T8" s="49"/>
-      <c r="U8" s="74"/>
+      <c r="U8" s="84"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -11163,7 +11178,7 @@
       </c>
       <c r="S9" s="4"/>
       <c r="T9" s="49"/>
-      <c r="U9" s="74"/>
+      <c r="U9" s="84"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -11220,7 +11235,7 @@
       </c>
       <c r="S10" s="4"/>
       <c r="T10" s="49"/>
-      <c r="U10" s="74"/>
+      <c r="U10" s="84"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -11275,7 +11290,7 @@
       </c>
       <c r="S11" s="4"/>
       <c r="T11" s="49"/>
-      <c r="U11" s="74"/>
+      <c r="U11" s="84"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -11334,7 +11349,7 @@
       </c>
       <c r="S12" s="4"/>
       <c r="T12" s="49"/>
-      <c r="U12" s="73" t="s">
+      <c r="U12" s="83" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -11393,7 +11408,7 @@
       </c>
       <c r="S13" s="4"/>
       <c r="T13" s="49"/>
-      <c r="U13" s="74"/>
+      <c r="U13" s="84"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -11452,7 +11467,7 @@
       </c>
       <c r="S14" s="4"/>
       <c r="T14" s="49"/>
-      <c r="U14" s="74"/>
+      <c r="U14" s="84"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -11509,7 +11524,7 @@
       </c>
       <c r="S15" s="4"/>
       <c r="T15" s="16"/>
-      <c r="U15" s="74"/>
+      <c r="U15" s="84"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -11564,7 +11579,7 @@
       </c>
       <c r="S16" s="4"/>
       <c r="T16" s="16"/>
-      <c r="U16" s="75"/>
+      <c r="U16" s="85"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -11837,7 +11852,7 @@
       </c>
       <c r="V21" s="11">
         <f>COUNTIF($Q$6:$Q$51,"PC")</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="W21" s="16"/>
     </row>
@@ -11895,7 +11910,7 @@
       </c>
       <c r="V22" s="11">
         <f>COUNTIF($Q$6:$Q$51,"PC+PM")</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="W22" s="16"/>
     </row>
@@ -12448,7 +12463,7 @@
       </c>
       <c r="V35" s="11">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="W35" s="16"/>
     </row>
@@ -12512,7 +12527,7 @@
       </c>
       <c r="V37" s="11">
         <f>SUM(V26:V36)</f>
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="W37" s="16"/>
     </row>
@@ -13091,13 +13106,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -13109,6 +13117,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang3/02.XuLyBH/XLBH2103 _GPSGlobal.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang3/02.XuLyBH/XLBH2103 _GPSGlobal.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065" activeTab="5"/>
+    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065"/>
   </bookViews>
   <sheets>
     <sheet name="TG102LE" sheetId="19" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="967" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="970" uniqueCount="137">
   <si>
     <t>STT</t>
   </si>
@@ -445,9 +445,6 @@
   </si>
   <si>
     <t>19/03/2021</t>
-  </si>
-  <si>
-    <t>Thay module  GSM/GPS (thiếu linh kiện giữ lại)</t>
   </si>
   <si>
     <t>Imei mới: 868183033791331</t>
@@ -659,7 +656,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="86">
+  <cellXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -877,6 +874,15 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -907,14 +913,8 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="1" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1222,8 +1222,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" topLeftCell="L2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:S11"/>
+    <sheetView showZeros="0" tabSelected="1" topLeftCell="H2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1255,43 +1255,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="75" t="s">
+      <c r="A1" s="78" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="75"/>
-      <c r="C1" s="75"/>
-      <c r="D1" s="75"/>
-      <c r="E1" s="75"/>
-      <c r="F1" s="75"/>
-      <c r="G1" s="75"/>
-      <c r="H1" s="75"/>
-      <c r="I1" s="75"/>
-      <c r="J1" s="75"/>
-      <c r="K1" s="75"/>
-      <c r="L1" s="75"/>
-      <c r="M1" s="75"/>
-      <c r="N1" s="75"/>
-      <c r="O1" s="75"/>
-      <c r="P1" s="75"/>
-      <c r="Q1" s="75"/>
-      <c r="R1" s="75"/>
-      <c r="S1" s="75"/>
-      <c r="T1" s="75"/>
-      <c r="U1" s="75"/>
-      <c r="V1" s="75"/>
+      <c r="B1" s="78"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="78"/>
+      <c r="F1" s="78"/>
+      <c r="G1" s="78"/>
+      <c r="H1" s="78"/>
+      <c r="I1" s="78"/>
+      <c r="J1" s="78"/>
+      <c r="K1" s="78"/>
+      <c r="L1" s="78"/>
+      <c r="M1" s="78"/>
+      <c r="N1" s="78"/>
+      <c r="O1" s="78"/>
+      <c r="P1" s="78"/>
+      <c r="Q1" s="78"/>
+      <c r="R1" s="78"/>
+      <c r="S1" s="78"/>
+      <c r="T1" s="78"/>
+      <c r="U1" s="78"/>
+      <c r="V1" s="78"/>
       <c r="W1" s="55"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="78" t="s">
+      <c r="A2" s="81" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="79"/>
-      <c r="C2" s="79"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="80" t="s">
+      <c r="B2" s="82"/>
+      <c r="C2" s="82"/>
+      <c r="D2" s="82"/>
+      <c r="E2" s="83" t="s">
         <v>61</v>
       </c>
-      <c r="F2" s="80"/>
+      <c r="F2" s="83"/>
       <c r="G2" s="6"/>
       <c r="H2" s="24"/>
       <c r="I2" s="24"/>
@@ -1336,58 +1336,58 @@
       <c r="W3" s="30"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="81" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="73" t="s">
+      <c r="A4" s="84" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="76" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="73"/>
-      <c r="D4" s="73"/>
-      <c r="E4" s="73"/>
-      <c r="F4" s="73"/>
-      <c r="G4" s="73"/>
-      <c r="H4" s="73"/>
-      <c r="I4" s="73"/>
-      <c r="J4" s="73" t="s">
+      <c r="C4" s="76"/>
+      <c r="D4" s="76"/>
+      <c r="E4" s="76"/>
+      <c r="F4" s="76"/>
+      <c r="G4" s="76"/>
+      <c r="H4" s="76"/>
+      <c r="I4" s="76"/>
+      <c r="J4" s="76" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="73" t="s">
+      <c r="K4" s="76" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="73"/>
-      <c r="M4" s="76" t="s">
+      <c r="L4" s="76"/>
+      <c r="M4" s="79" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="76" t="s">
+      <c r="N4" s="79" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="73" t="s">
+      <c r="O4" s="76" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="74" t="s">
+      <c r="P4" s="77" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="73" t="s">
+      <c r="Q4" s="76" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="73" t="s">
+      <c r="R4" s="76" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="82" t="s">
+      <c r="S4" s="85" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="30"/>
-      <c r="U4" s="73" t="s">
+      <c r="U4" s="76" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="73" t="s">
+      <c r="V4" s="76" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="56"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="81"/>
+      <c r="A5" s="84"/>
       <c r="B5" s="5" t="s">
         <v>1</v>
       </c>
@@ -1412,71 +1412,79 @@
       <c r="I5" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="73"/>
+      <c r="J5" s="76"/>
       <c r="K5" s="5" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="77"/>
-      <c r="N5" s="77"/>
-      <c r="O5" s="73"/>
-      <c r="P5" s="74"/>
-      <c r="Q5" s="73"/>
-      <c r="R5" s="73"/>
-      <c r="S5" s="82"/>
+      <c r="M5" s="80"/>
+      <c r="N5" s="80"/>
+      <c r="O5" s="76"/>
+      <c r="P5" s="77"/>
+      <c r="Q5" s="76"/>
+      <c r="R5" s="76"/>
+      <c r="S5" s="85"/>
       <c r="T5" s="30"/>
-      <c r="U5" s="73"/>
-      <c r="V5" s="73"/>
+      <c r="U5" s="76"/>
+      <c r="V5" s="76"/>
       <c r="W5" s="56"/>
     </row>
     <row r="6" spans="1:23" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="64">
+      <c r="A6" s="1">
         <v>1</v>
       </c>
-      <c r="B6" s="65" t="s">
+      <c r="B6" s="42" t="s">
         <v>65</v>
       </c>
-      <c r="C6" s="65"/>
-      <c r="D6" s="66" t="s">
+      <c r="C6" s="42">
+        <v>44343</v>
+      </c>
+      <c r="D6" s="45" t="s">
         <v>44</v>
       </c>
-      <c r="E6" s="71">
+      <c r="E6" s="86">
         <v>868183034803952</v>
       </c>
-      <c r="F6" s="66"/>
-      <c r="G6" s="66" t="s">
+      <c r="F6" s="45"/>
+      <c r="G6" s="45" t="s">
         <v>63</v>
       </c>
-      <c r="H6" s="66"/>
-      <c r="I6" s="68" t="s">
+      <c r="H6" s="45" t="s">
+        <v>134</v>
+      </c>
+      <c r="I6" s="60" t="s">
         <v>84</v>
       </c>
-      <c r="J6" s="66" t="s">
+      <c r="J6" s="45" t="s">
         <v>34</v>
       </c>
-      <c r="K6" s="66" t="s">
+      <c r="K6" s="45" t="s">
         <v>76</v>
       </c>
-      <c r="L6" s="66"/>
-      <c r="M6" s="66" t="s">
-        <v>134</v>
-      </c>
-      <c r="N6" s="69"/>
-      <c r="O6" s="66"/>
-      <c r="P6" s="66" t="s">
+      <c r="L6" s="45" t="s">
+        <v>79</v>
+      </c>
+      <c r="M6" s="45" t="s">
+        <v>135</v>
+      </c>
+      <c r="N6" s="47"/>
+      <c r="O6" s="45" t="s">
+        <v>132</v>
+      </c>
+      <c r="P6" s="45" t="s">
         <v>72</v>
       </c>
-      <c r="Q6" s="70" t="s">
-        <v>18</v>
-      </c>
-      <c r="R6" s="66" t="s">
-        <v>35</v>
-      </c>
-      <c r="S6" s="64"/>
+      <c r="Q6" s="63" t="s">
+        <v>81</v>
+      </c>
+      <c r="R6" s="45" t="s">
+        <v>136</v>
+      </c>
+      <c r="S6" s="1"/>
       <c r="T6" s="13"/>
-      <c r="U6" s="83" t="s">
+      <c r="U6" s="73" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -1535,7 +1543,7 @@
       </c>
       <c r="S7" s="4"/>
       <c r="T7" s="13"/>
-      <c r="U7" s="84"/>
+      <c r="U7" s="74"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -1592,7 +1600,7 @@
       </c>
       <c r="S8" s="4"/>
       <c r="T8" s="13"/>
-      <c r="U8" s="84"/>
+      <c r="U8" s="74"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -1649,7 +1657,7 @@
       </c>
       <c r="S9" s="4"/>
       <c r="T9" s="23"/>
-      <c r="U9" s="84"/>
+      <c r="U9" s="74"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -1706,7 +1714,7 @@
       </c>
       <c r="S10" s="4"/>
       <c r="T10" s="32"/>
-      <c r="U10" s="84"/>
+      <c r="U10" s="74"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -1761,7 +1769,7 @@
       </c>
       <c r="S11" s="4"/>
       <c r="T11" s="13"/>
-      <c r="U11" s="84"/>
+      <c r="U11" s="74"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -1790,7 +1798,7 @@
       <c r="R12" s="43"/>
       <c r="S12" s="4"/>
       <c r="T12" s="13"/>
-      <c r="U12" s="83" t="s">
+      <c r="U12" s="73" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -1821,7 +1829,7 @@
       <c r="R13" s="11"/>
       <c r="S13" s="4"/>
       <c r="T13" s="13"/>
-      <c r="U13" s="84"/>
+      <c r="U13" s="74"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -1850,7 +1858,7 @@
       <c r="R14" s="43"/>
       <c r="S14" s="4"/>
       <c r="T14" s="13"/>
-      <c r="U14" s="84"/>
+      <c r="U14" s="74"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -1879,7 +1887,7 @@
       <c r="R15" s="43"/>
       <c r="S15" s="4"/>
       <c r="T15" s="16"/>
-      <c r="U15" s="84"/>
+      <c r="U15" s="74"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -1908,7 +1916,7 @@
       <c r="R16" s="43"/>
       <c r="S16" s="4"/>
       <c r="T16" s="16"/>
-      <c r="U16" s="85"/>
+      <c r="U16" s="75"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -2059,7 +2067,7 @@
       </c>
       <c r="V21" s="11">
         <f>COUNTIF($Q$6:$Q$51,"PC")</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W21" s="16"/>
     </row>
@@ -2091,7 +2099,7 @@
       </c>
       <c r="V22" s="11">
         <f>COUNTIF($Q$6:$Q$51,"PC+PM")</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="W22" s="16"/>
     </row>
@@ -2496,7 +2504,7 @@
       </c>
       <c r="V35" s="11">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="W35" s="16"/>
     </row>
@@ -2560,7 +2568,7 @@
       </c>
       <c r="V37" s="11">
         <f>SUM(V26:V36)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="W37" s="16"/>
     </row>
@@ -3139,11 +3147,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="K4:L4"/>
     <mergeCell ref="O4:O5"/>
     <mergeCell ref="P4:P5"/>
@@ -3157,6 +3160,11 @@
     <mergeCell ref="B4:I4"/>
     <mergeCell ref="J4:J5"/>
     <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3200,43 +3208,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="75" t="s">
+      <c r="A1" s="78" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="75"/>
-      <c r="C1" s="75"/>
-      <c r="D1" s="75"/>
-      <c r="E1" s="75"/>
-      <c r="F1" s="75"/>
-      <c r="G1" s="75"/>
-      <c r="H1" s="75"/>
-      <c r="I1" s="75"/>
-      <c r="J1" s="75"/>
-      <c r="K1" s="75"/>
-      <c r="L1" s="75"/>
-      <c r="M1" s="75"/>
-      <c r="N1" s="75"/>
-      <c r="O1" s="75"/>
-      <c r="P1" s="75"/>
-      <c r="Q1" s="75"/>
-      <c r="R1" s="75"/>
-      <c r="S1" s="75"/>
-      <c r="T1" s="75"/>
-      <c r="U1" s="75"/>
-      <c r="V1" s="75"/>
+      <c r="B1" s="78"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="78"/>
+      <c r="F1" s="78"/>
+      <c r="G1" s="78"/>
+      <c r="H1" s="78"/>
+      <c r="I1" s="78"/>
+      <c r="J1" s="78"/>
+      <c r="K1" s="78"/>
+      <c r="L1" s="78"/>
+      <c r="M1" s="78"/>
+      <c r="N1" s="78"/>
+      <c r="O1" s="78"/>
+      <c r="P1" s="78"/>
+      <c r="Q1" s="78"/>
+      <c r="R1" s="78"/>
+      <c r="S1" s="78"/>
+      <c r="T1" s="78"/>
+      <c r="U1" s="78"/>
+      <c r="V1" s="78"/>
       <c r="W1" s="55"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="78" t="s">
+      <c r="A2" s="81" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="79"/>
-      <c r="C2" s="79"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="80" t="s">
+      <c r="B2" s="82"/>
+      <c r="C2" s="82"/>
+      <c r="D2" s="82"/>
+      <c r="E2" s="83" t="s">
         <v>61</v>
       </c>
-      <c r="F2" s="80"/>
+      <c r="F2" s="83"/>
       <c r="G2" s="6"/>
       <c r="H2" s="24"/>
       <c r="I2" s="24"/>
@@ -3281,58 +3289,58 @@
       <c r="W3" s="30"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="81" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="73" t="s">
+      <c r="A4" s="84" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="76" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="73"/>
-      <c r="D4" s="73"/>
-      <c r="E4" s="73"/>
-      <c r="F4" s="73"/>
-      <c r="G4" s="73"/>
-      <c r="H4" s="73"/>
-      <c r="I4" s="73"/>
-      <c r="J4" s="73" t="s">
+      <c r="C4" s="76"/>
+      <c r="D4" s="76"/>
+      <c r="E4" s="76"/>
+      <c r="F4" s="76"/>
+      <c r="G4" s="76"/>
+      <c r="H4" s="76"/>
+      <c r="I4" s="76"/>
+      <c r="J4" s="76" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="73" t="s">
+      <c r="K4" s="76" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="73"/>
-      <c r="M4" s="76" t="s">
+      <c r="L4" s="76"/>
+      <c r="M4" s="79" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="76" t="s">
+      <c r="N4" s="79" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="73" t="s">
+      <c r="O4" s="76" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="74" t="s">
+      <c r="P4" s="77" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="73" t="s">
+      <c r="Q4" s="76" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="73" t="s">
+      <c r="R4" s="76" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="82" t="s">
+      <c r="S4" s="85" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="30"/>
-      <c r="U4" s="73" t="s">
+      <c r="U4" s="76" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="73" t="s">
+      <c r="V4" s="76" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="56"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="81"/>
+      <c r="A5" s="84"/>
       <c r="B5" s="62" t="s">
         <v>1</v>
       </c>
@@ -3357,23 +3365,23 @@
       <c r="I5" s="62" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="73"/>
+      <c r="J5" s="76"/>
       <c r="K5" s="62" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="62" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="77"/>
-      <c r="N5" s="77"/>
-      <c r="O5" s="73"/>
-      <c r="P5" s="74"/>
-      <c r="Q5" s="73"/>
-      <c r="R5" s="73"/>
-      <c r="S5" s="82"/>
+      <c r="M5" s="80"/>
+      <c r="N5" s="80"/>
+      <c r="O5" s="76"/>
+      <c r="P5" s="77"/>
+      <c r="Q5" s="76"/>
+      <c r="R5" s="76"/>
+      <c r="S5" s="85"/>
       <c r="T5" s="30"/>
-      <c r="U5" s="73"/>
-      <c r="V5" s="73"/>
+      <c r="U5" s="76"/>
+      <c r="V5" s="76"/>
       <c r="W5" s="56"/>
     </row>
     <row r="6" spans="1:23" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3429,7 +3437,7 @@
       </c>
       <c r="S6" s="4"/>
       <c r="T6" s="61"/>
-      <c r="U6" s="83" t="s">
+      <c r="U6" s="73" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -3488,7 +3496,7 @@
       </c>
       <c r="S7" s="4"/>
       <c r="T7" s="61"/>
-      <c r="U7" s="84"/>
+      <c r="U7" s="74"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -3547,7 +3555,7 @@
       </c>
       <c r="S8" s="4"/>
       <c r="T8" s="61"/>
-      <c r="U8" s="84"/>
+      <c r="U8" s="74"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -3576,7 +3584,7 @@
       <c r="R9" s="43"/>
       <c r="S9" s="4"/>
       <c r="T9" s="61"/>
-      <c r="U9" s="84"/>
+      <c r="U9" s="74"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -3605,7 +3613,7 @@
       <c r="R10" s="43"/>
       <c r="S10" s="4"/>
       <c r="T10" s="61"/>
-      <c r="U10" s="84"/>
+      <c r="U10" s="74"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -3634,7 +3642,7 @@
       <c r="R11" s="43"/>
       <c r="S11" s="4"/>
       <c r="T11" s="61"/>
-      <c r="U11" s="84"/>
+      <c r="U11" s="74"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -3663,7 +3671,7 @@
       <c r="R12" s="43"/>
       <c r="S12" s="4"/>
       <c r="T12" s="61"/>
-      <c r="U12" s="83" t="s">
+      <c r="U12" s="73" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -3694,7 +3702,7 @@
       <c r="R13" s="11"/>
       <c r="S13" s="4"/>
       <c r="T13" s="61"/>
-      <c r="U13" s="84"/>
+      <c r="U13" s="74"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -3723,7 +3731,7 @@
       <c r="R14" s="43"/>
       <c r="S14" s="4"/>
       <c r="T14" s="61"/>
-      <c r="U14" s="84"/>
+      <c r="U14" s="74"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -3752,7 +3760,7 @@
       <c r="R15" s="43"/>
       <c r="S15" s="4"/>
       <c r="T15" s="16"/>
-      <c r="U15" s="84"/>
+      <c r="U15" s="74"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -3781,7 +3789,7 @@
       <c r="R16" s="43"/>
       <c r="S16" s="4"/>
       <c r="T16" s="16"/>
-      <c r="U16" s="85"/>
+      <c r="U16" s="75"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -5012,13 +5020,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -5030,6 +5031,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5073,43 +5081,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="75" t="s">
+      <c r="A1" s="78" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="75"/>
-      <c r="C1" s="75"/>
-      <c r="D1" s="75"/>
-      <c r="E1" s="75"/>
-      <c r="F1" s="75"/>
-      <c r="G1" s="75"/>
-      <c r="H1" s="75"/>
-      <c r="I1" s="75"/>
-      <c r="J1" s="75"/>
-      <c r="K1" s="75"/>
-      <c r="L1" s="75"/>
-      <c r="M1" s="75"/>
-      <c r="N1" s="75"/>
-      <c r="O1" s="75"/>
-      <c r="P1" s="75"/>
-      <c r="Q1" s="75"/>
-      <c r="R1" s="75"/>
-      <c r="S1" s="75"/>
-      <c r="T1" s="75"/>
-      <c r="U1" s="75"/>
-      <c r="V1" s="75"/>
+      <c r="B1" s="78"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="78"/>
+      <c r="F1" s="78"/>
+      <c r="G1" s="78"/>
+      <c r="H1" s="78"/>
+      <c r="I1" s="78"/>
+      <c r="J1" s="78"/>
+      <c r="K1" s="78"/>
+      <c r="L1" s="78"/>
+      <c r="M1" s="78"/>
+      <c r="N1" s="78"/>
+      <c r="O1" s="78"/>
+      <c r="P1" s="78"/>
+      <c r="Q1" s="78"/>
+      <c r="R1" s="78"/>
+      <c r="S1" s="78"/>
+      <c r="T1" s="78"/>
+      <c r="U1" s="78"/>
+      <c r="V1" s="78"/>
       <c r="W1" s="55"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="78" t="s">
+      <c r="A2" s="81" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="79"/>
-      <c r="C2" s="79"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="80" t="s">
+      <c r="B2" s="82"/>
+      <c r="C2" s="82"/>
+      <c r="D2" s="82"/>
+      <c r="E2" s="83" t="s">
         <v>61</v>
       </c>
-      <c r="F2" s="80"/>
+      <c r="F2" s="83"/>
       <c r="G2" s="6"/>
       <c r="H2" s="24"/>
       <c r="I2" s="24"/>
@@ -5154,58 +5162,58 @@
       <c r="W3" s="30"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="81" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="73" t="s">
+      <c r="A4" s="84" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="76" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="73"/>
-      <c r="D4" s="73"/>
-      <c r="E4" s="73"/>
-      <c r="F4" s="73"/>
-      <c r="G4" s="73"/>
-      <c r="H4" s="73"/>
-      <c r="I4" s="73"/>
-      <c r="J4" s="73" t="s">
+      <c r="C4" s="76"/>
+      <c r="D4" s="76"/>
+      <c r="E4" s="76"/>
+      <c r="F4" s="76"/>
+      <c r="G4" s="76"/>
+      <c r="H4" s="76"/>
+      <c r="I4" s="76"/>
+      <c r="J4" s="76" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="73" t="s">
+      <c r="K4" s="76" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="73"/>
-      <c r="M4" s="76" t="s">
+      <c r="L4" s="76"/>
+      <c r="M4" s="79" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="76" t="s">
+      <c r="N4" s="79" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="73" t="s">
+      <c r="O4" s="76" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="74" t="s">
+      <c r="P4" s="77" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="73" t="s">
+      <c r="Q4" s="76" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="73" t="s">
+      <c r="R4" s="76" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="82" t="s">
+      <c r="S4" s="85" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="30"/>
-      <c r="U4" s="73" t="s">
+      <c r="U4" s="76" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="73" t="s">
+      <c r="V4" s="76" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="56"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="81"/>
+      <c r="A5" s="84"/>
       <c r="B5" s="62" t="s">
         <v>1</v>
       </c>
@@ -5230,23 +5238,23 @@
       <c r="I5" s="62" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="73"/>
+      <c r="J5" s="76"/>
       <c r="K5" s="62" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="62" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="77"/>
-      <c r="N5" s="77"/>
-      <c r="O5" s="73"/>
-      <c r="P5" s="74"/>
-      <c r="Q5" s="73"/>
-      <c r="R5" s="73"/>
-      <c r="S5" s="82"/>
+      <c r="M5" s="80"/>
+      <c r="N5" s="80"/>
+      <c r="O5" s="76"/>
+      <c r="P5" s="77"/>
+      <c r="Q5" s="76"/>
+      <c r="R5" s="76"/>
+      <c r="S5" s="85"/>
       <c r="T5" s="30"/>
-      <c r="U5" s="73"/>
-      <c r="V5" s="73"/>
+      <c r="U5" s="76"/>
+      <c r="V5" s="76"/>
       <c r="W5" s="56"/>
     </row>
     <row r="6" spans="1:23" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -5300,7 +5308,7 @@
       </c>
       <c r="S6" s="4"/>
       <c r="T6" s="61"/>
-      <c r="U6" s="83" t="s">
+      <c r="U6" s="73" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -5331,7 +5339,7 @@
       <c r="R7" s="43"/>
       <c r="S7" s="4"/>
       <c r="T7" s="61"/>
-      <c r="U7" s="84"/>
+      <c r="U7" s="74"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -5360,7 +5368,7 @@
       <c r="R8" s="43"/>
       <c r="S8" s="4"/>
       <c r="T8" s="61"/>
-      <c r="U8" s="84"/>
+      <c r="U8" s="74"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -5389,7 +5397,7 @@
       <c r="R9" s="43"/>
       <c r="S9" s="4"/>
       <c r="T9" s="61"/>
-      <c r="U9" s="84"/>
+      <c r="U9" s="74"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -5418,7 +5426,7 @@
       <c r="R10" s="43"/>
       <c r="S10" s="4"/>
       <c r="T10" s="61"/>
-      <c r="U10" s="84"/>
+      <c r="U10" s="74"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -5447,7 +5455,7 @@
       <c r="R11" s="43"/>
       <c r="S11" s="4"/>
       <c r="T11" s="61"/>
-      <c r="U11" s="84"/>
+      <c r="U11" s="74"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -5476,7 +5484,7 @@
       <c r="R12" s="43"/>
       <c r="S12" s="4"/>
       <c r="T12" s="61"/>
-      <c r="U12" s="83" t="s">
+      <c r="U12" s="73" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -5507,7 +5515,7 @@
       <c r="R13" s="11"/>
       <c r="S13" s="4"/>
       <c r="T13" s="61"/>
-      <c r="U13" s="84"/>
+      <c r="U13" s="74"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -5536,7 +5544,7 @@
       <c r="R14" s="43"/>
       <c r="S14" s="4"/>
       <c r="T14" s="61"/>
-      <c r="U14" s="84"/>
+      <c r="U14" s="74"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -5565,7 +5573,7 @@
       <c r="R15" s="43"/>
       <c r="S15" s="4"/>
       <c r="T15" s="16"/>
-      <c r="U15" s="84"/>
+      <c r="U15" s="74"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -5594,7 +5602,7 @@
       <c r="R16" s="43"/>
       <c r="S16" s="4"/>
       <c r="T16" s="16"/>
-      <c r="U16" s="85"/>
+      <c r="U16" s="75"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -6825,13 +6833,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -6843,6 +6844,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -6886,43 +6894,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="75" t="s">
+      <c r="A1" s="78" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="75"/>
-      <c r="C1" s="75"/>
-      <c r="D1" s="75"/>
-      <c r="E1" s="75"/>
-      <c r="F1" s="75"/>
-      <c r="G1" s="75"/>
-      <c r="H1" s="75"/>
-      <c r="I1" s="75"/>
-      <c r="J1" s="75"/>
-      <c r="K1" s="75"/>
-      <c r="L1" s="75"/>
-      <c r="M1" s="75"/>
-      <c r="N1" s="75"/>
-      <c r="O1" s="75"/>
-      <c r="P1" s="75"/>
-      <c r="Q1" s="75"/>
-      <c r="R1" s="75"/>
-      <c r="S1" s="75"/>
-      <c r="T1" s="75"/>
-      <c r="U1" s="75"/>
-      <c r="V1" s="75"/>
+      <c r="B1" s="78"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="78"/>
+      <c r="F1" s="78"/>
+      <c r="G1" s="78"/>
+      <c r="H1" s="78"/>
+      <c r="I1" s="78"/>
+      <c r="J1" s="78"/>
+      <c r="K1" s="78"/>
+      <c r="L1" s="78"/>
+      <c r="M1" s="78"/>
+      <c r="N1" s="78"/>
+      <c r="O1" s="78"/>
+      <c r="P1" s="78"/>
+      <c r="Q1" s="78"/>
+      <c r="R1" s="78"/>
+      <c r="S1" s="78"/>
+      <c r="T1" s="78"/>
+      <c r="U1" s="78"/>
+      <c r="V1" s="78"/>
       <c r="W1" s="55"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="78" t="s">
+      <c r="A2" s="81" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="79"/>
-      <c r="C2" s="79"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="80" t="s">
+      <c r="B2" s="82"/>
+      <c r="C2" s="82"/>
+      <c r="D2" s="82"/>
+      <c r="E2" s="83" t="s">
         <v>61</v>
       </c>
-      <c r="F2" s="80"/>
+      <c r="F2" s="83"/>
       <c r="G2" s="6"/>
       <c r="H2" s="24"/>
       <c r="I2" s="24"/>
@@ -6967,58 +6975,58 @@
       <c r="W3" s="30"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="81" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="73" t="s">
+      <c r="A4" s="84" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="76" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="73"/>
-      <c r="D4" s="73"/>
-      <c r="E4" s="73"/>
-      <c r="F4" s="73"/>
-      <c r="G4" s="73"/>
-      <c r="H4" s="73"/>
-      <c r="I4" s="73"/>
-      <c r="J4" s="73" t="s">
+      <c r="C4" s="76"/>
+      <c r="D4" s="76"/>
+      <c r="E4" s="76"/>
+      <c r="F4" s="76"/>
+      <c r="G4" s="76"/>
+      <c r="H4" s="76"/>
+      <c r="I4" s="76"/>
+      <c r="J4" s="76" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="73" t="s">
+      <c r="K4" s="76" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="73"/>
-      <c r="M4" s="76" t="s">
+      <c r="L4" s="76"/>
+      <c r="M4" s="79" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="76" t="s">
+      <c r="N4" s="79" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="73" t="s">
+      <c r="O4" s="76" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="74" t="s">
+      <c r="P4" s="77" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="73" t="s">
+      <c r="Q4" s="76" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="73" t="s">
+      <c r="R4" s="76" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="82" t="s">
+      <c r="S4" s="85" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="30"/>
-      <c r="U4" s="73" t="s">
+      <c r="U4" s="76" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="73" t="s">
+      <c r="V4" s="76" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="56"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="81"/>
+      <c r="A5" s="84"/>
       <c r="B5" s="53" t="s">
         <v>1</v>
       </c>
@@ -7043,23 +7051,23 @@
       <c r="I5" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="73"/>
+      <c r="J5" s="76"/>
       <c r="K5" s="53" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="77"/>
-      <c r="N5" s="77"/>
-      <c r="O5" s="73"/>
-      <c r="P5" s="74"/>
-      <c r="Q5" s="73"/>
-      <c r="R5" s="73"/>
-      <c r="S5" s="82"/>
+      <c r="M5" s="80"/>
+      <c r="N5" s="80"/>
+      <c r="O5" s="76"/>
+      <c r="P5" s="77"/>
+      <c r="Q5" s="76"/>
+      <c r="R5" s="76"/>
+      <c r="S5" s="85"/>
       <c r="T5" s="30"/>
-      <c r="U5" s="73"/>
-      <c r="V5" s="73"/>
+      <c r="U5" s="76"/>
+      <c r="V5" s="76"/>
       <c r="W5" s="56"/>
     </row>
     <row r="6" spans="1:23" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -7111,7 +7119,7 @@
       </c>
       <c r="S6" s="4"/>
       <c r="T6" s="52"/>
-      <c r="U6" s="83" t="s">
+      <c r="U6" s="73" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -7164,7 +7172,7 @@
       </c>
       <c r="S7" s="4"/>
       <c r="T7" s="52"/>
-      <c r="U7" s="84"/>
+      <c r="U7" s="74"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -7219,7 +7227,7 @@
       </c>
       <c r="S8" s="4"/>
       <c r="T8" s="52"/>
-      <c r="U8" s="84"/>
+      <c r="U8" s="74"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -7270,7 +7278,7 @@
       </c>
       <c r="S9" s="64"/>
       <c r="T9" s="52"/>
-      <c r="U9" s="84"/>
+      <c r="U9" s="74"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -7325,7 +7333,7 @@
       </c>
       <c r="S10" s="4"/>
       <c r="T10" s="52"/>
-      <c r="U10" s="84"/>
+      <c r="U10" s="74"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -7380,7 +7388,7 @@
       </c>
       <c r="S11" s="4"/>
       <c r="T11" s="52"/>
-      <c r="U11" s="84"/>
+      <c r="U11" s="74"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -7435,7 +7443,7 @@
       </c>
       <c r="S12" s="4"/>
       <c r="T12" s="52"/>
-      <c r="U12" s="83" t="s">
+      <c r="U12" s="73" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -7466,7 +7474,7 @@
       <c r="R13" s="11"/>
       <c r="S13" s="4"/>
       <c r="T13" s="52"/>
-      <c r="U13" s="84"/>
+      <c r="U13" s="74"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -7495,7 +7503,7 @@
       <c r="R14" s="43"/>
       <c r="S14" s="4"/>
       <c r="T14" s="52"/>
-      <c r="U14" s="84"/>
+      <c r="U14" s="74"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -7524,7 +7532,7 @@
       <c r="R15" s="43"/>
       <c r="S15" s="4"/>
       <c r="T15" s="16"/>
-      <c r="U15" s="84"/>
+      <c r="U15" s="74"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -7553,7 +7561,7 @@
       <c r="R16" s="43"/>
       <c r="S16" s="4"/>
       <c r="T16" s="16"/>
-      <c r="U16" s="85"/>
+      <c r="U16" s="75"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -8784,13 +8792,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -8802,6 +8803,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -8845,43 +8853,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="75" t="s">
+      <c r="A1" s="78" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="75"/>
-      <c r="C1" s="75"/>
-      <c r="D1" s="75"/>
-      <c r="E1" s="75"/>
-      <c r="F1" s="75"/>
-      <c r="G1" s="75"/>
-      <c r="H1" s="75"/>
-      <c r="I1" s="75"/>
-      <c r="J1" s="75"/>
-      <c r="K1" s="75"/>
-      <c r="L1" s="75"/>
-      <c r="M1" s="75"/>
-      <c r="N1" s="75"/>
-      <c r="O1" s="75"/>
-      <c r="P1" s="75"/>
-      <c r="Q1" s="75"/>
-      <c r="R1" s="75"/>
-      <c r="S1" s="75"/>
-      <c r="T1" s="75"/>
-      <c r="U1" s="75"/>
-      <c r="V1" s="75"/>
+      <c r="B1" s="78"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="78"/>
+      <c r="F1" s="78"/>
+      <c r="G1" s="78"/>
+      <c r="H1" s="78"/>
+      <c r="I1" s="78"/>
+      <c r="J1" s="78"/>
+      <c r="K1" s="78"/>
+      <c r="L1" s="78"/>
+      <c r="M1" s="78"/>
+      <c r="N1" s="78"/>
+      <c r="O1" s="78"/>
+      <c r="P1" s="78"/>
+      <c r="Q1" s="78"/>
+      <c r="R1" s="78"/>
+      <c r="S1" s="78"/>
+      <c r="T1" s="78"/>
+      <c r="U1" s="78"/>
+      <c r="V1" s="78"/>
       <c r="W1" s="55"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="78" t="s">
+      <c r="A2" s="81" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="79"/>
-      <c r="C2" s="79"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="80" t="s">
+      <c r="B2" s="82"/>
+      <c r="C2" s="82"/>
+      <c r="D2" s="82"/>
+      <c r="E2" s="83" t="s">
         <v>61</v>
       </c>
-      <c r="F2" s="80"/>
+      <c r="F2" s="83"/>
       <c r="G2" s="6"/>
       <c r="H2" s="24"/>
       <c r="I2" s="24"/>
@@ -8926,58 +8934,58 @@
       <c r="W3" s="30"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="81" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="73" t="s">
+      <c r="A4" s="84" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="76" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="73"/>
-      <c r="D4" s="73"/>
-      <c r="E4" s="73"/>
-      <c r="F4" s="73"/>
-      <c r="G4" s="73"/>
-      <c r="H4" s="73"/>
-      <c r="I4" s="73"/>
-      <c r="J4" s="73" t="s">
+      <c r="C4" s="76"/>
+      <c r="D4" s="76"/>
+      <c r="E4" s="76"/>
+      <c r="F4" s="76"/>
+      <c r="G4" s="76"/>
+      <c r="H4" s="76"/>
+      <c r="I4" s="76"/>
+      <c r="J4" s="76" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="73" t="s">
+      <c r="K4" s="76" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="73"/>
-      <c r="M4" s="76" t="s">
+      <c r="L4" s="76"/>
+      <c r="M4" s="79" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="76" t="s">
+      <c r="N4" s="79" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="73" t="s">
+      <c r="O4" s="76" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="74" t="s">
+      <c r="P4" s="77" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="73" t="s">
+      <c r="Q4" s="76" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="73" t="s">
+      <c r="R4" s="76" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="82" t="s">
+      <c r="S4" s="85" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="30"/>
-      <c r="U4" s="73" t="s">
+      <c r="U4" s="76" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="73" t="s">
+      <c r="V4" s="76" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="56"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="81"/>
+      <c r="A5" s="84"/>
       <c r="B5" s="50" t="s">
         <v>1</v>
       </c>
@@ -9002,23 +9010,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="73"/>
+      <c r="J5" s="76"/>
       <c r="K5" s="50" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="77"/>
-      <c r="N5" s="77"/>
-      <c r="O5" s="73"/>
-      <c r="P5" s="74"/>
-      <c r="Q5" s="73"/>
-      <c r="R5" s="73"/>
-      <c r="S5" s="82"/>
+      <c r="M5" s="80"/>
+      <c r="N5" s="80"/>
+      <c r="O5" s="76"/>
+      <c r="P5" s="77"/>
+      <c r="Q5" s="76"/>
+      <c r="R5" s="76"/>
+      <c r="S5" s="85"/>
       <c r="T5" s="30"/>
-      <c r="U5" s="73"/>
-      <c r="V5" s="73"/>
+      <c r="U5" s="76"/>
+      <c r="V5" s="76"/>
       <c r="W5" s="56"/>
     </row>
     <row r="6" spans="1:23" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -9076,7 +9084,7 @@
       </c>
       <c r="S6" s="64"/>
       <c r="T6" s="49"/>
-      <c r="U6" s="83" t="s">
+      <c r="U6" s="73" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -9135,7 +9143,7 @@
       </c>
       <c r="S7" s="4"/>
       <c r="T7" s="49"/>
-      <c r="U7" s="84"/>
+      <c r="U7" s="74"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -9194,7 +9202,7 @@
       </c>
       <c r="S8" s="4"/>
       <c r="T8" s="49"/>
-      <c r="U8" s="84"/>
+      <c r="U8" s="74"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -9253,7 +9261,7 @@
       </c>
       <c r="S9" s="4"/>
       <c r="T9" s="49"/>
-      <c r="U9" s="84"/>
+      <c r="U9" s="74"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -9310,7 +9318,7 @@
       </c>
       <c r="S10" s="4"/>
       <c r="T10" s="49"/>
-      <c r="U10" s="84"/>
+      <c r="U10" s="74"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -9339,7 +9347,7 @@
       <c r="R11" s="43"/>
       <c r="S11" s="4"/>
       <c r="T11" s="49"/>
-      <c r="U11" s="84"/>
+      <c r="U11" s="74"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -9368,7 +9376,7 @@
       <c r="R12" s="43"/>
       <c r="S12" s="4"/>
       <c r="T12" s="49"/>
-      <c r="U12" s="83" t="s">
+      <c r="U12" s="73" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -9399,7 +9407,7 @@
       <c r="R13" s="11"/>
       <c r="S13" s="4"/>
       <c r="T13" s="49"/>
-      <c r="U13" s="84"/>
+      <c r="U13" s="74"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -9428,7 +9436,7 @@
       <c r="R14" s="43"/>
       <c r="S14" s="4"/>
       <c r="T14" s="49"/>
-      <c r="U14" s="84"/>
+      <c r="U14" s="74"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -9457,7 +9465,7 @@
       <c r="R15" s="43"/>
       <c r="S15" s="4"/>
       <c r="T15" s="16"/>
-      <c r="U15" s="84"/>
+      <c r="U15" s="74"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -9486,7 +9494,7 @@
       <c r="R16" s="43"/>
       <c r="S16" s="4"/>
       <c r="T16" s="16"/>
-      <c r="U16" s="85"/>
+      <c r="U16" s="75"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -10717,6 +10725,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -10728,13 +10743,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -10745,8 +10753,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" topLeftCell="A5" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K33" sqref="K33"/>
+    <sheetView showZeros="0" topLeftCell="K1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:S6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -10778,43 +10786,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="75" t="s">
+      <c r="A1" s="78" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="75"/>
-      <c r="C1" s="75"/>
-      <c r="D1" s="75"/>
-      <c r="E1" s="75"/>
-      <c r="F1" s="75"/>
-      <c r="G1" s="75"/>
-      <c r="H1" s="75"/>
-      <c r="I1" s="75"/>
-      <c r="J1" s="75"/>
-      <c r="K1" s="75"/>
-      <c r="L1" s="75"/>
-      <c r="M1" s="75"/>
-      <c r="N1" s="75"/>
-      <c r="O1" s="75"/>
-      <c r="P1" s="75"/>
-      <c r="Q1" s="75"/>
-      <c r="R1" s="75"/>
-      <c r="S1" s="75"/>
-      <c r="T1" s="75"/>
-      <c r="U1" s="75"/>
-      <c r="V1" s="75"/>
+      <c r="B1" s="78"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="78"/>
+      <c r="F1" s="78"/>
+      <c r="G1" s="78"/>
+      <c r="H1" s="78"/>
+      <c r="I1" s="78"/>
+      <c r="J1" s="78"/>
+      <c r="K1" s="78"/>
+      <c r="L1" s="78"/>
+      <c r="M1" s="78"/>
+      <c r="N1" s="78"/>
+      <c r="O1" s="78"/>
+      <c r="P1" s="78"/>
+      <c r="Q1" s="78"/>
+      <c r="R1" s="78"/>
+      <c r="S1" s="78"/>
+      <c r="T1" s="78"/>
+      <c r="U1" s="78"/>
+      <c r="V1" s="78"/>
       <c r="W1" s="55"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="78" t="s">
+      <c r="A2" s="81" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="79"/>
-      <c r="C2" s="79"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="80" t="s">
+      <c r="B2" s="82"/>
+      <c r="C2" s="82"/>
+      <c r="D2" s="82"/>
+      <c r="E2" s="83" t="s">
         <v>61</v>
       </c>
-      <c r="F2" s="80"/>
+      <c r="F2" s="83"/>
       <c r="G2" s="6"/>
       <c r="H2" s="24"/>
       <c r="I2" s="24"/>
@@ -10859,58 +10867,58 @@
       <c r="W3" s="30"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="81" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="73" t="s">
+      <c r="A4" s="84" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="76" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="73"/>
-      <c r="D4" s="73"/>
-      <c r="E4" s="73"/>
-      <c r="F4" s="73"/>
-      <c r="G4" s="73"/>
-      <c r="H4" s="73"/>
-      <c r="I4" s="73"/>
-      <c r="J4" s="73" t="s">
+      <c r="C4" s="76"/>
+      <c r="D4" s="76"/>
+      <c r="E4" s="76"/>
+      <c r="F4" s="76"/>
+      <c r="G4" s="76"/>
+      <c r="H4" s="76"/>
+      <c r="I4" s="76"/>
+      <c r="J4" s="76" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="73" t="s">
+      <c r="K4" s="76" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="73"/>
-      <c r="M4" s="76" t="s">
+      <c r="L4" s="76"/>
+      <c r="M4" s="79" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="76" t="s">
+      <c r="N4" s="79" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="73" t="s">
+      <c r="O4" s="76" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="74" t="s">
+      <c r="P4" s="77" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="73" t="s">
+      <c r="Q4" s="76" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="73" t="s">
+      <c r="R4" s="76" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="82" t="s">
+      <c r="S4" s="85" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="30"/>
-      <c r="U4" s="73" t="s">
+      <c r="U4" s="76" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="73" t="s">
+      <c r="V4" s="76" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="56"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="81"/>
+      <c r="A5" s="84"/>
       <c r="B5" s="50" t="s">
         <v>1</v>
       </c>
@@ -10935,77 +10943,79 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="73"/>
+      <c r="J5" s="76"/>
       <c r="K5" s="50" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="77"/>
-      <c r="N5" s="77"/>
-      <c r="O5" s="73"/>
-      <c r="P5" s="74"/>
-      <c r="Q5" s="73"/>
-      <c r="R5" s="73"/>
-      <c r="S5" s="82"/>
+      <c r="M5" s="80"/>
+      <c r="N5" s="80"/>
+      <c r="O5" s="76"/>
+      <c r="P5" s="77"/>
+      <c r="Q5" s="76"/>
+      <c r="R5" s="76"/>
+      <c r="S5" s="85"/>
       <c r="T5" s="30"/>
-      <c r="U5" s="73"/>
-      <c r="V5" s="73"/>
+      <c r="U5" s="76"/>
+      <c r="V5" s="76"/>
       <c r="W5" s="56"/>
     </row>
     <row r="6" spans="1:23" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>1</v>
       </c>
-      <c r="B6" s="65" t="s">
+      <c r="B6" s="42" t="s">
         <v>65</v>
       </c>
-      <c r="C6" s="65"/>
-      <c r="D6" s="66" t="s">
+      <c r="C6" s="42">
+        <v>44343</v>
+      </c>
+      <c r="D6" s="45" t="s">
         <v>44</v>
       </c>
-      <c r="E6" s="71">
+      <c r="E6" s="86">
         <v>868183034803952</v>
       </c>
-      <c r="F6" s="66"/>
-      <c r="G6" s="66" t="s">
+      <c r="F6" s="45"/>
+      <c r="G6" s="45" t="s">
         <v>63</v>
       </c>
-      <c r="H6" s="66" t="s">
-        <v>135</v>
-      </c>
-      <c r="I6" s="68" t="s">
+      <c r="H6" s="45" t="s">
+        <v>134</v>
+      </c>
+      <c r="I6" s="60" t="s">
         <v>84</v>
       </c>
-      <c r="J6" s="66" t="s">
+      <c r="J6" s="45" t="s">
         <v>34</v>
       </c>
-      <c r="K6" s="66" t="s">
+      <c r="K6" s="45" t="s">
         <v>76</v>
       </c>
       <c r="L6" s="45" t="s">
         <v>79</v>
       </c>
-      <c r="M6" s="66" t="s">
+      <c r="M6" s="45" t="s">
+        <v>135</v>
+      </c>
+      <c r="N6" s="47"/>
+      <c r="O6" s="45" t="s">
+        <v>132</v>
+      </c>
+      <c r="P6" s="45" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q6" s="63" t="s">
+        <v>81</v>
+      </c>
+      <c r="R6" s="45" t="s">
         <v>136</v>
       </c>
-      <c r="N6" s="69"/>
-      <c r="O6" s="66" t="s">
-        <v>132</v>
-      </c>
-      <c r="P6" s="66" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q6" s="70" t="s">
-        <v>81</v>
-      </c>
-      <c r="R6" s="66" t="s">
-        <v>137</v>
-      </c>
-      <c r="S6" s="64"/>
+      <c r="S6" s="1"/>
       <c r="T6" s="49"/>
-      <c r="U6" s="83" t="s">
+      <c r="U6" s="73" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -11064,7 +11074,7 @@
       </c>
       <c r="S7" s="4"/>
       <c r="T7" s="49"/>
-      <c r="U7" s="84"/>
+      <c r="U7" s="74"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -11121,7 +11131,7 @@
       </c>
       <c r="S8" s="4"/>
       <c r="T8" s="49"/>
-      <c r="U8" s="84"/>
+      <c r="U8" s="74"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -11178,7 +11188,7 @@
       </c>
       <c r="S9" s="4"/>
       <c r="T9" s="49"/>
-      <c r="U9" s="84"/>
+      <c r="U9" s="74"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -11235,7 +11245,7 @@
       </c>
       <c r="S10" s="4"/>
       <c r="T10" s="49"/>
-      <c r="U10" s="84"/>
+      <c r="U10" s="74"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -11290,7 +11300,7 @@
       </c>
       <c r="S11" s="4"/>
       <c r="T11" s="49"/>
-      <c r="U11" s="84"/>
+      <c r="U11" s="74"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -11349,7 +11359,7 @@
       </c>
       <c r="S12" s="4"/>
       <c r="T12" s="49"/>
-      <c r="U12" s="83" t="s">
+      <c r="U12" s="73" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -11408,7 +11418,7 @@
       </c>
       <c r="S13" s="4"/>
       <c r="T13" s="49"/>
-      <c r="U13" s="84"/>
+      <c r="U13" s="74"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -11467,7 +11477,7 @@
       </c>
       <c r="S14" s="4"/>
       <c r="T14" s="49"/>
-      <c r="U14" s="84"/>
+      <c r="U14" s="74"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -11524,7 +11534,7 @@
       </c>
       <c r="S15" s="4"/>
       <c r="T15" s="16"/>
-      <c r="U15" s="84"/>
+      <c r="U15" s="74"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -11579,7 +11589,7 @@
       </c>
       <c r="S16" s="4"/>
       <c r="T16" s="16"/>
-      <c r="U16" s="85"/>
+      <c r="U16" s="75"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -13106,6 +13116,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -13117,13 +13134,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
